--- a/VN/wc_template_VN_v3.xlsx
+++ b/VN/wc_template_VN_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\VN\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FA258F-1ABE-46C6-AE6F-223CF1B31F8B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4E9182-851A-4F77-8480-E086DC533B14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="240" windowWidth="17990" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31815" yWindow="1395" windowWidth="24675" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="129">
   <si>
     <t>Supplier Name</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>L30D</t>
-  </si>
-  <si>
-    <t>L30S</t>
   </si>
   <si>
     <t>Aug</t>
@@ -1069,16 +1066,10 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1257,6 +1248,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1266,9 +1264,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1579,16 +1574,22 @@
     <col min="5" max="5" width="14.81640625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12.1796875" customWidth="1"/>
     <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="25" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="13.1796875" style="118" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="28" width="13.1796875" style="120" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="31" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="43" width="13.1796875" style="18" customWidth="1"/>
-    <col min="44" max="47" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="50" width="13.1796875" style="18" customWidth="1"/>
+    <col min="10" max="25" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="13.1796875" style="116" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="28" width="13.1796875" style="118" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="31" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="13.1796875" style="18" customWidth="1" collapsed="1"/>
+    <col min="33" max="36" width="13.1796875" style="18" customWidth="1"/>
+    <col min="37" max="37" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="13.1796875" style="163" customWidth="1" collapsed="1"/>
+    <col min="39" max="42" width="13.1796875" style="18" customWidth="1"/>
+    <col min="43" max="47" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="48" width="13.1796875" style="163" customWidth="1" collapsed="1"/>
+    <col min="49" max="50" width="13.1796875" style="18" customWidth="1"/>
     <col min="51" max="51" width="13.1796875" style="47" customWidth="1"/>
-    <col min="52" max="53" width="13.1796875" style="18" customWidth="1"/>
-    <col min="54" max="57" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="13.1796875" style="18" customWidth="1"/>
+    <col min="53" max="57" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="8.81640625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
@@ -1623,7 +1624,7 @@
       <c r="W1" s="65"/>
       <c r="X1" s="65"/>
       <c r="Y1" s="65"/>
-      <c r="Z1" s="105"/>
+      <c r="Z1" s="103"/>
       <c r="AA1" s="65"/>
       <c r="AB1" s="65"/>
       <c r="AC1" s="65"/>
@@ -1637,7 +1638,7 @@
       <c r="AI1" s="48"/>
       <c r="AJ1" s="48"/>
       <c r="AK1" s="48"/>
-      <c r="AL1" s="59"/>
+      <c r="AL1" s="48"/>
       <c r="AM1" s="59"/>
       <c r="AN1" s="59"/>
       <c r="AO1" s="59"/>
@@ -1647,7 +1648,7 @@
       <c r="AS1" s="59"/>
       <c r="AT1" s="59"/>
       <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
+      <c r="AV1" s="48"/>
       <c r="AW1" s="59"/>
       <c r="AX1" s="59"/>
       <c r="AY1" s="59"/>
@@ -1656,7 +1657,7 @@
       <c r="BB1" s="59"/>
       <c r="BC1" s="59"/>
       <c r="BD1" s="59"/>
-      <c r="BE1" s="135"/>
+      <c r="BE1" s="133"/>
     </row>
     <row r="2" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
@@ -1699,11 +1700,11 @@
       <c r="W2" s="68"/>
       <c r="X2" s="68"/>
       <c r="Y2" s="68"/>
-      <c r="Z2" s="106" t="s">
+      <c r="Z2" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
       <c r="AC2" s="68" t="s">
         <v>55</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>33</v>
       </c>
       <c r="AQ3" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AR3" s="63">
         <v>43709</v>
@@ -1882,10 +1883,10 @@
       <c r="AS3" s="63">
         <v>43739</v>
       </c>
-      <c r="AT3" s="101">
+      <c r="AT3" s="99">
         <v>43770</v>
       </c>
-      <c r="AU3" s="132" t="s">
+      <c r="AU3" s="130" t="s">
         <v>58</v>
       </c>
       <c r="AV3" s="57" t="s">
@@ -1897,13 +1898,13 @@
       <c r="AX3" s="63">
         <v>43739</v>
       </c>
-      <c r="AY3" s="101">
+      <c r="AY3" s="99">
         <v>43770</v>
       </c>
       <c r="AZ3" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="BA3" s="133" t="s">
+      <c r="BA3" s="131" t="s">
         <v>58</v>
       </c>
       <c r="BB3" s="63">
@@ -1912,10 +1913,10 @@
       <c r="BC3" s="63">
         <v>43739</v>
       </c>
-      <c r="BD3" s="134">
+      <c r="BD3" s="132">
         <v>43770</v>
       </c>
-      <c r="BE3" s="136" t="s">
+      <c r="BE3" s="134" t="s">
         <v>58</v>
       </c>
       <c r="BF3" s="2"/>
@@ -1923,14 +1924,14 @@
     </row>
     <row r="4" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="81"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
       <c r="J4" s="82" t="e">
         <f>VLOOKUP($B4,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -1963,20 +1964,20 @@
         <f>VLOOKUP($B4,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="113"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
       <c r="AF4" s="83" t="str">
         <f>IFERROR(VLOOKUP($B4,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -1989,7 +1990,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI4" s="108" t="str">
+      <c r="AI4" s="106" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -1997,31 +1998,31 @@
         <f t="shared" ref="AJ4:AJ24" si="1">IFERROR(AF4-AI4, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AK4" s="137" t="str">
+      <c r="AK4" s="135" t="str">
         <f>IFERROR(IF(AQ4="n.a.", -BA4, IF(BA4="n.a.", AQ4, AQ4-BA4)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AL4" s="93" t="str">
+      <c r="AL4" s="162" t="str">
         <f>IFERROR(VLOOKUP($B4,VN!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
       <c r="AM4" s="84" t="str">
-        <f t="shared" ref="AM4:AO25" si="2">IFERROR(AR4/J4*30,"n.a.")</f>
+        <f>IFERROR(AR4/J4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AN4" s="87" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(AS4/K4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AO4" s="84" t="str">
-        <f>IFERROR(AT4/L4*30,"n.a.")</f>
+        <f>IFERROR(AT4/L4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AP4" s="85" t="str">
-        <f t="shared" ref="AP4:AP24" si="3">IFERROR(-AO4+AL4,"n.a.")</f>
+        <f t="shared" ref="AP4:AP24" si="2">IFERROR(-AO4+AL4,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AQ4" s="108" t="str">
+      <c r="AQ4" s="106" t="str">
         <f>IFERROR(AU4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
@@ -2041,27 +2042,27 @@
         <f>VLOOKUP(B4,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV4" s="96" t="str">
+      <c r="AV4" s="89" t="str">
         <f>IFERROR(VLOOKUP($B4,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
       <c r="AW4" s="84" t="str">
-        <f t="shared" ref="AW4:AY25" si="4">IFERROR(BB4/J4*30,"n.a.")</f>
+        <f>IFERROR(BB4/J4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX4" s="84" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(BC4/K4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AY4" s="80" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(BD4/L4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AZ4" s="85" t="str">
-        <f t="shared" ref="AZ4:AZ14" si="5">IFERROR(-AV4+AY4, "n.a.")</f>
+        <f t="shared" ref="AZ4:AZ14" si="3">IFERROR(-AV4+AY4, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BA4" s="108" t="str">
+      <c r="BA4" s="106" t="str">
         <f>IFERROR(BE4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
@@ -2077,21 +2078,21 @@
         <f>VLOOKUP(B4,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE4" s="95" t="e">
+      <c r="BE4" s="94" t="e">
         <f>VLOOKUP(B4,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="88"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
       <c r="J5" s="82" t="e">
         <f>VLOOKUP($B5,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2124,20 +2125,20 @@
         <f>VLOOKUP($B5,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="114"/>
+      <c r="AA5" s="114"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
       <c r="AF5" s="83" t="str">
         <f>IFERROR(VLOOKUP($B5,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2150,7 +2151,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI5" s="109" t="str">
+      <c r="AI5" s="107" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2158,43 +2159,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK5" s="137" t="str">
-        <f t="shared" ref="AK5:AK25" si="6">IFERROR(IF(AQ5="n.a.", -BA5, IF(BA5="n.a.", AQ5, AQ5-BA5)),"n.a.")</f>
+      <c r="AK5" s="135" t="str">
+        <f t="shared" ref="AK5:AK25" si="4">IFERROR(IF(AQ5="n.a.", -BA5, IF(BA5="n.a.", AQ5, AQ5-BA5)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AL5" s="93" t="str">
+      <c r="AL5" s="162" t="str">
         <f>IFERROR(VLOOKUP($B5,VN!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM5" s="90" t="str">
+      <c r="AM5" s="84" t="str">
+        <f t="shared" ref="AM5:AM24" si="5">IFERROR(AR5/J5*90,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AN5" s="87" t="str">
+        <f t="shared" ref="AN5:AN24" si="6">IFERROR(AS5/K5*90,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AO5" s="84" t="str">
+        <f t="shared" ref="AO5:AO24" si="7">IFERROR(AT5/L5*90,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AP5" s="91" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN5" s="87" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ5" s="106" t="str">
+        <f t="shared" ref="AQ5:AQ25" si="8">IFERROR(AU5/M5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AO5" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP5" s="91" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ5" s="108" t="str">
-        <f t="shared" ref="AQ5:AQ25" si="7">IFERROR(AU5/M5*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AR5" s="95" t="e">
+      <c r="AR5" s="94" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS5" s="95" t="e">
+      <c r="AS5" s="94" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT5" s="95" t="e">
+      <c r="AT5" s="94" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2202,57 +2203,57 @@
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV5" s="96" t="str">
+      <c r="AV5" s="89" t="str">
         <f>IFERROR(VLOOKUP($B5,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW5" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW5" s="84" t="str">
+        <f t="shared" ref="AW5:AW24" si="9">IFERROR(BB5/J5*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AX5" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX5" s="84" t="str">
+        <f t="shared" ref="AX5:AX24" si="10">IFERROR(BC5/K5*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AY5" s="77" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY5" s="80" t="str">
+        <f t="shared" ref="AY5:AY24" si="11">IFERROR(BD5/L5*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AZ5" s="91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA5" s="108" t="str">
-        <f t="shared" ref="BA5:BA14" si="8">IFERROR(BE5/M5*30,"n.a.")</f>
+      <c r="BA5" s="106" t="str">
+        <f t="shared" ref="BA5:BA14" si="12">IFERROR(BE5/M5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB5" s="95" t="e">
+      <c r="BB5" s="94" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC5" s="95" t="e">
+      <c r="BC5" s="94" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD5" s="95" t="e">
+      <c r="BD5" s="94" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE5" s="95" t="e">
+      <c r="BE5" s="94" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="88"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
       <c r="J6" s="82" t="e">
         <f>VLOOKUP($B6,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2285,20 +2286,20 @@
         <f>VLOOKUP($B6,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="115"/>
-      <c r="AA6" s="115"/>
-      <c r="AB6" s="115"/>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="107"/>
-      <c r="AE6" s="107"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="113"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
       <c r="AF6" s="83" t="str">
         <f>IFERROR(VLOOKUP($B6,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2311,7 +2312,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI6" s="109" t="str">
+      <c r="AI6" s="107" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2319,43 +2320,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK6" s="137" t="str">
+      <c r="AK6" s="135" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL6" s="162" t="str">
+        <f>IFERROR(VLOOKUP($B6,VN!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM6" s="84" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN6" s="87" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL6" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B6,VN!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM6" s="90" t="str">
+      <c r="AO6" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP6" s="91" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN6" s="94" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ6" s="106" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO6" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP6" s="91" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ6" s="108" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR6" s="95" t="e">
+      <c r="AR6" s="94" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS6" s="95" t="e">
+      <c r="AS6" s="94" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT6" s="95" t="e">
+      <c r="AT6" s="94" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2363,57 +2364,57 @@
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV6" s="96" t="str">
+      <c r="AV6" s="89" t="str">
         <f>IFERROR(VLOOKUP($B6,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW6" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW6" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX6" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX6" s="84" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY6" s="77" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY6" s="80" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ6" s="91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA6" s="108" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA6" s="106" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB6" s="95" t="e">
+      <c r="BB6" s="94" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC6" s="95" t="e">
+      <c r="BC6" s="94" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD6" s="95" t="e">
+      <c r="BD6" s="94" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE6" s="95" t="e">
+      <c r="BE6" s="94" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="88"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
       <c r="J7" s="82" t="e">
         <f>VLOOKUP($B7,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2446,20 +2447,20 @@
         <f>VLOOKUP($B7,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="115"/>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="115"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="113"/>
+      <c r="AA7" s="113"/>
+      <c r="AB7" s="113"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105"/>
       <c r="AF7" s="83" t="str">
         <f>IFERROR(VLOOKUP($B7,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2472,7 +2473,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI7" s="109" t="str">
+      <c r="AI7" s="107" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2480,43 +2481,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK7" s="137" t="str">
+      <c r="AK7" s="135" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL7" s="162" t="str">
+        <f>IFERROR(VLOOKUP($B7,VN!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM7" s="84" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN7" s="87" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL7" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B7,VN!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM7" s="90" t="str">
+      <c r="AO7" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP7" s="91" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN7" s="94" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ7" s="106" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO7" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP7" s="91" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ7" s="108" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR7" s="95" t="e">
+      <c r="AR7" s="94" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS7" s="95" t="e">
+      <c r="AS7" s="94" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT7" s="95" t="e">
+      <c r="AT7" s="94" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2524,57 +2525,57 @@
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV7" s="96" t="str">
+      <c r="AV7" s="89" t="str">
         <f>IFERROR(VLOOKUP($B7,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW7" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW7" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX7" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX7" s="84" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY7" s="77" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY7" s="80" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ7" s="91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA7" s="108" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA7" s="106" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB7" s="95" t="e">
+      <c r="BB7" s="94" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC7" s="95" t="e">
+      <c r="BC7" s="94" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD7" s="95" t="e">
+      <c r="BD7" s="94" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE7" s="95" t="e">
+      <c r="BE7" s="94" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="88"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
       <c r="J8" s="82" t="e">
         <f>VLOOKUP($B8,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2607,20 +2608,20 @@
         <f>VLOOKUP($B8,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="107"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
       <c r="AF8" s="83" t="str">
         <f>IFERROR(VLOOKUP($B8,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2633,7 +2634,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI8" s="109" t="str">
+      <c r="AI8" s="107" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2641,43 +2642,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK8" s="137" t="str">
+      <c r="AK8" s="135" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL8" s="162" t="str">
+        <f>IFERROR(VLOOKUP($B8,VN!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM8" s="84" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN8" s="87" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL8" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B8,VN!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM8" s="90" t="str">
+      <c r="AO8" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP8" s="91" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN8" s="94" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ8" s="106" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO8" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP8" s="91" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ8" s="108" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR8" s="95" t="e">
+      <c r="AR8" s="94" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS8" s="95" t="e">
+      <c r="AS8" s="94" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT8" s="95" t="e">
+      <c r="AT8" s="94" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2685,57 +2686,57 @@
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV8" s="96" t="str">
+      <c r="AV8" s="89" t="str">
         <f>IFERROR(VLOOKUP($B8,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW8" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW8" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX8" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX8" s="84" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY8" s="77" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY8" s="80" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ8" s="91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA8" s="108" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA8" s="106" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB8" s="95" t="e">
+      <c r="BB8" s="94" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC8" s="95" t="e">
+      <c r="BC8" s="94" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD8" s="95" t="e">
+      <c r="BD8" s="94" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE8" s="95" t="e">
+      <c r="BE8" s="94" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="88"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
       <c r="J9" s="82" t="e">
         <f>VLOOKUP($B9,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2768,20 +2769,20 @@
         <f>VLOOKUP($B9,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="107"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="115"/>
-      <c r="AA9" s="115"/>
-      <c r="AB9" s="115"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="107"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="105"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="113"/>
+      <c r="AA9" s="113"/>
+      <c r="AB9" s="113"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="105"/>
+      <c r="AE9" s="105"/>
       <c r="AF9" s="83" t="str">
         <f>IFERROR(VLOOKUP($B9,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2794,7 +2795,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI9" s="109" t="str">
+      <c r="AI9" s="107" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2802,43 +2803,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK9" s="137" t="str">
+      <c r="AK9" s="135" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL9" s="162" t="str">
+        <f>IFERROR(VLOOKUP($B9,VN!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM9" s="84" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN9" s="87" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL9" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B9,VN!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM9" s="90" t="str">
+      <c r="AO9" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP9" s="91" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN9" s="94" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ9" s="106" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO9" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP9" s="91" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ9" s="108" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR9" s="95" t="e">
+      <c r="AR9" s="94" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS9" s="95" t="e">
+      <c r="AS9" s="94" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT9" s="95" t="e">
+      <c r="AT9" s="94" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2846,57 +2847,57 @@
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV9" s="96" t="str">
+      <c r="AV9" s="89" t="str">
         <f>IFERROR(VLOOKUP($B9,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW9" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW9" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX9" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX9" s="84" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY9" s="77" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY9" s="80" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ9" s="91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA9" s="108" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA9" s="106" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB9" s="95" t="e">
+      <c r="BB9" s="94" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC9" s="95" t="e">
+      <c r="BC9" s="94" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD9" s="95" t="e">
+      <c r="BD9" s="94" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE9" s="95" t="e">
+      <c r="BE9" s="94" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="88"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
       <c r="J10" s="82" t="e">
         <f>VLOOKUP($B10,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2929,20 +2930,20 @@
         <f>VLOOKUP($B10,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R10" s="107"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="107"/>
-      <c r="U10" s="107"/>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="115"/>
-      <c r="AB10" s="115"/>
-      <c r="AC10" s="107"/>
-      <c r="AD10" s="107"/>
-      <c r="AE10" s="107"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="105"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="105"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="105"/>
+      <c r="AE10" s="105"/>
       <c r="AF10" s="83" t="str">
         <f>IFERROR(VLOOKUP($B10,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2955,7 +2956,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI10" s="109" t="str">
+      <c r="AI10" s="107" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2963,43 +2964,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK10" s="137" t="str">
+      <c r="AK10" s="135" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL10" s="162" t="str">
+        <f>IFERROR(VLOOKUP($B10,VN!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM10" s="84" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN10" s="87" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL10" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B10,VN!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM10" s="90" t="str">
+      <c r="AO10" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP10" s="91" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN10" s="94" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ10" s="106" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO10" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP10" s="91" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ10" s="108" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR10" s="95" t="e">
+      <c r="AR10" s="94" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS10" s="95" t="e">
+      <c r="AS10" s="94" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT10" s="95" t="e">
+      <c r="AT10" s="94" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3007,57 +3008,57 @@
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV10" s="96" t="str">
+      <c r="AV10" s="89" t="str">
         <f>IFERROR(VLOOKUP($B10,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW10" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW10" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX10" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX10" s="84" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY10" s="77" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY10" s="80" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ10" s="91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA10" s="108" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA10" s="106" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB10" s="95" t="e">
+      <c r="BB10" s="94" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC10" s="95" t="e">
+      <c r="BC10" s="94" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD10" s="95" t="e">
+      <c r="BD10" s="94" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE10" s="95" t="e">
+      <c r="BE10" s="94" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="88"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
       <c r="J11" s="82" t="e">
         <f>VLOOKUP($B11,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3090,20 +3091,20 @@
         <f>VLOOKUP($B11,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R11" s="107"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="107"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="115"/>
-      <c r="AA11" s="115"/>
-      <c r="AB11" s="115"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="107"/>
-      <c r="AE11" s="107"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="105"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="105"/>
+      <c r="Z11" s="113"/>
+      <c r="AA11" s="113"/>
+      <c r="AB11" s="113"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="105"/>
       <c r="AF11" s="83" t="str">
         <f>IFERROR(VLOOKUP($B11,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3116,7 +3117,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI11" s="109" t="str">
+      <c r="AI11" s="107" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3124,43 +3125,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK11" s="137" t="str">
+      <c r="AK11" s="135" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL11" s="162" t="str">
+        <f>IFERROR(VLOOKUP($B11,VN!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM11" s="84" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN11" s="87" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL11" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B11,VN!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM11" s="90" t="str">
+      <c r="AO11" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP11" s="91" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN11" s="94" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ11" s="106" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO11" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP11" s="91" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ11" s="108" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR11" s="95" t="e">
+      <c r="AR11" s="94" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS11" s="95" t="e">
+      <c r="AS11" s="94" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT11" s="95" t="e">
+      <c r="AT11" s="94" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3168,57 +3169,57 @@
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV11" s="96" t="str">
+      <c r="AV11" s="89" t="str">
         <f>IFERROR(VLOOKUP($B11,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW11" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW11" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX11" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX11" s="84" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY11" s="77" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY11" s="80" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ11" s="91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA11" s="108" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA11" s="106" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB11" s="95" t="e">
+      <c r="BB11" s="94" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC11" s="95" t="e">
+      <c r="BC11" s="94" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD11" s="95" t="e">
+      <c r="BD11" s="94" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE11" s="95" t="e">
+      <c r="BE11" s="94" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="88"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
       <c r="J12" s="82" t="e">
         <f>VLOOKUP($B12,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3251,20 +3252,20 @@
         <f>VLOOKUP($B12,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="107"/>
-      <c r="Z12" s="115"/>
-      <c r="AA12" s="115"/>
-      <c r="AB12" s="115"/>
-      <c r="AC12" s="107"/>
-      <c r="AD12" s="107"/>
-      <c r="AE12" s="107"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="105"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="105"/>
+      <c r="AD12" s="105"/>
+      <c r="AE12" s="105"/>
       <c r="AF12" s="83" t="str">
         <f>IFERROR(VLOOKUP($B12,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3277,7 +3278,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI12" s="109" t="str">
+      <c r="AI12" s="107" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3285,43 +3286,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK12" s="137" t="str">
+      <c r="AK12" s="135" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL12" s="162" t="str">
+        <f>IFERROR(VLOOKUP($B12,VN!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM12" s="84" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN12" s="87" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL12" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B12,VN!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM12" s="90" t="str">
+      <c r="AO12" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP12" s="91" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN12" s="94" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ12" s="106" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO12" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP12" s="91" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ12" s="108" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR12" s="95" t="e">
+      <c r="AR12" s="94" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS12" s="95" t="e">
+      <c r="AS12" s="94" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT12" s="95" t="e">
+      <c r="AT12" s="94" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3329,57 +3330,57 @@
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV12" s="96" t="str">
+      <c r="AV12" s="89" t="str">
         <f>IFERROR(VLOOKUP($B12,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW12" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW12" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX12" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX12" s="84" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY12" s="77" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY12" s="80" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ12" s="91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA12" s="108" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA12" s="106" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB12" s="95" t="e">
+      <c r="BB12" s="94" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC12" s="95" t="e">
+      <c r="BC12" s="94" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD12" s="95" t="e">
+      <c r="BD12" s="94" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE12" s="95" t="e">
+      <c r="BE12" s="94" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="88"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
       <c r="J13" s="82" t="e">
         <f>VLOOKUP($B13,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3412,20 +3413,20 @@
         <f>VLOOKUP($B13,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
-      <c r="Z13" s="115"/>
-      <c r="AA13" s="115"/>
-      <c r="AB13" s="115"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="107"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="105"/>
+      <c r="Y13" s="105"/>
+      <c r="Z13" s="113"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="113"/>
+      <c r="AC13" s="105"/>
+      <c r="AD13" s="105"/>
+      <c r="AE13" s="105"/>
       <c r="AF13" s="83" t="str">
         <f>IFERROR(VLOOKUP($B13,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3438,7 +3439,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI13" s="109" t="str">
+      <c r="AI13" s="107" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3446,43 +3447,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK13" s="137" t="str">
+      <c r="AK13" s="135" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL13" s="162" t="str">
+        <f>IFERROR(VLOOKUP($B13,VN!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM13" s="84" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN13" s="87" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL13" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B13,VN!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM13" s="90" t="str">
+      <c r="AO13" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP13" s="91" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN13" s="94" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ13" s="106" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO13" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP13" s="91" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ13" s="108" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR13" s="95" t="e">
+      <c r="AR13" s="94" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS13" s="95" t="e">
+      <c r="AS13" s="94" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT13" s="95" t="e">
+      <c r="AT13" s="94" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3490,57 +3491,57 @@
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV13" s="96" t="str">
+      <c r="AV13" s="89" t="str">
         <f>IFERROR(VLOOKUP($B13,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW13" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW13" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX13" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX13" s="84" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY13" s="77" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY13" s="80" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ13" s="91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA13" s="108" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA13" s="106" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB13" s="95" t="e">
+      <c r="BB13" s="94" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC13" s="95" t="e">
+      <c r="BC13" s="94" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD13" s="95" t="e">
+      <c r="BD13" s="94" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE13" s="95" t="e">
+      <c r="BE13" s="94" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="88"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
       <c r="J14" s="82" t="e">
         <f>VLOOKUP($B14,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3573,20 +3574,20 @@
         <f>VLOOKUP($B14,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="115"/>
-      <c r="AA14" s="115"/>
-      <c r="AB14" s="115"/>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="107"/>
-      <c r="AE14" s="107"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="113"/>
+      <c r="AA14" s="113"/>
+      <c r="AB14" s="113"/>
+      <c r="AC14" s="105"/>
+      <c r="AD14" s="105"/>
+      <c r="AE14" s="105"/>
       <c r="AF14" s="83" t="str">
         <f>IFERROR(VLOOKUP($B14,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3599,7 +3600,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI14" s="109" t="str">
+      <c r="AI14" s="107" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3607,43 +3608,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK14" s="137" t="str">
+      <c r="AK14" s="135" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL14" s="162" t="str">
+        <f>IFERROR(VLOOKUP($B14,VN!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM14" s="84" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN14" s="87" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL14" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B14,VN!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM14" s="90" t="str">
+      <c r="AO14" s="84" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP14" s="91" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN14" s="94" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ14" s="106" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO14" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP14" s="91" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ14" s="108" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR14" s="95" t="e">
+      <c r="AR14" s="94" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS14" s="95" t="e">
+      <c r="AS14" s="94" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT14" s="95" t="e">
+      <c r="AT14" s="94" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3651,57 +3652,57 @@
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV14" s="96" t="str">
+      <c r="AV14" s="89" t="str">
         <f>IFERROR(VLOOKUP($B14,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW14" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW14" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX14" s="90" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX14" s="84" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY14" s="77" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY14" s="80" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ14" s="91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA14" s="108" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA14" s="106" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB14" s="95" t="e">
+      <c r="BB14" s="94" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC14" s="95" t="e">
+      <c r="BC14" s="94" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD14" s="95" t="e">
+      <c r="BD14" s="94" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE14" s="95" t="e">
+      <c r="BE14" s="94" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="88"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
       <c r="J15" s="82" t="e">
         <f>VLOOKUP($B15,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3734,77 +3735,77 @@
         <f>VLOOKUP($B15,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="115"/>
-      <c r="AA15" s="115"/>
-      <c r="AB15" s="115"/>
-      <c r="AC15" s="107"/>
-      <c r="AD15" s="107"/>
-      <c r="AE15" s="107"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
       <c r="AF15" s="83" t="str">
         <f>IFERROR(VLOOKUP($B15,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
       </c>
       <c r="AG15" s="90" t="str">
-        <f t="shared" ref="AG15:AG23" si="9">IFERROR(IF(AM15="n.a.", -AW15, IF(AW15="n.a.", AM15, AM15-AW15)),"n.a.")</f>
+        <f t="shared" ref="AG15:AG23" si="13">IFERROR(IF(AM15="n.a.", -AW15, IF(AW15="n.a.", AM15, AM15-AW15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AH15" s="90" t="str">
-        <f t="shared" ref="AH15:AH23" si="10">IFERROR(IF(AN15="n.a.", -AX15, IF(AX15="n.a.", AN15, AN15-AX15)),"n.a.")</f>
+        <f t="shared" ref="AH15:AH23" si="14">IFERROR(IF(AN15="n.a.", -AX15, IF(AX15="n.a.", AN15, AN15-AX15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AI15" s="109" t="str">
-        <f t="shared" ref="AI15:AI23" si="11">IFERROR(IF(AO15="n.a.", -AY15, IF(AY15="n.a.", AO15, AO15-AY15)),"n.a.")</f>
+      <c r="AI15" s="107" t="str">
+        <f t="shared" ref="AI15:AI23" si="15">IFERROR(IF(AO15="n.a.", -AY15, IF(AY15="n.a.", AO15, AO15-AY15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AJ15" s="92" t="str">
-        <f t="shared" ref="AJ15:AJ23" si="12">IFERROR(AF15-AI15, "n.a.")</f>
+        <f t="shared" ref="AJ15:AJ23" si="16">IFERROR(AF15-AI15, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AK15" s="137" t="str">
-        <f t="shared" ref="AK15:AK23" si="13">IFERROR(IF(AQ15="n.a.", -BA15, IF(BA15="n.a.", AQ15, AQ15-BA15)),"n.a.")</f>
+      <c r="AK15" s="135" t="str">
+        <f t="shared" ref="AK15:AK23" si="17">IFERROR(IF(AQ15="n.a.", -BA15, IF(BA15="n.a.", AQ15, AQ15-BA15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AL15" s="93" t="str">
+      <c r="AL15" s="162" t="str">
         <f>IFERROR(VLOOKUP($B15,VN!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM15" s="90" t="str">
-        <f t="shared" ref="AM15:AM23" si="14">IFERROR(AR15/J15*30,"n.a.")</f>
+      <c r="AM15" s="84" t="str">
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN15" s="94" t="str">
-        <f t="shared" ref="AN15:AN23" si="15">IFERROR(AS15/K15*30,"n.a.")</f>
+      <c r="AN15" s="87" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO15" s="90" t="str">
-        <f t="shared" ref="AO15:AO23" si="16">IFERROR(AT15/L15*30,"n.a.")</f>
+      <c r="AO15" s="84" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AP15" s="91" t="str">
-        <f t="shared" ref="AP15:AP23" si="17">IFERROR(-AO15+AL15,"n.a.")</f>
+        <f t="shared" ref="AP15:AP23" si="18">IFERROR(-AO15+AL15,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AQ15" s="108" t="str">
-        <f t="shared" ref="AQ15:AQ23" si="18">IFERROR(AU15/M15*30,"n.a.")</f>
+      <c r="AQ15" s="106" t="str">
+        <f t="shared" ref="AQ15:AQ23" si="19">IFERROR(AU15/M15*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AR15" s="95" t="e">
+      <c r="AR15" s="94" t="e">
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS15" s="95" t="e">
+      <c r="AS15" s="94" t="e">
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT15" s="95" t="e">
+      <c r="AT15" s="94" t="e">
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3812,57 +3813,57 @@
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV15" s="96" t="str">
+      <c r="AV15" s="89" t="str">
         <f>IFERROR(VLOOKUP($B15,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW15" s="90" t="str">
-        <f t="shared" ref="AW15:AW23" si="19">IFERROR(BB15/J15*30,"n.a.")</f>
+      <c r="AW15" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX15" s="90" t="str">
-        <f t="shared" ref="AX15:AX23" si="20">IFERROR(BC15/K15*30,"n.a.")</f>
+      <c r="AX15" s="84" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY15" s="77" t="str">
-        <f t="shared" ref="AY15:AY23" si="21">IFERROR(BD15/L15*30,"n.a.")</f>
+      <c r="AY15" s="80" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ15" s="91" t="str">
-        <f t="shared" ref="AZ15:AZ23" si="22">IFERROR(-AV15+AY15, "n.a.")</f>
+        <f t="shared" ref="AZ15:AZ23" si="20">IFERROR(-AV15+AY15, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BA15" s="108" t="str">
-        <f t="shared" ref="BA15:BA23" si="23">IFERROR(BE15/M15*30,"n.a.")</f>
+      <c r="BA15" s="106" t="str">
+        <f t="shared" ref="BA15:BA23" si="21">IFERROR(BE15/M15*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB15" s="95" t="e">
+      <c r="BB15" s="94" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC15" s="95" t="e">
+      <c r="BC15" s="94" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD15" s="95" t="e">
+      <c r="BD15" s="94" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE15" s="95" t="e">
+      <c r="BE15" s="94" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="88"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
       <c r="J16" s="82" t="e">
         <f>VLOOKUP($B16,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3895,77 +3896,77 @@
         <f>VLOOKUP($B16,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="115"/>
-      <c r="AA16" s="115"/>
-      <c r="AB16" s="115"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="107"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="105"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="105"/>
+      <c r="Z16" s="113"/>
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="113"/>
+      <c r="AC16" s="105"/>
+      <c r="AD16" s="105"/>
+      <c r="AE16" s="105"/>
       <c r="AF16" s="83" t="str">
         <f>IFERROR(VLOOKUP($B16,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
       </c>
       <c r="AG16" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AH16" s="90" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AI16" s="109" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AJ16" s="92" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK16" s="137" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AL16" s="93" t="str">
+      <c r="AH16" s="90" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AI16" s="107" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AJ16" s="92" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AK16" s="135" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL16" s="162" t="str">
         <f>IFERROR(VLOOKUP($B16,VN!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM16" s="90" t="str">
-        <f t="shared" si="14"/>
+      <c r="AM16" s="84" t="str">
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN16" s="94" t="str">
-        <f t="shared" si="15"/>
+      <c r="AN16" s="87" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO16" s="90" t="str">
-        <f t="shared" si="16"/>
+      <c r="AO16" s="84" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AP16" s="91" t="str">
-        <f t="shared" si="17"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ16" s="108" t="str">
         <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
-      <c r="AR16" s="95" t="e">
+      <c r="AQ16" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AR16" s="94" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS16" s="95" t="e">
+      <c r="AS16" s="94" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT16" s="95" t="e">
+      <c r="AT16" s="94" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3973,57 +3974,57 @@
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV16" s="96" t="str">
+      <c r="AV16" s="89" t="str">
         <f>IFERROR(VLOOKUP($B16,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW16" s="90" t="str">
-        <f t="shared" si="19"/>
+      <c r="AW16" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX16" s="90" t="str">
+      <c r="AX16" s="84" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AY16" s="80" t="str">
+        <f t="shared" si="11"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AZ16" s="91" t="str">
         <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
-      <c r="AY16" s="77" t="str">
+      <c r="BA16" s="106" t="str">
         <f t="shared" si="21"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ16" s="91" t="str">
-        <f t="shared" si="22"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BA16" s="108" t="str">
-        <f t="shared" si="23"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BB16" s="95" t="e">
+      <c r="BB16" s="94" t="e">
         <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC16" s="95" t="e">
+      <c r="BC16" s="94" t="e">
         <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD16" s="95" t="e">
+      <c r="BD16" s="94" t="e">
         <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE16" s="95" t="e">
+      <c r="BE16" s="94" t="e">
         <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:57" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="88"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
       <c r="J17" s="82" t="e">
         <f>VLOOKUP($B17,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -4056,77 +4057,77 @@
         <f>VLOOKUP($B17,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="115"/>
-      <c r="AA17" s="115"/>
-      <c r="AB17" s="115"/>
-      <c r="AC17" s="107"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="107"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="105"/>
+      <c r="W17" s="105"/>
+      <c r="X17" s="105"/>
+      <c r="Y17" s="105"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="105"/>
+      <c r="AD17" s="105"/>
+      <c r="AE17" s="105"/>
       <c r="AF17" s="83" t="str">
         <f>IFERROR(VLOOKUP($B17,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
       </c>
       <c r="AG17" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AH17" s="90" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AI17" s="109" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AJ17" s="92" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK17" s="137" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AL17" s="93" t="str">
+      <c r="AH17" s="90" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AI17" s="107" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AJ17" s="92" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AK17" s="135" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL17" s="162" t="str">
         <f>IFERROR(VLOOKUP($B17,VN!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM17" s="90" t="str">
-        <f t="shared" si="14"/>
+      <c r="AM17" s="84" t="str">
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN17" s="94" t="str">
-        <f t="shared" si="15"/>
+      <c r="AN17" s="87" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO17" s="90" t="str">
-        <f t="shared" si="16"/>
+      <c r="AO17" s="84" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AP17" s="91" t="str">
-        <f t="shared" si="17"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ17" s="108" t="str">
         <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
-      <c r="AR17" s="95" t="e">
+      <c r="AQ17" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AR17" s="94" t="e">
         <f>VLOOKUP(B17,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS17" s="95" t="e">
+      <c r="AS17" s="94" t="e">
         <f>VLOOKUP(B17,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT17" s="95" t="e">
+      <c r="AT17" s="94" t="e">
         <f>VLOOKUP(B17,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -4134,57 +4135,57 @@
         <f>VLOOKUP(B17,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV17" s="96" t="str">
+      <c r="AV17" s="89" t="str">
         <f>IFERROR(VLOOKUP($B17,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW17" s="90" t="str">
-        <f t="shared" si="19"/>
+      <c r="AW17" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX17" s="90" t="str">
+      <c r="AX17" s="84" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AY17" s="80" t="str">
+        <f t="shared" si="11"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AZ17" s="91" t="str">
         <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
-      <c r="AY17" s="77" t="str">
+      <c r="BA17" s="106" t="str">
         <f t="shared" si="21"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ17" s="91" t="str">
-        <f t="shared" si="22"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BA17" s="108" t="str">
-        <f t="shared" si="23"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BB17" s="95" t="e">
+      <c r="BB17" s="94" t="e">
         <f>VLOOKUP(B17,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC17" s="95" t="e">
+      <c r="BC17" s="94" t="e">
         <f>VLOOKUP(B17,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD17" s="95" t="e">
+      <c r="BD17" s="94" t="e">
         <f>VLOOKUP(B17,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE17" s="95" t="e">
+      <c r="BE17" s="94" t="e">
         <f>VLOOKUP(B17,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:57" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="88"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
       <c r="J18" s="82" t="e">
         <f>VLOOKUP($B18,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -4217,77 +4218,77 @@
         <f>VLOOKUP($B18,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="115"/>
-      <c r="AA18" s="115"/>
-      <c r="AB18" s="115"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="105"/>
+      <c r="X18" s="105"/>
+      <c r="Y18" s="105"/>
+      <c r="Z18" s="113"/>
+      <c r="AA18" s="113"/>
+      <c r="AB18" s="113"/>
+      <c r="AC18" s="105"/>
+      <c r="AD18" s="105"/>
+      <c r="AE18" s="105"/>
       <c r="AF18" s="83" t="str">
         <f>IFERROR(VLOOKUP($B18,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
       </c>
       <c r="AG18" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AH18" s="90" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AI18" s="109" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AJ18" s="92" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK18" s="137" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AL18" s="93" t="str">
+      <c r="AH18" s="90" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AI18" s="107" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AJ18" s="92" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AK18" s="135" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL18" s="162" t="str">
         <f>IFERROR(VLOOKUP($B18,VN!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM18" s="90" t="str">
-        <f t="shared" si="14"/>
+      <c r="AM18" s="84" t="str">
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN18" s="94" t="str">
-        <f t="shared" si="15"/>
+      <c r="AN18" s="87" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO18" s="90" t="str">
-        <f t="shared" si="16"/>
+      <c r="AO18" s="84" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AP18" s="91" t="str">
-        <f t="shared" si="17"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ18" s="108" t="str">
         <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
-      <c r="AR18" s="95" t="e">
+      <c r="AQ18" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AR18" s="94" t="e">
         <f>VLOOKUP(B18,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS18" s="95" t="e">
+      <c r="AS18" s="94" t="e">
         <f>VLOOKUP(B18,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT18" s="95" t="e">
+      <c r="AT18" s="94" t="e">
         <f>VLOOKUP(B18,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -4295,57 +4296,57 @@
         <f>VLOOKUP(B18,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV18" s="96" t="str">
+      <c r="AV18" s="89" t="str">
         <f>IFERROR(VLOOKUP($B18,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW18" s="90" t="str">
-        <f t="shared" si="19"/>
+      <c r="AW18" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX18" s="90" t="str">
+      <c r="AX18" s="84" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AY18" s="80" t="str">
+        <f t="shared" si="11"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AZ18" s="91" t="str">
         <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
-      <c r="AY18" s="77" t="str">
+      <c r="BA18" s="106" t="str">
         <f t="shared" si="21"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ18" s="91" t="str">
-        <f t="shared" si="22"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BA18" s="108" t="str">
-        <f t="shared" si="23"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BB18" s="95" t="e">
+      <c r="BB18" s="94" t="e">
         <f>VLOOKUP(B18,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC18" s="95" t="e">
+      <c r="BC18" s="94" t="e">
         <f>VLOOKUP(B18,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD18" s="95" t="e">
+      <c r="BD18" s="94" t="e">
         <f>VLOOKUP(B18,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE18" s="95" t="e">
+      <c r="BE18" s="94" t="e">
         <f>VLOOKUP(B18,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:57" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="88"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
       <c r="J19" s="82" t="e">
         <f>VLOOKUP($B19,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -4378,77 +4379,77 @@
         <f>VLOOKUP($B19,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="115"/>
-      <c r="AA19" s="115"/>
-      <c r="AB19" s="115"/>
-      <c r="AC19" s="107"/>
-      <c r="AD19" s="107"/>
-      <c r="AE19" s="107"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="105"/>
+      <c r="X19" s="105"/>
+      <c r="Y19" s="105"/>
+      <c r="Z19" s="113"/>
+      <c r="AA19" s="113"/>
+      <c r="AB19" s="113"/>
+      <c r="AC19" s="105"/>
+      <c r="AD19" s="105"/>
+      <c r="AE19" s="105"/>
       <c r="AF19" s="83" t="str">
         <f>IFERROR(VLOOKUP($B19,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
       </c>
       <c r="AG19" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AH19" s="90" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AI19" s="109" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AJ19" s="92" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK19" s="137" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AL19" s="93" t="str">
+      <c r="AH19" s="90" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AI19" s="107" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AJ19" s="92" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AK19" s="135" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL19" s="162" t="str">
         <f>IFERROR(VLOOKUP($B19,VN!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM19" s="90" t="str">
-        <f t="shared" si="14"/>
+      <c r="AM19" s="84" t="str">
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN19" s="94" t="str">
-        <f t="shared" si="15"/>
+      <c r="AN19" s="87" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO19" s="90" t="str">
-        <f t="shared" si="16"/>
+      <c r="AO19" s="84" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AP19" s="91" t="str">
-        <f t="shared" si="17"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ19" s="108" t="str">
         <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
-      <c r="AR19" s="95" t="e">
+      <c r="AQ19" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AR19" s="94" t="e">
         <f>VLOOKUP(B19,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS19" s="95" t="e">
+      <c r="AS19" s="94" t="e">
         <f>VLOOKUP(B19,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT19" s="95" t="e">
+      <c r="AT19" s="94" t="e">
         <f>VLOOKUP(B19,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -4456,57 +4457,57 @@
         <f>VLOOKUP(B19,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV19" s="96" t="str">
+      <c r="AV19" s="89" t="str">
         <f>IFERROR(VLOOKUP($B19,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW19" s="90" t="str">
-        <f t="shared" si="19"/>
+      <c r="AW19" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX19" s="90" t="str">
+      <c r="AX19" s="84" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AY19" s="80" t="str">
+        <f t="shared" si="11"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AZ19" s="91" t="str">
         <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
-      <c r="AY19" s="77" t="str">
+      <c r="BA19" s="106" t="str">
         <f t="shared" si="21"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ19" s="91" t="str">
-        <f t="shared" si="22"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BA19" s="108" t="str">
-        <f t="shared" si="23"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BB19" s="95" t="e">
+      <c r="BB19" s="94" t="e">
         <f>VLOOKUP(B19,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC19" s="95" t="e">
+      <c r="BC19" s="94" t="e">
         <f>VLOOKUP(B19,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD19" s="95" t="e">
+      <c r="BD19" s="94" t="e">
         <f>VLOOKUP(B19,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE19" s="95" t="e">
+      <c r="BE19" s="94" t="e">
         <f>VLOOKUP(B19,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:57" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="88"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
       <c r="J20" s="82" t="e">
         <f>VLOOKUP($B20,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -4539,77 +4540,77 @@
         <f>VLOOKUP($B20,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R20" s="107"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="107"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="115"/>
-      <c r="AA20" s="115"/>
-      <c r="AB20" s="115"/>
-      <c r="AC20" s="107"/>
-      <c r="AD20" s="107"/>
-      <c r="AE20" s="107"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="105"/>
+      <c r="W20" s="105"/>
+      <c r="X20" s="105"/>
+      <c r="Y20" s="105"/>
+      <c r="Z20" s="113"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="113"/>
+      <c r="AC20" s="105"/>
+      <c r="AD20" s="105"/>
+      <c r="AE20" s="105"/>
       <c r="AF20" s="83" t="str">
         <f>IFERROR(VLOOKUP($B20,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
       </c>
       <c r="AG20" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AH20" s="90" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AI20" s="109" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AJ20" s="92" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK20" s="137" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AL20" s="93" t="str">
+      <c r="AH20" s="90" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AI20" s="107" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AJ20" s="92" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AK20" s="135" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL20" s="162" t="str">
         <f>IFERROR(VLOOKUP($B20,VN!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM20" s="90" t="str">
-        <f t="shared" si="14"/>
+      <c r="AM20" s="84" t="str">
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN20" s="94" t="str">
-        <f t="shared" si="15"/>
+      <c r="AN20" s="87" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO20" s="90" t="str">
-        <f t="shared" si="16"/>
+      <c r="AO20" s="84" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AP20" s="91" t="str">
-        <f t="shared" si="17"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ20" s="108" t="str">
         <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
-      <c r="AR20" s="95" t="e">
+      <c r="AQ20" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AR20" s="94" t="e">
         <f>VLOOKUP(B20,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS20" s="95" t="e">
+      <c r="AS20" s="94" t="e">
         <f>VLOOKUP(B20,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT20" s="95" t="e">
+      <c r="AT20" s="94" t="e">
         <f>VLOOKUP(B20,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -4617,57 +4618,57 @@
         <f>VLOOKUP(B20,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV20" s="96" t="str">
+      <c r="AV20" s="89" t="str">
         <f>IFERROR(VLOOKUP($B20,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW20" s="90" t="str">
-        <f t="shared" si="19"/>
+      <c r="AW20" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX20" s="90" t="str">
+      <c r="AX20" s="84" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AY20" s="80" t="str">
+        <f t="shared" si="11"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AZ20" s="91" t="str">
         <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
-      <c r="AY20" s="77" t="str">
+      <c r="BA20" s="106" t="str">
         <f t="shared" si="21"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ20" s="91" t="str">
-        <f t="shared" si="22"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BA20" s="108" t="str">
-        <f t="shared" si="23"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BB20" s="95" t="e">
+      <c r="BB20" s="94" t="e">
         <f>VLOOKUP(B20,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC20" s="95" t="e">
+      <c r="BC20" s="94" t="e">
         <f>VLOOKUP(B20,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD20" s="95" t="e">
+      <c r="BD20" s="94" t="e">
         <f>VLOOKUP(B20,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE20" s="95" t="e">
+      <c r="BE20" s="94" t="e">
         <f>VLOOKUP(B20,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:57" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="88"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
       <c r="J21" s="82" t="e">
         <f>VLOOKUP($B21,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -4700,77 +4701,77 @@
         <f>VLOOKUP($B21,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="115"/>
-      <c r="AA21" s="115"/>
-      <c r="AB21" s="115"/>
-      <c r="AC21" s="107"/>
-      <c r="AD21" s="107"/>
-      <c r="AE21" s="107"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="105"/>
+      <c r="X21" s="105"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="113"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="105"/>
+      <c r="AD21" s="105"/>
+      <c r="AE21" s="105"/>
       <c r="AF21" s="83" t="str">
         <f>IFERROR(VLOOKUP($B21,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
       </c>
       <c r="AG21" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AH21" s="90" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AI21" s="109" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AJ21" s="92" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK21" s="137" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AL21" s="93" t="str">
+      <c r="AH21" s="90" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AI21" s="107" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AJ21" s="92" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AK21" s="135" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL21" s="162" t="str">
         <f>IFERROR(VLOOKUP($B21,VN!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM21" s="90" t="str">
-        <f t="shared" si="14"/>
+      <c r="AM21" s="84" t="str">
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN21" s="94" t="str">
-        <f t="shared" si="15"/>
+      <c r="AN21" s="87" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO21" s="90" t="str">
-        <f t="shared" si="16"/>
+      <c r="AO21" s="84" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AP21" s="91" t="str">
-        <f t="shared" si="17"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ21" s="108" t="str">
         <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
-      <c r="AR21" s="95" t="e">
+      <c r="AQ21" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AR21" s="94" t="e">
         <f>VLOOKUP(B21,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS21" s="95" t="e">
+      <c r="AS21" s="94" t="e">
         <f>VLOOKUP(B21,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT21" s="95" t="e">
+      <c r="AT21" s="94" t="e">
         <f>VLOOKUP(B21,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -4778,57 +4779,57 @@
         <f>VLOOKUP(B21,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV21" s="96" t="str">
+      <c r="AV21" s="89" t="str">
         <f>IFERROR(VLOOKUP($B21,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW21" s="90" t="str">
-        <f t="shared" si="19"/>
+      <c r="AW21" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX21" s="90" t="str">
+      <c r="AX21" s="84" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AY21" s="80" t="str">
+        <f t="shared" si="11"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AZ21" s="91" t="str">
         <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
-      <c r="AY21" s="77" t="str">
+      <c r="BA21" s="106" t="str">
         <f t="shared" si="21"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ21" s="91" t="str">
-        <f t="shared" si="22"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BA21" s="108" t="str">
-        <f t="shared" si="23"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BB21" s="95" t="e">
+      <c r="BB21" s="94" t="e">
         <f>VLOOKUP(B21,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC21" s="95" t="e">
+      <c r="BC21" s="94" t="e">
         <f>VLOOKUP(B21,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD21" s="95" t="e">
+      <c r="BD21" s="94" t="e">
         <f>VLOOKUP(B21,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE21" s="95" t="e">
+      <c r="BE21" s="94" t="e">
         <f>VLOOKUP(B21,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:57" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="88"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
       <c r="J22" s="82" t="e">
         <f>VLOOKUP($B22,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -4861,77 +4862,77 @@
         <f>VLOOKUP($B22,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="115"/>
-      <c r="AA22" s="115"/>
-      <c r="AB22" s="115"/>
-      <c r="AC22" s="107"/>
-      <c r="AD22" s="107"/>
-      <c r="AE22" s="107"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="105"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="105"/>
+      <c r="X22" s="105"/>
+      <c r="Y22" s="105"/>
+      <c r="Z22" s="113"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="113"/>
+      <c r="AC22" s="105"/>
+      <c r="AD22" s="105"/>
+      <c r="AE22" s="105"/>
       <c r="AF22" s="83" t="str">
         <f>IFERROR(VLOOKUP($B22,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
       </c>
       <c r="AG22" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AH22" s="90" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AI22" s="109" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AJ22" s="92" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK22" s="137" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AL22" s="93" t="str">
+      <c r="AH22" s="90" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AI22" s="107" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AJ22" s="92" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AK22" s="135" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL22" s="162" t="str">
         <f>IFERROR(VLOOKUP($B22,VN!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM22" s="90" t="str">
-        <f t="shared" si="14"/>
+      <c r="AM22" s="84" t="str">
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN22" s="94" t="str">
-        <f t="shared" si="15"/>
+      <c r="AN22" s="87" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO22" s="90" t="str">
-        <f t="shared" si="16"/>
+      <c r="AO22" s="84" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AP22" s="91" t="str">
-        <f t="shared" si="17"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ22" s="108" t="str">
         <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
-      <c r="AR22" s="95" t="e">
+      <c r="AQ22" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AR22" s="94" t="e">
         <f>VLOOKUP(B22,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS22" s="95" t="e">
+      <c r="AS22" s="94" t="e">
         <f>VLOOKUP(B22,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT22" s="95" t="e">
+      <c r="AT22" s="94" t="e">
         <f>VLOOKUP(B22,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -4939,57 +4940,57 @@
         <f>VLOOKUP(B22,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV22" s="96" t="str">
+      <c r="AV22" s="89" t="str">
         <f>IFERROR(VLOOKUP($B22,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW22" s="90" t="str">
-        <f t="shared" si="19"/>
+      <c r="AW22" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX22" s="90" t="str">
+      <c r="AX22" s="84" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AY22" s="80" t="str">
+        <f t="shared" si="11"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AZ22" s="91" t="str">
         <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
-      <c r="AY22" s="77" t="str">
+      <c r="BA22" s="106" t="str">
         <f t="shared" si="21"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ22" s="91" t="str">
-        <f t="shared" si="22"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BA22" s="108" t="str">
-        <f t="shared" si="23"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BB22" s="95" t="e">
+      <c r="BB22" s="94" t="e">
         <f>VLOOKUP(B22,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC22" s="95" t="e">
+      <c r="BC22" s="94" t="e">
         <f>VLOOKUP(B22,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD22" s="95" t="e">
+      <c r="BD22" s="94" t="e">
         <f>VLOOKUP(B22,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE22" s="95" t="e">
+      <c r="BE22" s="94" t="e">
         <f>VLOOKUP(B22,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:57" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="88"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
       <c r="J23" s="82" t="e">
         <f>VLOOKUP($B23,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -5022,77 +5023,77 @@
         <f>VLOOKUP($B23,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R23" s="107"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="107"/>
-      <c r="U23" s="107"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="107"/>
-      <c r="X23" s="107"/>
-      <c r="Y23" s="107"/>
-      <c r="Z23" s="115"/>
-      <c r="AA23" s="115"/>
-      <c r="AB23" s="115"/>
-      <c r="AC23" s="107"/>
-      <c r="AD23" s="107"/>
-      <c r="AE23" s="107"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="105"/>
+      <c r="W23" s="105"/>
+      <c r="X23" s="105"/>
+      <c r="Y23" s="105"/>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="105"/>
+      <c r="AD23" s="105"/>
+      <c r="AE23" s="105"/>
       <c r="AF23" s="83" t="str">
         <f>IFERROR(VLOOKUP($B23,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
       </c>
       <c r="AG23" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AH23" s="90" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AI23" s="109" t="str">
-        <f t="shared" si="11"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AJ23" s="92" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK23" s="137" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AL23" s="93" t="str">
+      <c r="AH23" s="90" t="str">
+        <f t="shared" si="14"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AI23" s="107" t="str">
+        <f t="shared" si="15"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AJ23" s="92" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AK23" s="135" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL23" s="162" t="str">
         <f>IFERROR(VLOOKUP($B23,VN!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM23" s="90" t="str">
-        <f t="shared" si="14"/>
+      <c r="AM23" s="84" t="str">
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN23" s="94" t="str">
-        <f t="shared" si="15"/>
+      <c r="AN23" s="87" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO23" s="90" t="str">
-        <f t="shared" si="16"/>
+      <c r="AO23" s="84" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AP23" s="91" t="str">
-        <f t="shared" si="17"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ23" s="108" t="str">
         <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
-      <c r="AR23" s="95" t="e">
+      <c r="AQ23" s="106" t="str">
+        <f t="shared" si="19"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AR23" s="94" t="e">
         <f>VLOOKUP(B23,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS23" s="95" t="e">
+      <c r="AS23" s="94" t="e">
         <f>VLOOKUP(B23,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT23" s="95" t="e">
+      <c r="AT23" s="94" t="e">
         <f>VLOOKUP(B23,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -5100,103 +5101,103 @@
         <f>VLOOKUP(B23,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV23" s="96" t="str">
+      <c r="AV23" s="89" t="str">
         <f>IFERROR(VLOOKUP($B23,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW23" s="90" t="str">
-        <f t="shared" si="19"/>
+      <c r="AW23" s="84" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX23" s="90" t="str">
+      <c r="AX23" s="84" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AY23" s="80" t="str">
+        <f t="shared" si="11"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AZ23" s="91" t="str">
         <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
-      <c r="AY23" s="77" t="str">
+      <c r="BA23" s="106" t="str">
         <f t="shared" si="21"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ23" s="91" t="str">
-        <f t="shared" si="22"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BA23" s="108" t="str">
-        <f t="shared" si="23"/>
-        <v>n.a.</v>
-      </c>
-      <c r="BB23" s="95" t="e">
+      <c r="BB23" s="94" t="e">
         <f>VLOOKUP(B23,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC23" s="95" t="e">
+      <c r="BC23" s="94" t="e">
         <f>VLOOKUP(B23,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD23" s="95" t="e">
+      <c r="BD23" s="94" t="e">
         <f>VLOOKUP(B23,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE23" s="95" t="e">
+      <c r="BE23" s="94" t="e">
         <f>VLOOKUP(B23,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:57" s="131" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:57" s="129" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="88"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="95" t="e">
+      <c r="B24" s="97"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="94" t="e">
         <f>VLOOKUP($B24,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K24" s="95" t="e">
+      <c r="K24" s="94" t="e">
         <f>VLOOKUP($B24,'Daily COGS'!$B:$F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L24" s="95" t="e">
+      <c r="L24" s="94" t="e">
         <f>VLOOKUP($B24,'Daily COGS'!$B:$F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M24" s="95" t="e">
+      <c r="M24" s="94" t="e">
         <f>VLOOKUP($B24,'Daily COGS'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N24" s="95" t="e">
+      <c r="N24" s="94" t="e">
         <f>VLOOKUP($B24,'Daily Inbounds'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O24" s="95" t="e">
+      <c r="O24" s="94" t="e">
         <f>VLOOKUP($B24,'Daily Inbounds'!$B:$F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P24" s="95" t="e">
+      <c r="P24" s="94" t="e">
         <f>VLOOKUP($B24,'Daily Inbounds'!$B:$F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q24" s="95" t="e">
+      <c r="Q24" s="94" t="e">
         <f>VLOOKUP($B24,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R24" s="129"/>
-      <c r="S24" s="129"/>
-      <c r="T24" s="129"/>
-      <c r="U24" s="129"/>
-      <c r="V24" s="129"/>
-      <c r="W24" s="129"/>
-      <c r="X24" s="129"/>
-      <c r="Y24" s="129"/>
-      <c r="Z24" s="130"/>
-      <c r="AA24" s="130"/>
-      <c r="AB24" s="130"/>
-      <c r="AC24" s="129"/>
-      <c r="AD24" s="129"/>
-      <c r="AE24" s="129"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="127"/>
+      <c r="T24" s="127"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127"/>
+      <c r="X24" s="127"/>
+      <c r="Y24" s="127"/>
+      <c r="Z24" s="128"/>
+      <c r="AA24" s="128"/>
+      <c r="AB24" s="128"/>
+      <c r="AC24" s="127"/>
+      <c r="AD24" s="127"/>
+      <c r="AE24" s="127"/>
       <c r="AF24" s="89" t="str">
         <f>IFERROR(VLOOKUP($B24,VN!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -5209,7 +5210,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI24" s="109" t="str">
+      <c r="AI24" s="107" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -5217,246 +5218,246 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK24" s="138" t="str">
+      <c r="AK24" s="136" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL24" s="162" t="str">
+        <f>IFERROR(VLOOKUP($B24,VN!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM24" s="90" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN24" s="93" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL24" s="93" t="str">
-        <f>IFERROR(VLOOKUP($B24,VN!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM24" s="90" t="str">
+      <c r="AO24" s="90" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP24" s="91" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN24" s="94" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ24" s="107" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO24" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP24" s="91" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ24" s="109" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR24" s="95" t="e">
+      <c r="AR24" s="94" t="e">
         <f>VLOOKUP(B24,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS24" s="95" t="e">
+      <c r="AS24" s="94" t="e">
         <f>VLOOKUP(B24,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT24" s="95" t="e">
+      <c r="AT24" s="94" t="e">
         <f>VLOOKUP(B24,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU24" s="95" t="e">
+      <c r="AU24" s="94" t="e">
         <f>VLOOKUP(B24,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV24" s="96" t="str">
+      <c r="AV24" s="89" t="str">
         <f>IFERROR(VLOOKUP($B24,VN!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
       <c r="AW24" s="90" t="str">
-        <f t="shared" ref="AW24" si="24">IFERROR(BB24/J24*30,"n.a.")</f>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AX24" s="90" t="str">
-        <f t="shared" ref="AX24" si="25">IFERROR(BC24/K24*30,"n.a.")</f>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AY24" s="77" t="str">
-        <f t="shared" ref="AY24" si="26">IFERROR(BD24/L24*30,"n.a.")</f>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ24" s="91" t="str">
-        <f t="shared" ref="AZ24" si="27">IFERROR(-AV24+AY24, "n.a.")</f>
+        <f t="shared" ref="AZ24" si="22">IFERROR(-AV24+AY24, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BA24" s="109" t="str">
-        <f t="shared" ref="BA24" si="28">IFERROR(BE24/M24*30,"n.a.")</f>
+      <c r="BA24" s="107" t="str">
+        <f t="shared" ref="BA24" si="23">IFERROR(BE24/M24*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB24" s="95" t="e">
+      <c r="BB24" s="94" t="e">
         <f>VLOOKUP(B24,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC24" s="95" t="e">
+      <c r="BC24" s="94" t="e">
         <f>VLOOKUP(B24,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD24" s="95" t="e">
+      <c r="BD24" s="94" t="e">
         <f>VLOOKUP(B24,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE24" s="95" t="e">
+      <c r="BE24" s="94" t="e">
         <f>VLOOKUP(B24,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:57" s="4" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="121" t="s">
+    <row r="25" spans="1:57" s="4" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="122">
+      <c r="B25" s="119"/>
+      <c r="C25" s="120">
         <f>SUM(C4:C24)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="122">
+      <c r="D25" s="120">
         <f>SUM(D4:D24)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="123">
+      <c r="E25" s="121">
         <f>SUM(E4:E24)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="123" t="e">
-        <f t="shared" ref="J25:Q25" si="29">SUM(J4:J24)</f>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="121" t="e">
+        <f t="shared" ref="J25:Q25" si="24">SUM(J4:J24)</f>
         <v>#N/A</v>
       </c>
-      <c r="K25" s="123" t="e">
-        <f t="shared" si="29"/>
+      <c r="K25" s="121" t="e">
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="L25" s="123" t="e">
-        <f t="shared" si="29"/>
+      <c r="L25" s="121" t="e">
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="M25" s="123" t="e">
-        <f t="shared" si="29"/>
+      <c r="M25" s="121" t="e">
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="N25" s="123" t="e">
-        <f t="shared" si="29"/>
+      <c r="N25" s="121" t="e">
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="O25" s="123" t="e">
-        <f t="shared" si="29"/>
+      <c r="O25" s="121" t="e">
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="P25" s="123" t="e">
-        <f t="shared" si="29"/>
+      <c r="P25" s="121" t="e">
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="Q25" s="123" t="e">
-        <f t="shared" si="29"/>
+      <c r="Q25" s="121" t="e">
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="123"/>
-      <c r="V25" s="123"/>
-      <c r="W25" s="123"/>
-      <c r="X25" s="123"/>
-      <c r="Y25" s="123"/>
-      <c r="Z25" s="124"/>
-      <c r="AA25" s="125"/>
-      <c r="AB25" s="125"/>
-      <c r="AC25" s="123"/>
-      <c r="AD25" s="123"/>
-      <c r="AE25" s="123"/>
-      <c r="AF25" s="122"/>
-      <c r="AG25" s="122" t="str">
+      <c r="R25" s="121"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="121"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="121"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="122"/>
+      <c r="AA25" s="123"/>
+      <c r="AB25" s="123"/>
+      <c r="AC25" s="121"/>
+      <c r="AD25" s="121"/>
+      <c r="AE25" s="121"/>
+      <c r="AF25" s="120"/>
+      <c r="AG25" s="120" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AH25" s="122" t="str">
+      <c r="AH25" s="120" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI25" s="122" t="str">
+      <c r="AI25" s="120" t="str">
         <f>IFERROR(IF(AO25="n.a.", -AY25, IF(AY25="n.a.", AO25, AO25-AY25)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AJ25" s="122"/>
-      <c r="AK25" s="168" t="str">
-        <f t="shared" si="6"/>
+      <c r="AJ25" s="120"/>
+      <c r="AK25" s="161" t="str">
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AL25" s="126"/>
-      <c r="AM25" s="127" t="str">
-        <f t="shared" si="2"/>
+      <c r="AL25" s="124"/>
+      <c r="AM25" s="125" t="str">
+        <f t="shared" ref="AM4:AO25" si="25">IFERROR(AR25/J25*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AN25" s="127" t="str">
-        <f t="shared" si="2"/>
+      <c r="AN25" s="125" t="str">
+        <f t="shared" si="25"/>
         <v>n.a.</v>
       </c>
-      <c r="AO25" s="127" t="str">
-        <f t="shared" si="2"/>
+      <c r="AO25" s="125" t="str">
+        <f t="shared" si="25"/>
         <v>n.a.</v>
       </c>
-      <c r="AP25" s="122"/>
-      <c r="AQ25" s="139" t="str">
-        <f t="shared" si="7"/>
+      <c r="AP25" s="120"/>
+      <c r="AQ25" s="137" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AR25" s="123" t="e">
+      <c r="AR25" s="121" t="e">
         <f>SUM(AR4:AR24)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS25" s="123" t="e">
+      <c r="AS25" s="121" t="e">
         <f>SUM(AS4:AS24)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT25" s="123" t="e">
+      <c r="AT25" s="121" t="e">
         <f>SUM(AT4:AT24)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU25" s="123" t="e">
+      <c r="AU25" s="121" t="e">
         <f>SUM(AU4:AU24)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV25" s="126"/>
-      <c r="AW25" s="128" t="str">
-        <f t="shared" si="4"/>
+      <c r="AV25" s="124"/>
+      <c r="AW25" s="126" t="str">
+        <f t="shared" ref="AW4:AY25" si="26">IFERROR(BB25/J25*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AX25" s="128" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX25" s="126" t="str">
+        <f t="shared" si="26"/>
         <v>n.a.</v>
       </c>
-      <c r="AY25" s="127" t="str">
+      <c r="AY25" s="125" t="str">
         <f>IFERROR(BD25/L25*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AZ25" s="122"/>
-      <c r="BA25" s="122" t="str">
+      <c r="AZ25" s="120"/>
+      <c r="BA25" s="120" t="str">
         <f>IFERROR(BE25/M25*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB25" s="123" t="e">
+      <c r="BB25" s="121" t="e">
         <f>SUM(BB4:BB24)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC25" s="123" t="e">
+      <c r="BC25" s="121" t="e">
         <f>SUM(BC4:BC24)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD25" s="123" t="e">
+      <c r="BD25" s="121" t="e">
         <f>SUM(BD4:BD24)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE25" s="140" t="e">
+      <c r="BE25" s="138" t="e">
         <f>SUM(BE4:BE24)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:57" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="17"/>
@@ -5482,9 +5483,9 @@
       <c r="W26" s="17"/>
       <c r="X26" s="17"/>
       <c r="Y26" s="17"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="119"/>
-      <c r="AB26" s="119"/>
+      <c r="Z26" s="115"/>
+      <c r="AA26" s="117"/>
+      <c r="AB26" s="117"/>
       <c r="AC26" s="17"/>
       <c r="AD26" s="17"/>
       <c r="AE26" s="17"/>
@@ -5494,7 +5495,7 @@
       <c r="AI26" s="17"/>
       <c r="AJ26" s="17"/>
       <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
+      <c r="AL26" s="78"/>
       <c r="AM26" s="17"/>
       <c r="AN26" s="17"/>
       <c r="AO26" s="78" t="s">
@@ -5506,7 +5507,7 @@
       <c r="AS26" s="17"/>
       <c r="AT26" s="17"/>
       <c r="AU26" s="17"/>
-      <c r="AV26" s="17"/>
+      <c r="AV26" s="78"/>
       <c r="AW26" s="17"/>
       <c r="AX26" s="17"/>
       <c r="AY26" s="79" t="s">
@@ -5545,9 +5546,9 @@
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
       <c r="Y27" s="17"/>
-      <c r="Z27" s="117"/>
-      <c r="AA27" s="119"/>
-      <c r="AB27" s="119"/>
+      <c r="Z27" s="115"/>
+      <c r="AA27" s="117"/>
+      <c r="AB27" s="117"/>
       <c r="AC27" s="17"/>
       <c r="AD27" s="17"/>
       <c r="AE27" s="17"/>
@@ -5557,7 +5558,7 @@
       <c r="AI27" s="17"/>
       <c r="AJ27" s="17"/>
       <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
+      <c r="AL27" s="78"/>
       <c r="AM27" s="17"/>
       <c r="AN27" s="17"/>
       <c r="AO27" s="17"/>
@@ -5567,7 +5568,7 @@
       <c r="AS27" s="17"/>
       <c r="AT27" s="17"/>
       <c r="AU27" s="17"/>
-      <c r="AV27" s="17"/>
+      <c r="AV27" s="78"/>
       <c r="AW27" s="17"/>
       <c r="AX27" s="17"/>
       <c r="AY27" s="46"/>
@@ -5604,9 +5605,9 @@
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
       <c r="Y28" s="17"/>
-      <c r="Z28" s="117"/>
-      <c r="AA28" s="119"/>
-      <c r="AB28" s="119"/>
+      <c r="Z28" s="115"/>
+      <c r="AA28" s="117"/>
+      <c r="AB28" s="117"/>
       <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
@@ -5616,7 +5617,7 @@
       <c r="AI28" s="17"/>
       <c r="AJ28" s="17"/>
       <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
+      <c r="AL28" s="78"/>
       <c r="AM28" s="17"/>
       <c r="AN28" s="17"/>
       <c r="AO28" s="17"/>
@@ -5626,7 +5627,7 @@
       <c r="AS28" s="17"/>
       <c r="AT28" s="17"/>
       <c r="AU28" s="17"/>
-      <c r="AV28" s="17"/>
+      <c r="AV28" s="78"/>
       <c r="AW28" s="17"/>
       <c r="AX28" s="17"/>
       <c r="AY28" s="46"/>
@@ -5663,9 +5664,9 @@
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
       <c r="Y29" s="17"/>
-      <c r="Z29" s="117"/>
-      <c r="AA29" s="119"/>
-      <c r="AB29" s="119"/>
+      <c r="Z29" s="115"/>
+      <c r="AA29" s="117"/>
+      <c r="AB29" s="117"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
@@ -5675,7 +5676,7 @@
       <c r="AI29" s="17"/>
       <c r="AJ29" s="17"/>
       <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
+      <c r="AL29" s="78"/>
       <c r="AM29" s="17"/>
       <c r="AN29" s="17"/>
       <c r="AO29" s="17"/>
@@ -5685,7 +5686,7 @@
       <c r="AS29" s="17"/>
       <c r="AT29" s="17"/>
       <c r="AU29" s="17"/>
-      <c r="AV29" s="17"/>
+      <c r="AV29" s="78"/>
       <c r="AW29" s="17"/>
       <c r="AX29" s="17"/>
       <c r="AY29" s="46"/>
@@ -5722,9 +5723,9 @@
       <c r="W30" s="17"/>
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
-      <c r="Z30" s="117"/>
-      <c r="AA30" s="119"/>
-      <c r="AB30" s="119"/>
+      <c r="Z30" s="115"/>
+      <c r="AA30" s="117"/>
+      <c r="AB30" s="117"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
       <c r="AE30" s="17"/>
@@ -5734,7 +5735,7 @@
       <c r="AI30" s="17"/>
       <c r="AJ30" s="17"/>
       <c r="AK30" s="17"/>
-      <c r="AL30" s="17"/>
+      <c r="AL30" s="78"/>
       <c r="AM30" s="17"/>
       <c r="AN30" s="17"/>
       <c r="AO30" s="17"/>
@@ -5744,7 +5745,7 @@
       <c r="AS30" s="17"/>
       <c r="AT30" s="17"/>
       <c r="AU30" s="17"/>
-      <c r="AV30" s="17"/>
+      <c r="AV30" s="78"/>
       <c r="AW30" s="17"/>
       <c r="AX30" s="17"/>
       <c r="AY30" s="46"/>
@@ -5781,9 +5782,9 @@
       <c r="W31" s="17"/>
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
-      <c r="Z31" s="117"/>
-      <c r="AA31" s="119"/>
-      <c r="AB31" s="119"/>
+      <c r="Z31" s="115"/>
+      <c r="AA31" s="117"/>
+      <c r="AB31" s="117"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
       <c r="AE31" s="17"/>
@@ -5793,7 +5794,7 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
       <c r="AK31" s="17"/>
-      <c r="AL31" s="17"/>
+      <c r="AL31" s="78"/>
       <c r="AM31" s="17"/>
       <c r="AN31" s="17"/>
       <c r="AO31" s="17"/>
@@ -5803,7 +5804,7 @@
       <c r="AS31" s="17"/>
       <c r="AT31" s="17"/>
       <c r="AU31" s="17"/>
-      <c r="AV31" s="17"/>
+      <c r="AV31" s="78"/>
       <c r="AW31" s="17"/>
       <c r="AX31" s="17"/>
       <c r="AY31" s="46"/>
@@ -5840,9 +5841,9 @@
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
-      <c r="Z32" s="117"/>
-      <c r="AA32" s="119"/>
-      <c r="AB32" s="119"/>
+      <c r="Z32" s="115"/>
+      <c r="AA32" s="117"/>
+      <c r="AB32" s="117"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
       <c r="AE32" s="17"/>
@@ -5852,7 +5853,7 @@
       <c r="AI32" s="17"/>
       <c r="AJ32" s="17"/>
       <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
+      <c r="AL32" s="78"/>
       <c r="AM32" s="17"/>
       <c r="AN32" s="17"/>
       <c r="AO32" s="17"/>
@@ -5862,7 +5863,7 @@
       <c r="AS32" s="17"/>
       <c r="AT32" s="17"/>
       <c r="AU32" s="17"/>
-      <c r="AV32" s="17"/>
+      <c r="AV32" s="78"/>
       <c r="AW32" s="17"/>
       <c r="AX32" s="17"/>
       <c r="AY32" s="46"/>
@@ -5899,9 +5900,9 @@
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>
       <c r="Y33" s="17"/>
-      <c r="Z33" s="117"/>
-      <c r="AA33" s="119"/>
-      <c r="AB33" s="119"/>
+      <c r="Z33" s="115"/>
+      <c r="AA33" s="117"/>
+      <c r="AB33" s="117"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
       <c r="AE33" s="17"/>
@@ -5911,7 +5912,7 @@
       <c r="AI33" s="17"/>
       <c r="AJ33" s="17"/>
       <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
+      <c r="AL33" s="78"/>
       <c r="AM33" s="17"/>
       <c r="AN33" s="17"/>
       <c r="AO33" s="17"/>
@@ -5921,7 +5922,7 @@
       <c r="AS33" s="17"/>
       <c r="AT33" s="17"/>
       <c r="AU33" s="17"/>
-      <c r="AV33" s="17"/>
+      <c r="AV33" s="78"/>
       <c r="AW33" s="17"/>
       <c r="AX33" s="17"/>
       <c r="AY33" s="46"/>
@@ -5958,9 +5959,9 @@
       <c r="W34" s="17"/>
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="119"/>
-      <c r="AB34" s="119"/>
+      <c r="Z34" s="115"/>
+      <c r="AA34" s="117"/>
+      <c r="AB34" s="117"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
       <c r="AE34" s="17"/>
@@ -5970,7 +5971,7 @@
       <c r="AI34" s="17"/>
       <c r="AJ34" s="17"/>
       <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
+      <c r="AL34" s="78"/>
       <c r="AM34" s="17"/>
       <c r="AN34" s="17"/>
       <c r="AO34" s="17"/>
@@ -5980,7 +5981,7 @@
       <c r="AS34" s="17"/>
       <c r="AT34" s="17"/>
       <c r="AU34" s="17"/>
-      <c r="AV34" s="17"/>
+      <c r="AV34" s="78"/>
       <c r="AW34" s="17"/>
       <c r="AX34" s="17"/>
       <c r="AY34" s="46"/>
@@ -6017,9 +6018,9 @@
       <c r="W35" s="17"/>
       <c r="X35" s="17"/>
       <c r="Y35" s="17"/>
-      <c r="Z35" s="117"/>
-      <c r="AA35" s="119"/>
-      <c r="AB35" s="119"/>
+      <c r="Z35" s="115"/>
+      <c r="AA35" s="117"/>
+      <c r="AB35" s="117"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
       <c r="AE35" s="17"/>
@@ -6029,7 +6030,7 @@
       <c r="AI35" s="17"/>
       <c r="AJ35" s="17"/>
       <c r="AK35" s="17"/>
-      <c r="AL35" s="17"/>
+      <c r="AL35" s="78"/>
       <c r="AM35" s="17"/>
       <c r="AN35" s="17"/>
       <c r="AO35" s="17"/>
@@ -6039,7 +6040,7 @@
       <c r="AS35" s="17"/>
       <c r="AT35" s="17"/>
       <c r="AU35" s="17"/>
-      <c r="AV35" s="17"/>
+      <c r="AV35" s="78"/>
       <c r="AW35" s="17"/>
       <c r="AX35" s="17"/>
       <c r="AY35" s="46"/>
@@ -6076,9 +6077,9 @@
       <c r="W36" s="17"/>
       <c r="X36" s="17"/>
       <c r="Y36" s="17"/>
-      <c r="Z36" s="117"/>
-      <c r="AA36" s="119"/>
-      <c r="AB36" s="119"/>
+      <c r="Z36" s="115"/>
+      <c r="AA36" s="117"/>
+      <c r="AB36" s="117"/>
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
       <c r="AE36" s="17"/>
@@ -6088,7 +6089,7 @@
       <c r="AI36" s="17"/>
       <c r="AJ36" s="17"/>
       <c r="AK36" s="17"/>
-      <c r="AL36" s="17"/>
+      <c r="AL36" s="78"/>
       <c r="AM36" s="17"/>
       <c r="AN36" s="17"/>
       <c r="AO36" s="17"/>
@@ -6098,7 +6099,7 @@
       <c r="AS36" s="17"/>
       <c r="AT36" s="17"/>
       <c r="AU36" s="17"/>
-      <c r="AV36" s="17"/>
+      <c r="AV36" s="78"/>
       <c r="AW36" s="17"/>
       <c r="AX36" s="17"/>
       <c r="AY36" s="46"/>
@@ -6135,9 +6136,9 @@
       <c r="W37" s="17"/>
       <c r="X37" s="17"/>
       <c r="Y37" s="17"/>
-      <c r="Z37" s="117"/>
-      <c r="AA37" s="119"/>
-      <c r="AB37" s="119"/>
+      <c r="Z37" s="115"/>
+      <c r="AA37" s="117"/>
+      <c r="AB37" s="117"/>
       <c r="AC37" s="17"/>
       <c r="AD37" s="17"/>
       <c r="AE37" s="17"/>
@@ -6147,7 +6148,7 @@
       <c r="AI37" s="17"/>
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
-      <c r="AL37" s="17"/>
+      <c r="AL37" s="78"/>
       <c r="AM37" s="17"/>
       <c r="AN37" s="17"/>
       <c r="AO37" s="17"/>
@@ -6157,7 +6158,7 @@
       <c r="AS37" s="17"/>
       <c r="AT37" s="17"/>
       <c r="AU37" s="17"/>
-      <c r="AV37" s="17"/>
+      <c r="AV37" s="78"/>
       <c r="AW37" s="17"/>
       <c r="AX37" s="17"/>
       <c r="AY37" s="46"/>
@@ -6194,9 +6195,9 @@
       <c r="W38" s="17"/>
       <c r="X38" s="17"/>
       <c r="Y38" s="17"/>
-      <c r="Z38" s="117"/>
-      <c r="AA38" s="119"/>
-      <c r="AB38" s="119"/>
+      <c r="Z38" s="115"/>
+      <c r="AA38" s="117"/>
+      <c r="AB38" s="117"/>
       <c r="AC38" s="17"/>
       <c r="AD38" s="17"/>
       <c r="AE38" s="17"/>
@@ -6206,7 +6207,7 @@
       <c r="AI38" s="17"/>
       <c r="AJ38" s="17"/>
       <c r="AK38" s="17"/>
-      <c r="AL38" s="17"/>
+      <c r="AL38" s="78"/>
       <c r="AM38" s="17"/>
       <c r="AN38" s="17"/>
       <c r="AO38" s="17"/>
@@ -6216,7 +6217,7 @@
       <c r="AS38" s="17"/>
       <c r="AT38" s="17"/>
       <c r="AU38" s="17"/>
-      <c r="AV38" s="17"/>
+      <c r="AV38" s="78"/>
       <c r="AW38" s="17"/>
       <c r="AX38" s="17"/>
       <c r="AY38" s="46"/>
@@ -6253,9 +6254,9 @@
       <c r="W39" s="17"/>
       <c r="X39" s="17"/>
       <c r="Y39" s="17"/>
-      <c r="Z39" s="117"/>
-      <c r="AA39" s="119"/>
-      <c r="AB39" s="119"/>
+      <c r="Z39" s="115"/>
+      <c r="AA39" s="117"/>
+      <c r="AB39" s="117"/>
       <c r="AC39" s="17"/>
       <c r="AD39" s="17"/>
       <c r="AE39" s="17"/>
@@ -6265,7 +6266,7 @@
       <c r="AI39" s="17"/>
       <c r="AJ39" s="17"/>
       <c r="AK39" s="17"/>
-      <c r="AL39" s="17"/>
+      <c r="AL39" s="78"/>
       <c r="AM39" s="17"/>
       <c r="AN39" s="17"/>
       <c r="AO39" s="17"/>
@@ -6275,7 +6276,7 @@
       <c r="AS39" s="17"/>
       <c r="AT39" s="17"/>
       <c r="AU39" s="17"/>
-      <c r="AV39" s="17"/>
+      <c r="AV39" s="78"/>
       <c r="AW39" s="17"/>
       <c r="AX39" s="17"/>
       <c r="AY39" s="46"/>
@@ -6312,9 +6313,9 @@
       <c r="W40" s="17"/>
       <c r="X40" s="17"/>
       <c r="Y40" s="17"/>
-      <c r="Z40" s="117"/>
-      <c r="AA40" s="119"/>
-      <c r="AB40" s="119"/>
+      <c r="Z40" s="115"/>
+      <c r="AA40" s="117"/>
+      <c r="AB40" s="117"/>
       <c r="AC40" s="17"/>
       <c r="AD40" s="17"/>
       <c r="AE40" s="17"/>
@@ -6324,7 +6325,7 @@
       <c r="AI40" s="17"/>
       <c r="AJ40" s="17"/>
       <c r="AK40" s="17"/>
-      <c r="AL40" s="17"/>
+      <c r="AL40" s="78"/>
       <c r="AM40" s="17"/>
       <c r="AN40" s="17"/>
       <c r="AO40" s="17"/>
@@ -6334,7 +6335,7 @@
       <c r="AS40" s="17"/>
       <c r="AT40" s="17"/>
       <c r="AU40" s="17"/>
-      <c r="AV40" s="17"/>
+      <c r="AV40" s="78"/>
       <c r="AW40" s="17"/>
       <c r="AX40" s="17"/>
       <c r="AY40" s="46"/>
@@ -6371,9 +6372,9 @@
       <c r="W41" s="17"/>
       <c r="X41" s="17"/>
       <c r="Y41" s="17"/>
-      <c r="Z41" s="117"/>
-      <c r="AA41" s="119"/>
-      <c r="AB41" s="119"/>
+      <c r="Z41" s="115"/>
+      <c r="AA41" s="117"/>
+      <c r="AB41" s="117"/>
       <c r="AC41" s="17"/>
       <c r="AD41" s="17"/>
       <c r="AE41" s="17"/>
@@ -6383,7 +6384,7 @@
       <c r="AI41" s="17"/>
       <c r="AJ41" s="17"/>
       <c r="AK41" s="17"/>
-      <c r="AL41" s="17"/>
+      <c r="AL41" s="78"/>
       <c r="AM41" s="17"/>
       <c r="AN41" s="17"/>
       <c r="AO41" s="17"/>
@@ -6393,7 +6394,7 @@
       <c r="AS41" s="17"/>
       <c r="AT41" s="17"/>
       <c r="AU41" s="17"/>
-      <c r="AV41" s="17"/>
+      <c r="AV41" s="78"/>
       <c r="AW41" s="17"/>
       <c r="AX41" s="17"/>
       <c r="AY41" s="46"/>
@@ -6430,9 +6431,9 @@
       <c r="W42" s="17"/>
       <c r="X42" s="17"/>
       <c r="Y42" s="17"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="119"/>
-      <c r="AB42" s="119"/>
+      <c r="Z42" s="115"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
       <c r="AC42" s="17"/>
       <c r="AD42" s="17"/>
       <c r="AE42" s="17"/>
@@ -6442,7 +6443,7 @@
       <c r="AI42" s="17"/>
       <c r="AJ42" s="17"/>
       <c r="AK42" s="17"/>
-      <c r="AL42" s="17"/>
+      <c r="AL42" s="78"/>
       <c r="AM42" s="17"/>
       <c r="AN42" s="17"/>
       <c r="AO42" s="17"/>
@@ -6452,7 +6453,7 @@
       <c r="AS42" s="17"/>
       <c r="AT42" s="17"/>
       <c r="AU42" s="17"/>
-      <c r="AV42" s="17"/>
+      <c r="AV42" s="78"/>
       <c r="AW42" s="17"/>
       <c r="AX42" s="17"/>
       <c r="AY42" s="46"/>
@@ -6489,9 +6490,9 @@
       <c r="W43" s="17"/>
       <c r="X43" s="17"/>
       <c r="Y43" s="17"/>
-      <c r="Z43" s="117"/>
-      <c r="AA43" s="119"/>
-      <c r="AB43" s="119"/>
+      <c r="Z43" s="115"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
       <c r="AC43" s="17"/>
       <c r="AD43" s="17"/>
       <c r="AE43" s="17"/>
@@ -6501,7 +6502,7 @@
       <c r="AI43" s="17"/>
       <c r="AJ43" s="17"/>
       <c r="AK43" s="17"/>
-      <c r="AL43" s="17"/>
+      <c r="AL43" s="78"/>
       <c r="AM43" s="17"/>
       <c r="AN43" s="17"/>
       <c r="AO43" s="17"/>
@@ -6511,7 +6512,7 @@
       <c r="AS43" s="17"/>
       <c r="AT43" s="17"/>
       <c r="AU43" s="17"/>
-      <c r="AV43" s="17"/>
+      <c r="AV43" s="78"/>
       <c r="AW43" s="17"/>
       <c r="AX43" s="17"/>
       <c r="AY43" s="46"/>
@@ -6548,9 +6549,9 @@
       <c r="W44" s="17"/>
       <c r="X44" s="17"/>
       <c r="Y44" s="17"/>
-      <c r="Z44" s="117"/>
-      <c r="AA44" s="119"/>
-      <c r="AB44" s="119"/>
+      <c r="Z44" s="115"/>
+      <c r="AA44" s="117"/>
+      <c r="AB44" s="117"/>
       <c r="AC44" s="17"/>
       <c r="AD44" s="17"/>
       <c r="AE44" s="17"/>
@@ -6560,7 +6561,7 @@
       <c r="AI44" s="17"/>
       <c r="AJ44" s="17"/>
       <c r="AK44" s="17"/>
-      <c r="AL44" s="17"/>
+      <c r="AL44" s="78"/>
       <c r="AM44" s="17"/>
       <c r="AN44" s="17"/>
       <c r="AO44" s="17"/>
@@ -6570,7 +6571,7 @@
       <c r="AS44" s="17"/>
       <c r="AT44" s="17"/>
       <c r="AU44" s="17"/>
-      <c r="AV44" s="17"/>
+      <c r="AV44" s="78"/>
       <c r="AW44" s="17"/>
       <c r="AX44" s="17"/>
       <c r="AY44" s="46"/>
@@ -6607,9 +6608,9 @@
       <c r="W45" s="17"/>
       <c r="X45" s="17"/>
       <c r="Y45" s="17"/>
-      <c r="Z45" s="117"/>
-      <c r="AA45" s="119"/>
-      <c r="AB45" s="119"/>
+      <c r="Z45" s="115"/>
+      <c r="AA45" s="117"/>
+      <c r="AB45" s="117"/>
       <c r="AC45" s="17"/>
       <c r="AD45" s="17"/>
       <c r="AE45" s="17"/>
@@ -6619,7 +6620,7 @@
       <c r="AI45" s="17"/>
       <c r="AJ45" s="17"/>
       <c r="AK45" s="17"/>
-      <c r="AL45" s="17"/>
+      <c r="AL45" s="78"/>
       <c r="AM45" s="17"/>
       <c r="AN45" s="17"/>
       <c r="AO45" s="17"/>
@@ -6629,7 +6630,7 @@
       <c r="AS45" s="17"/>
       <c r="AT45" s="17"/>
       <c r="AU45" s="17"/>
-      <c r="AV45" s="17"/>
+      <c r="AV45" s="78"/>
       <c r="AW45" s="17"/>
       <c r="AX45" s="17"/>
       <c r="AY45" s="46"/>
@@ -6666,9 +6667,9 @@
       <c r="W46" s="17"/>
       <c r="X46" s="17"/>
       <c r="Y46" s="17"/>
-      <c r="Z46" s="117"/>
-      <c r="AA46" s="119"/>
-      <c r="AB46" s="119"/>
+      <c r="Z46" s="115"/>
+      <c r="AA46" s="117"/>
+      <c r="AB46" s="117"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="17"/>
       <c r="AE46" s="17"/>
@@ -6678,7 +6679,7 @@
       <c r="AI46" s="17"/>
       <c r="AJ46" s="17"/>
       <c r="AK46" s="17"/>
-      <c r="AL46" s="17"/>
+      <c r="AL46" s="78"/>
       <c r="AM46" s="17"/>
       <c r="AN46" s="17"/>
       <c r="AO46" s="17"/>
@@ -6688,7 +6689,7 @@
       <c r="AS46" s="17"/>
       <c r="AT46" s="17"/>
       <c r="AU46" s="17"/>
-      <c r="AV46" s="17"/>
+      <c r="AV46" s="78"/>
       <c r="AW46" s="17"/>
       <c r="AX46" s="17"/>
       <c r="AY46" s="46"/>
@@ -6725,9 +6726,9 @@
       <c r="W47" s="17"/>
       <c r="X47" s="17"/>
       <c r="Y47" s="17"/>
-      <c r="Z47" s="117"/>
-      <c r="AA47" s="119"/>
-      <c r="AB47" s="119"/>
+      <c r="Z47" s="115"/>
+      <c r="AA47" s="117"/>
+      <c r="AB47" s="117"/>
       <c r="AC47" s="17"/>
       <c r="AD47" s="17"/>
       <c r="AE47" s="17"/>
@@ -6737,7 +6738,7 @@
       <c r="AI47" s="17"/>
       <c r="AJ47" s="17"/>
       <c r="AK47" s="17"/>
-      <c r="AL47" s="17"/>
+      <c r="AL47" s="78"/>
       <c r="AM47" s="17"/>
       <c r="AN47" s="17"/>
       <c r="AO47" s="17"/>
@@ -6747,7 +6748,7 @@
       <c r="AS47" s="17"/>
       <c r="AT47" s="17"/>
       <c r="AU47" s="17"/>
-      <c r="AV47" s="17"/>
+      <c r="AV47" s="78"/>
       <c r="AW47" s="17"/>
       <c r="AX47" s="17"/>
       <c r="AY47" s="46"/>
@@ -6784,9 +6785,9 @@
       <c r="W48" s="17"/>
       <c r="X48" s="17"/>
       <c r="Y48" s="17"/>
-      <c r="Z48" s="117"/>
-      <c r="AA48" s="119"/>
-      <c r="AB48" s="119"/>
+      <c r="Z48" s="115"/>
+      <c r="AA48" s="117"/>
+      <c r="AB48" s="117"/>
       <c r="AC48" s="17"/>
       <c r="AD48" s="17"/>
       <c r="AE48" s="17"/>
@@ -6796,7 +6797,7 @@
       <c r="AI48" s="17"/>
       <c r="AJ48" s="17"/>
       <c r="AK48" s="17"/>
-      <c r="AL48" s="17"/>
+      <c r="AL48" s="78"/>
       <c r="AM48" s="17"/>
       <c r="AN48" s="17"/>
       <c r="AO48" s="17"/>
@@ -6806,7 +6807,7 @@
       <c r="AS48" s="17"/>
       <c r="AT48" s="17"/>
       <c r="AU48" s="17"/>
-      <c r="AV48" s="17"/>
+      <c r="AV48" s="78"/>
       <c r="AW48" s="17"/>
       <c r="AX48" s="17"/>
       <c r="AY48" s="46"/>
@@ -6843,9 +6844,9 @@
       <c r="W49" s="17"/>
       <c r="X49" s="17"/>
       <c r="Y49" s="17"/>
-      <c r="Z49" s="117"/>
-      <c r="AA49" s="119"/>
-      <c r="AB49" s="119"/>
+      <c r="Z49" s="115"/>
+      <c r="AA49" s="117"/>
+      <c r="AB49" s="117"/>
       <c r="AC49" s="17"/>
       <c r="AD49" s="17"/>
       <c r="AE49" s="17"/>
@@ -6855,7 +6856,7 @@
       <c r="AI49" s="17"/>
       <c r="AJ49" s="17"/>
       <c r="AK49" s="17"/>
-      <c r="AL49" s="17"/>
+      <c r="AL49" s="78"/>
       <c r="AM49" s="17"/>
       <c r="AN49" s="17"/>
       <c r="AO49" s="17"/>
@@ -6865,7 +6866,7 @@
       <c r="AS49" s="17"/>
       <c r="AT49" s="17"/>
       <c r="AU49" s="17"/>
-      <c r="AV49" s="17"/>
+      <c r="AV49" s="78"/>
       <c r="AW49" s="17"/>
       <c r="AX49" s="17"/>
       <c r="AY49" s="46"/>
@@ -6902,9 +6903,9 @@
       <c r="W50" s="17"/>
       <c r="X50" s="17"/>
       <c r="Y50" s="17"/>
-      <c r="Z50" s="117"/>
-      <c r="AA50" s="119"/>
-      <c r="AB50" s="119"/>
+      <c r="Z50" s="115"/>
+      <c r="AA50" s="117"/>
+      <c r="AB50" s="117"/>
       <c r="AC50" s="17"/>
       <c r="AD50" s="17"/>
       <c r="AE50" s="17"/>
@@ -6914,7 +6915,7 @@
       <c r="AI50" s="17"/>
       <c r="AJ50" s="17"/>
       <c r="AK50" s="17"/>
-      <c r="AL50" s="17"/>
+      <c r="AL50" s="78"/>
       <c r="AM50" s="17"/>
       <c r="AN50" s="17"/>
       <c r="AO50" s="17"/>
@@ -6924,7 +6925,7 @@
       <c r="AS50" s="17"/>
       <c r="AT50" s="17"/>
       <c r="AU50" s="17"/>
-      <c r="AV50" s="17"/>
+      <c r="AV50" s="78"/>
       <c r="AW50" s="17"/>
       <c r="AX50" s="17"/>
       <c r="AY50" s="46"/>
@@ -6961,9 +6962,9 @@
       <c r="W51" s="17"/>
       <c r="X51" s="17"/>
       <c r="Y51" s="17"/>
-      <c r="Z51" s="117"/>
-      <c r="AA51" s="119"/>
-      <c r="AB51" s="119"/>
+      <c r="Z51" s="115"/>
+      <c r="AA51" s="117"/>
+      <c r="AB51" s="117"/>
       <c r="AC51" s="17"/>
       <c r="AD51" s="17"/>
       <c r="AE51" s="17"/>
@@ -6973,7 +6974,7 @@
       <c r="AI51" s="17"/>
       <c r="AJ51" s="17"/>
       <c r="AK51" s="17"/>
-      <c r="AL51" s="17"/>
+      <c r="AL51" s="78"/>
       <c r="AM51" s="17"/>
       <c r="AN51" s="17"/>
       <c r="AO51" s="17"/>
@@ -6983,7 +6984,7 @@
       <c r="AS51" s="17"/>
       <c r="AT51" s="17"/>
       <c r="AU51" s="17"/>
-      <c r="AV51" s="17"/>
+      <c r="AV51" s="78"/>
       <c r="AW51" s="17"/>
       <c r="AX51" s="17"/>
       <c r="AY51" s="46"/>
@@ -7020,9 +7021,9 @@
       <c r="W52" s="17"/>
       <c r="X52" s="17"/>
       <c r="Y52" s="17"/>
-      <c r="Z52" s="117"/>
-      <c r="AA52" s="119"/>
-      <c r="AB52" s="119"/>
+      <c r="Z52" s="115"/>
+      <c r="AA52" s="117"/>
+      <c r="AB52" s="117"/>
       <c r="AC52" s="17"/>
       <c r="AD52" s="17"/>
       <c r="AE52" s="17"/>
@@ -7032,7 +7033,7 @@
       <c r="AI52" s="17"/>
       <c r="AJ52" s="17"/>
       <c r="AK52" s="17"/>
-      <c r="AL52" s="17"/>
+      <c r="AL52" s="78"/>
       <c r="AM52" s="17"/>
       <c r="AN52" s="17"/>
       <c r="AO52" s="17"/>
@@ -7042,7 +7043,7 @@
       <c r="AS52" s="17"/>
       <c r="AT52" s="17"/>
       <c r="AU52" s="17"/>
-      <c r="AV52" s="17"/>
+      <c r="AV52" s="78"/>
       <c r="AW52" s="17"/>
       <c r="AX52" s="17"/>
       <c r="AY52" s="46"/>
@@ -7079,9 +7080,9 @@
       <c r="W53" s="17"/>
       <c r="X53" s="17"/>
       <c r="Y53" s="17"/>
-      <c r="Z53" s="117"/>
-      <c r="AA53" s="119"/>
-      <c r="AB53" s="119"/>
+      <c r="Z53" s="115"/>
+      <c r="AA53" s="117"/>
+      <c r="AB53" s="117"/>
       <c r="AC53" s="17"/>
       <c r="AD53" s="17"/>
       <c r="AE53" s="17"/>
@@ -7091,7 +7092,7 @@
       <c r="AI53" s="17"/>
       <c r="AJ53" s="17"/>
       <c r="AK53" s="17"/>
-      <c r="AL53" s="17"/>
+      <c r="AL53" s="78"/>
       <c r="AM53" s="17"/>
       <c r="AN53" s="17"/>
       <c r="AO53" s="17"/>
@@ -7101,7 +7102,7 @@
       <c r="AS53" s="17"/>
       <c r="AT53" s="17"/>
       <c r="AU53" s="17"/>
-      <c r="AV53" s="17"/>
+      <c r="AV53" s="78"/>
       <c r="AW53" s="17"/>
       <c r="AX53" s="17"/>
       <c r="AY53" s="46"/>
@@ -7138,9 +7139,9 @@
       <c r="W54" s="17"/>
       <c r="X54" s="17"/>
       <c r="Y54" s="17"/>
-      <c r="Z54" s="117"/>
-      <c r="AA54" s="119"/>
-      <c r="AB54" s="119"/>
+      <c r="Z54" s="115"/>
+      <c r="AA54" s="117"/>
+      <c r="AB54" s="117"/>
       <c r="AC54" s="17"/>
       <c r="AD54" s="17"/>
       <c r="AE54" s="17"/>
@@ -7150,7 +7151,7 @@
       <c r="AI54" s="17"/>
       <c r="AJ54" s="17"/>
       <c r="AK54" s="17"/>
-      <c r="AL54" s="17"/>
+      <c r="AL54" s="78"/>
       <c r="AM54" s="17"/>
       <c r="AN54" s="17"/>
       <c r="AO54" s="17"/>
@@ -7160,7 +7161,7 @@
       <c r="AS54" s="17"/>
       <c r="AT54" s="17"/>
       <c r="AU54" s="17"/>
-      <c r="AV54" s="17"/>
+      <c r="AV54" s="78"/>
       <c r="AW54" s="17"/>
       <c r="AX54" s="17"/>
       <c r="AY54" s="46"/>
@@ -7197,9 +7198,9 @@
       <c r="W55" s="17"/>
       <c r="X55" s="17"/>
       <c r="Y55" s="17"/>
-      <c r="Z55" s="117"/>
-      <c r="AA55" s="119"/>
-      <c r="AB55" s="119"/>
+      <c r="Z55" s="115"/>
+      <c r="AA55" s="117"/>
+      <c r="AB55" s="117"/>
       <c r="AC55" s="17"/>
       <c r="AD55" s="17"/>
       <c r="AE55" s="17"/>
@@ -7209,7 +7210,7 @@
       <c r="AI55" s="17"/>
       <c r="AJ55" s="17"/>
       <c r="AK55" s="17"/>
-      <c r="AL55" s="17"/>
+      <c r="AL55" s="78"/>
       <c r="AM55" s="17"/>
       <c r="AN55" s="17"/>
       <c r="AO55" s="17"/>
@@ -7219,7 +7220,7 @@
       <c r="AS55" s="17"/>
       <c r="AT55" s="17"/>
       <c r="AU55" s="17"/>
-      <c r="AV55" s="17"/>
+      <c r="AV55" s="78"/>
       <c r="AW55" s="17"/>
       <c r="AX55" s="17"/>
       <c r="AY55" s="46"/>
@@ -7256,9 +7257,9 @@
       <c r="W56" s="17"/>
       <c r="X56" s="17"/>
       <c r="Y56" s="17"/>
-      <c r="Z56" s="117"/>
-      <c r="AA56" s="119"/>
-      <c r="AB56" s="119"/>
+      <c r="Z56" s="115"/>
+      <c r="AA56" s="117"/>
+      <c r="AB56" s="117"/>
       <c r="AC56" s="17"/>
       <c r="AD56" s="17"/>
       <c r="AE56" s="17"/>
@@ -7268,7 +7269,7 @@
       <c r="AI56" s="17"/>
       <c r="AJ56" s="17"/>
       <c r="AK56" s="17"/>
-      <c r="AL56" s="17"/>
+      <c r="AL56" s="78"/>
       <c r="AM56" s="17"/>
       <c r="AN56" s="17"/>
       <c r="AO56" s="17"/>
@@ -7278,7 +7279,7 @@
       <c r="AS56" s="17"/>
       <c r="AT56" s="17"/>
       <c r="AU56" s="17"/>
-      <c r="AV56" s="17"/>
+      <c r="AV56" s="78"/>
       <c r="AW56" s="17"/>
       <c r="AX56" s="17"/>
       <c r="AY56" s="46"/>
@@ -7315,9 +7316,9 @@
       <c r="W57" s="17"/>
       <c r="X57" s="17"/>
       <c r="Y57" s="17"/>
-      <c r="Z57" s="117"/>
-      <c r="AA57" s="119"/>
-      <c r="AB57" s="119"/>
+      <c r="Z57" s="115"/>
+      <c r="AA57" s="117"/>
+      <c r="AB57" s="117"/>
       <c r="AC57" s="17"/>
       <c r="AD57" s="17"/>
       <c r="AE57" s="17"/>
@@ -7327,7 +7328,7 @@
       <c r="AI57" s="17"/>
       <c r="AJ57" s="17"/>
       <c r="AK57" s="17"/>
-      <c r="AL57" s="17"/>
+      <c r="AL57" s="78"/>
       <c r="AM57" s="17"/>
       <c r="AN57" s="17"/>
       <c r="AO57" s="17"/>
@@ -7337,7 +7338,7 @@
       <c r="AS57" s="17"/>
       <c r="AT57" s="17"/>
       <c r="AU57" s="17"/>
-      <c r="AV57" s="17"/>
+      <c r="AV57" s="78"/>
       <c r="AW57" s="17"/>
       <c r="AX57" s="17"/>
       <c r="AY57" s="46"/>
@@ -7374,9 +7375,9 @@
       <c r="W58" s="17"/>
       <c r="X58" s="17"/>
       <c r="Y58" s="17"/>
-      <c r="Z58" s="117"/>
-      <c r="AA58" s="119"/>
-      <c r="AB58" s="119"/>
+      <c r="Z58" s="115"/>
+      <c r="AA58" s="117"/>
+      <c r="AB58" s="117"/>
       <c r="AC58" s="17"/>
       <c r="AD58" s="17"/>
       <c r="AE58" s="17"/>
@@ -7386,7 +7387,7 @@
       <c r="AI58" s="17"/>
       <c r="AJ58" s="17"/>
       <c r="AK58" s="17"/>
-      <c r="AL58" s="17"/>
+      <c r="AL58" s="78"/>
       <c r="AM58" s="17"/>
       <c r="AN58" s="17"/>
       <c r="AO58" s="17"/>
@@ -7396,7 +7397,7 @@
       <c r="AS58" s="17"/>
       <c r="AT58" s="17"/>
       <c r="AU58" s="17"/>
-      <c r="AV58" s="17"/>
+      <c r="AV58" s="78"/>
       <c r="AW58" s="17"/>
       <c r="AX58" s="17"/>
       <c r="AY58" s="46"/>
@@ -7433,9 +7434,9 @@
       <c r="W59" s="17"/>
       <c r="X59" s="17"/>
       <c r="Y59" s="17"/>
-      <c r="Z59" s="117"/>
-      <c r="AA59" s="119"/>
-      <c r="AB59" s="119"/>
+      <c r="Z59" s="115"/>
+      <c r="AA59" s="117"/>
+      <c r="AB59" s="117"/>
       <c r="AC59" s="17"/>
       <c r="AD59" s="17"/>
       <c r="AE59" s="17"/>
@@ -7445,7 +7446,7 @@
       <c r="AI59" s="17"/>
       <c r="AJ59" s="17"/>
       <c r="AK59" s="17"/>
-      <c r="AL59" s="17"/>
+      <c r="AL59" s="78"/>
       <c r="AM59" s="17"/>
       <c r="AN59" s="17"/>
       <c r="AO59" s="17"/>
@@ -7455,7 +7456,7 @@
       <c r="AS59" s="17"/>
       <c r="AT59" s="17"/>
       <c r="AU59" s="17"/>
-      <c r="AV59" s="17"/>
+      <c r="AV59" s="78"/>
       <c r="AW59" s="17"/>
       <c r="AX59" s="17"/>
       <c r="AY59" s="46"/>
@@ -7492,9 +7493,9 @@
       <c r="W60" s="17"/>
       <c r="X60" s="17"/>
       <c r="Y60" s="17"/>
-      <c r="Z60" s="117"/>
-      <c r="AA60" s="119"/>
-      <c r="AB60" s="119"/>
+      <c r="Z60" s="115"/>
+      <c r="AA60" s="117"/>
+      <c r="AB60" s="117"/>
       <c r="AC60" s="17"/>
       <c r="AD60" s="17"/>
       <c r="AE60" s="17"/>
@@ -7504,7 +7505,7 @@
       <c r="AI60" s="17"/>
       <c r="AJ60" s="17"/>
       <c r="AK60" s="17"/>
-      <c r="AL60" s="17"/>
+      <c r="AL60" s="78"/>
       <c r="AM60" s="17"/>
       <c r="AN60" s="17"/>
       <c r="AO60" s="17"/>
@@ -7514,7 +7515,7 @@
       <c r="AS60" s="17"/>
       <c r="AT60" s="17"/>
       <c r="AU60" s="17"/>
-      <c r="AV60" s="17"/>
+      <c r="AV60" s="78"/>
       <c r="AW60" s="17"/>
       <c r="AX60" s="17"/>
       <c r="AY60" s="46"/>
@@ -7551,9 +7552,9 @@
       <c r="W61" s="17"/>
       <c r="X61" s="17"/>
       <c r="Y61" s="17"/>
-      <c r="Z61" s="117"/>
-      <c r="AA61" s="119"/>
-      <c r="AB61" s="119"/>
+      <c r="Z61" s="115"/>
+      <c r="AA61" s="117"/>
+      <c r="AB61" s="117"/>
       <c r="AC61" s="17"/>
       <c r="AD61" s="17"/>
       <c r="AE61" s="17"/>
@@ -7563,7 +7564,7 @@
       <c r="AI61" s="17"/>
       <c r="AJ61" s="17"/>
       <c r="AK61" s="17"/>
-      <c r="AL61" s="17"/>
+      <c r="AL61" s="78"/>
       <c r="AM61" s="17"/>
       <c r="AN61" s="17"/>
       <c r="AO61" s="17"/>
@@ -7573,7 +7574,7 @@
       <c r="AS61" s="17"/>
       <c r="AT61" s="17"/>
       <c r="AU61" s="17"/>
-      <c r="AV61" s="17"/>
+      <c r="AV61" s="78"/>
       <c r="AW61" s="17"/>
       <c r="AX61" s="17"/>
       <c r="AY61" s="46"/>
@@ -7610,9 +7611,9 @@
       <c r="W62" s="17"/>
       <c r="X62" s="17"/>
       <c r="Y62" s="17"/>
-      <c r="Z62" s="117"/>
-      <c r="AA62" s="119"/>
-      <c r="AB62" s="119"/>
+      <c r="Z62" s="115"/>
+      <c r="AA62" s="117"/>
+      <c r="AB62" s="117"/>
       <c r="AC62" s="17"/>
       <c r="AD62" s="17"/>
       <c r="AE62" s="17"/>
@@ -7622,7 +7623,7 @@
       <c r="AI62" s="17"/>
       <c r="AJ62" s="17"/>
       <c r="AK62" s="17"/>
-      <c r="AL62" s="17"/>
+      <c r="AL62" s="78"/>
       <c r="AM62" s="17"/>
       <c r="AN62" s="17"/>
       <c r="AO62" s="17"/>
@@ -7632,7 +7633,7 @@
       <c r="AS62" s="17"/>
       <c r="AT62" s="17"/>
       <c r="AU62" s="17"/>
-      <c r="AV62" s="17"/>
+      <c r="AV62" s="78"/>
       <c r="AW62" s="17"/>
       <c r="AX62" s="17"/>
       <c r="AY62" s="46"/>
@@ -7669,9 +7670,9 @@
       <c r="W63" s="17"/>
       <c r="X63" s="17"/>
       <c r="Y63" s="17"/>
-      <c r="Z63" s="117"/>
-      <c r="AA63" s="119"/>
-      <c r="AB63" s="119"/>
+      <c r="Z63" s="115"/>
+      <c r="AA63" s="117"/>
+      <c r="AB63" s="117"/>
       <c r="AC63" s="17"/>
       <c r="AD63" s="17"/>
       <c r="AE63" s="17"/>
@@ -7681,7 +7682,7 @@
       <c r="AI63" s="17"/>
       <c r="AJ63" s="17"/>
       <c r="AK63" s="17"/>
-      <c r="AL63" s="17"/>
+      <c r="AL63" s="78"/>
       <c r="AM63" s="17"/>
       <c r="AN63" s="17"/>
       <c r="AO63" s="17"/>
@@ -7691,7 +7692,7 @@
       <c r="AS63" s="17"/>
       <c r="AT63" s="17"/>
       <c r="AU63" s="17"/>
-      <c r="AV63" s="17"/>
+      <c r="AV63" s="78"/>
       <c r="AW63" s="17"/>
       <c r="AX63" s="17"/>
       <c r="AY63" s="46"/>
@@ -7728,9 +7729,9 @@
       <c r="W64" s="17"/>
       <c r="X64" s="17"/>
       <c r="Y64" s="17"/>
-      <c r="Z64" s="117"/>
-      <c r="AA64" s="119"/>
-      <c r="AB64" s="119"/>
+      <c r="Z64" s="115"/>
+      <c r="AA64" s="117"/>
+      <c r="AB64" s="117"/>
       <c r="AC64" s="17"/>
       <c r="AD64" s="17"/>
       <c r="AE64" s="17"/>
@@ -7740,7 +7741,7 @@
       <c r="AI64" s="17"/>
       <c r="AJ64" s="17"/>
       <c r="AK64" s="17"/>
-      <c r="AL64" s="17"/>
+      <c r="AL64" s="78"/>
       <c r="AM64" s="17"/>
       <c r="AN64" s="17"/>
       <c r="AO64" s="17"/>
@@ -7750,7 +7751,7 @@
       <c r="AS64" s="17"/>
       <c r="AT64" s="17"/>
       <c r="AU64" s="17"/>
-      <c r="AV64" s="17"/>
+      <c r="AV64" s="78"/>
       <c r="AW64" s="17"/>
       <c r="AX64" s="17"/>
       <c r="AY64" s="46"/>
@@ -7787,9 +7788,9 @@
       <c r="W65" s="17"/>
       <c r="X65" s="17"/>
       <c r="Y65" s="17"/>
-      <c r="Z65" s="117"/>
-      <c r="AA65" s="119"/>
-      <c r="AB65" s="119"/>
+      <c r="Z65" s="115"/>
+      <c r="AA65" s="117"/>
+      <c r="AB65" s="117"/>
       <c r="AC65" s="17"/>
       <c r="AD65" s="17"/>
       <c r="AE65" s="17"/>
@@ -7799,7 +7800,7 @@
       <c r="AI65" s="17"/>
       <c r="AJ65" s="17"/>
       <c r="AK65" s="17"/>
-      <c r="AL65" s="17"/>
+      <c r="AL65" s="78"/>
       <c r="AM65" s="17"/>
       <c r="AN65" s="17"/>
       <c r="AO65" s="17"/>
@@ -7809,7 +7810,7 @@
       <c r="AS65" s="17"/>
       <c r="AT65" s="17"/>
       <c r="AU65" s="17"/>
-      <c r="AV65" s="17"/>
+      <c r="AV65" s="78"/>
       <c r="AW65" s="17"/>
       <c r="AX65" s="17"/>
       <c r="AY65" s="46"/>
@@ -7846,9 +7847,9 @@
       <c r="W66" s="17"/>
       <c r="X66" s="17"/>
       <c r="Y66" s="17"/>
-      <c r="Z66" s="117"/>
-      <c r="AA66" s="119"/>
-      <c r="AB66" s="119"/>
+      <c r="Z66" s="115"/>
+      <c r="AA66" s="117"/>
+      <c r="AB66" s="117"/>
       <c r="AC66" s="17"/>
       <c r="AD66" s="17"/>
       <c r="AE66" s="17"/>
@@ -7858,7 +7859,7 @@
       <c r="AI66" s="17"/>
       <c r="AJ66" s="17"/>
       <c r="AK66" s="17"/>
-      <c r="AL66" s="17"/>
+      <c r="AL66" s="78"/>
       <c r="AM66" s="17"/>
       <c r="AN66" s="17"/>
       <c r="AO66" s="17"/>
@@ -7868,7 +7869,7 @@
       <c r="AS66" s="17"/>
       <c r="AT66" s="17"/>
       <c r="AU66" s="17"/>
-      <c r="AV66" s="17"/>
+      <c r="AV66" s="78"/>
       <c r="AW66" s="17"/>
       <c r="AX66" s="17"/>
       <c r="AY66" s="46"/>
@@ -7905,9 +7906,9 @@
       <c r="W67" s="17"/>
       <c r="X67" s="17"/>
       <c r="Y67" s="17"/>
-      <c r="Z67" s="117"/>
-      <c r="AA67" s="119"/>
-      <c r="AB67" s="119"/>
+      <c r="Z67" s="115"/>
+      <c r="AA67" s="117"/>
+      <c r="AB67" s="117"/>
       <c r="AC67" s="17"/>
       <c r="AD67" s="17"/>
       <c r="AE67" s="17"/>
@@ -7917,7 +7918,7 @@
       <c r="AI67" s="17"/>
       <c r="AJ67" s="17"/>
       <c r="AK67" s="17"/>
-      <c r="AL67" s="17"/>
+      <c r="AL67" s="78"/>
       <c r="AM67" s="17"/>
       <c r="AN67" s="17"/>
       <c r="AO67" s="17"/>
@@ -7927,7 +7928,7 @@
       <c r="AS67" s="17"/>
       <c r="AT67" s="17"/>
       <c r="AU67" s="17"/>
-      <c r="AV67" s="17"/>
+      <c r="AV67" s="78"/>
       <c r="AW67" s="17"/>
       <c r="AX67" s="17"/>
       <c r="AY67" s="46"/>
@@ -7964,9 +7965,9 @@
       <c r="W68" s="17"/>
       <c r="X68" s="17"/>
       <c r="Y68" s="17"/>
-      <c r="Z68" s="117"/>
-      <c r="AA68" s="119"/>
-      <c r="AB68" s="119"/>
+      <c r="Z68" s="115"/>
+      <c r="AA68" s="117"/>
+      <c r="AB68" s="117"/>
       <c r="AC68" s="17"/>
       <c r="AD68" s="17"/>
       <c r="AE68" s="17"/>
@@ -7976,7 +7977,7 @@
       <c r="AI68" s="17"/>
       <c r="AJ68" s="17"/>
       <c r="AK68" s="17"/>
-      <c r="AL68" s="17"/>
+      <c r="AL68" s="78"/>
       <c r="AM68" s="17"/>
       <c r="AN68" s="17"/>
       <c r="AO68" s="17"/>
@@ -7986,7 +7987,7 @@
       <c r="AS68" s="17"/>
       <c r="AT68" s="17"/>
       <c r="AU68" s="17"/>
-      <c r="AV68" s="17"/>
+      <c r="AV68" s="78"/>
       <c r="AW68" s="17"/>
       <c r="AX68" s="17"/>
       <c r="AY68" s="46"/>
@@ -8023,9 +8024,9 @@
       <c r="W69" s="17"/>
       <c r="X69" s="17"/>
       <c r="Y69" s="17"/>
-      <c r="Z69" s="117"/>
-      <c r="AA69" s="119"/>
-      <c r="AB69" s="119"/>
+      <c r="Z69" s="115"/>
+      <c r="AA69" s="117"/>
+      <c r="AB69" s="117"/>
       <c r="AC69" s="17"/>
       <c r="AD69" s="17"/>
       <c r="AE69" s="17"/>
@@ -8035,7 +8036,7 @@
       <c r="AI69" s="17"/>
       <c r="AJ69" s="17"/>
       <c r="AK69" s="17"/>
-      <c r="AL69" s="17"/>
+      <c r="AL69" s="78"/>
       <c r="AM69" s="17"/>
       <c r="AN69" s="17"/>
       <c r="AO69" s="17"/>
@@ -8045,7 +8046,7 @@
       <c r="AS69" s="17"/>
       <c r="AT69" s="17"/>
       <c r="AU69" s="17"/>
-      <c r="AV69" s="17"/>
+      <c r="AV69" s="78"/>
       <c r="AW69" s="17"/>
       <c r="AX69" s="17"/>
       <c r="AY69" s="46"/>
@@ -8082,9 +8083,9 @@
       <c r="W70" s="17"/>
       <c r="X70" s="17"/>
       <c r="Y70" s="17"/>
-      <c r="Z70" s="117"/>
-      <c r="AA70" s="119"/>
-      <c r="AB70" s="119"/>
+      <c r="Z70" s="115"/>
+      <c r="AA70" s="117"/>
+      <c r="AB70" s="117"/>
       <c r="AC70" s="17"/>
       <c r="AD70" s="17"/>
       <c r="AE70" s="17"/>
@@ -8094,7 +8095,7 @@
       <c r="AI70" s="17"/>
       <c r="AJ70" s="17"/>
       <c r="AK70" s="17"/>
-      <c r="AL70" s="17"/>
+      <c r="AL70" s="78"/>
       <c r="AM70" s="17"/>
       <c r="AN70" s="17"/>
       <c r="AO70" s="17"/>
@@ -8104,7 +8105,7 @@
       <c r="AS70" s="17"/>
       <c r="AT70" s="17"/>
       <c r="AU70" s="17"/>
-      <c r="AV70" s="17"/>
+      <c r="AV70" s="78"/>
       <c r="AW70" s="17"/>
       <c r="AX70" s="17"/>
       <c r="AY70" s="46"/>
@@ -8141,9 +8142,9 @@
       <c r="W71" s="17"/>
       <c r="X71" s="17"/>
       <c r="Y71" s="17"/>
-      <c r="Z71" s="117"/>
-      <c r="AA71" s="119"/>
-      <c r="AB71" s="119"/>
+      <c r="Z71" s="115"/>
+      <c r="AA71" s="117"/>
+      <c r="AB71" s="117"/>
       <c r="AC71" s="17"/>
       <c r="AD71" s="17"/>
       <c r="AE71" s="17"/>
@@ -8153,7 +8154,7 @@
       <c r="AI71" s="17"/>
       <c r="AJ71" s="17"/>
       <c r="AK71" s="17"/>
-      <c r="AL71" s="17"/>
+      <c r="AL71" s="78"/>
       <c r="AM71" s="17"/>
       <c r="AN71" s="17"/>
       <c r="AO71" s="17"/>
@@ -8163,7 +8164,7 @@
       <c r="AS71" s="17"/>
       <c r="AT71" s="17"/>
       <c r="AU71" s="17"/>
-      <c r="AV71" s="17"/>
+      <c r="AV71" s="78"/>
       <c r="AW71" s="17"/>
       <c r="AX71" s="17"/>
       <c r="AY71" s="46"/>
@@ -8200,9 +8201,9 @@
       <c r="W72" s="17"/>
       <c r="X72" s="17"/>
       <c r="Y72" s="17"/>
-      <c r="Z72" s="117"/>
-      <c r="AA72" s="119"/>
-      <c r="AB72" s="119"/>
+      <c r="Z72" s="115"/>
+      <c r="AA72" s="117"/>
+      <c r="AB72" s="117"/>
       <c r="AC72" s="17"/>
       <c r="AD72" s="17"/>
       <c r="AE72" s="17"/>
@@ -8212,7 +8213,7 @@
       <c r="AI72" s="17"/>
       <c r="AJ72" s="17"/>
       <c r="AK72" s="17"/>
-      <c r="AL72" s="17"/>
+      <c r="AL72" s="78"/>
       <c r="AM72" s="17"/>
       <c r="AN72" s="17"/>
       <c r="AO72" s="17"/>
@@ -8222,7 +8223,7 @@
       <c r="AS72" s="17"/>
       <c r="AT72" s="17"/>
       <c r="AU72" s="17"/>
-      <c r="AV72" s="17"/>
+      <c r="AV72" s="78"/>
       <c r="AW72" s="17"/>
       <c r="AX72" s="17"/>
       <c r="AY72" s="46"/>
@@ -8259,9 +8260,9 @@
       <c r="W73" s="17"/>
       <c r="X73" s="17"/>
       <c r="Y73" s="17"/>
-      <c r="Z73" s="117"/>
-      <c r="AA73" s="119"/>
-      <c r="AB73" s="119"/>
+      <c r="Z73" s="115"/>
+      <c r="AA73" s="117"/>
+      <c r="AB73" s="117"/>
       <c r="AC73" s="17"/>
       <c r="AD73" s="17"/>
       <c r="AE73" s="17"/>
@@ -8271,7 +8272,7 @@
       <c r="AI73" s="17"/>
       <c r="AJ73" s="17"/>
       <c r="AK73" s="17"/>
-      <c r="AL73" s="17"/>
+      <c r="AL73" s="78"/>
       <c r="AM73" s="17"/>
       <c r="AN73" s="17"/>
       <c r="AO73" s="17"/>
@@ -8281,7 +8282,7 @@
       <c r="AS73" s="17"/>
       <c r="AT73" s="17"/>
       <c r="AU73" s="17"/>
-      <c r="AV73" s="17"/>
+      <c r="AV73" s="78"/>
       <c r="AW73" s="17"/>
       <c r="AX73" s="17"/>
       <c r="AY73" s="46"/>
@@ -8318,9 +8319,9 @@
       <c r="W74" s="17"/>
       <c r="X74" s="17"/>
       <c r="Y74" s="17"/>
-      <c r="Z74" s="117"/>
-      <c r="AA74" s="119"/>
-      <c r="AB74" s="119"/>
+      <c r="Z74" s="115"/>
+      <c r="AA74" s="117"/>
+      <c r="AB74" s="117"/>
       <c r="AC74" s="17"/>
       <c r="AD74" s="17"/>
       <c r="AE74" s="17"/>
@@ -8330,7 +8331,7 @@
       <c r="AI74" s="17"/>
       <c r="AJ74" s="17"/>
       <c r="AK74" s="17"/>
-      <c r="AL74" s="17"/>
+      <c r="AL74" s="78"/>
       <c r="AM74" s="17"/>
       <c r="AN74" s="17"/>
       <c r="AO74" s="17"/>
@@ -8340,7 +8341,7 @@
       <c r="AS74" s="17"/>
       <c r="AT74" s="17"/>
       <c r="AU74" s="17"/>
-      <c r="AV74" s="17"/>
+      <c r="AV74" s="78"/>
       <c r="AW74" s="17"/>
       <c r="AX74" s="17"/>
       <c r="AY74" s="46"/>
@@ -8377,9 +8378,9 @@
       <c r="W75" s="17"/>
       <c r="X75" s="17"/>
       <c r="Y75" s="17"/>
-      <c r="Z75" s="117"/>
-      <c r="AA75" s="119"/>
-      <c r="AB75" s="119"/>
+      <c r="Z75" s="115"/>
+      <c r="AA75" s="117"/>
+      <c r="AB75" s="117"/>
       <c r="AC75" s="17"/>
       <c r="AD75" s="17"/>
       <c r="AE75" s="17"/>
@@ -8389,7 +8390,7 @@
       <c r="AI75" s="17"/>
       <c r="AJ75" s="17"/>
       <c r="AK75" s="17"/>
-      <c r="AL75" s="17"/>
+      <c r="AL75" s="78"/>
       <c r="AM75" s="17"/>
       <c r="AN75" s="17"/>
       <c r="AO75" s="17"/>
@@ -8399,7 +8400,7 @@
       <c r="AS75" s="17"/>
       <c r="AT75" s="17"/>
       <c r="AU75" s="17"/>
-      <c r="AV75" s="17"/>
+      <c r="AV75" s="78"/>
       <c r="AW75" s="17"/>
       <c r="AX75" s="17"/>
       <c r="AY75" s="46"/>
@@ -8436,9 +8437,9 @@
       <c r="W76" s="17"/>
       <c r="X76" s="17"/>
       <c r="Y76" s="17"/>
-      <c r="Z76" s="117"/>
-      <c r="AA76" s="119"/>
-      <c r="AB76" s="119"/>
+      <c r="Z76" s="115"/>
+      <c r="AA76" s="117"/>
+      <c r="AB76" s="117"/>
       <c r="AC76" s="17"/>
       <c r="AD76" s="17"/>
       <c r="AE76" s="17"/>
@@ -8448,7 +8449,7 @@
       <c r="AI76" s="17"/>
       <c r="AJ76" s="17"/>
       <c r="AK76" s="17"/>
-      <c r="AL76" s="17"/>
+      <c r="AL76" s="78"/>
       <c r="AM76" s="17"/>
       <c r="AN76" s="17"/>
       <c r="AO76" s="17"/>
@@ -8458,7 +8459,7 @@
       <c r="AS76" s="17"/>
       <c r="AT76" s="17"/>
       <c r="AU76" s="17"/>
-      <c r="AV76" s="17"/>
+      <c r="AV76" s="78"/>
       <c r="AW76" s="17"/>
       <c r="AX76" s="17"/>
       <c r="AY76" s="46"/>
@@ -8495,9 +8496,9 @@
       <c r="W77" s="17"/>
       <c r="X77" s="17"/>
       <c r="Y77" s="17"/>
-      <c r="Z77" s="117"/>
-      <c r="AA77" s="119"/>
-      <c r="AB77" s="119"/>
+      <c r="Z77" s="115"/>
+      <c r="AA77" s="117"/>
+      <c r="AB77" s="117"/>
       <c r="AC77" s="17"/>
       <c r="AD77" s="17"/>
       <c r="AE77" s="17"/>
@@ -8507,7 +8508,7 @@
       <c r="AI77" s="17"/>
       <c r="AJ77" s="17"/>
       <c r="AK77" s="17"/>
-      <c r="AL77" s="17"/>
+      <c r="AL77" s="78"/>
       <c r="AM77" s="17"/>
       <c r="AN77" s="17"/>
       <c r="AO77" s="17"/>
@@ -8517,7 +8518,7 @@
       <c r="AS77" s="17"/>
       <c r="AT77" s="17"/>
       <c r="AU77" s="17"/>
-      <c r="AV77" s="17"/>
+      <c r="AV77" s="78"/>
       <c r="AW77" s="17"/>
       <c r="AX77" s="17"/>
       <c r="AY77" s="46"/>
@@ -8554,9 +8555,9 @@
       <c r="W78" s="17"/>
       <c r="X78" s="17"/>
       <c r="Y78" s="17"/>
-      <c r="Z78" s="117"/>
-      <c r="AA78" s="119"/>
-      <c r="AB78" s="119"/>
+      <c r="Z78" s="115"/>
+      <c r="AA78" s="117"/>
+      <c r="AB78" s="117"/>
       <c r="AC78" s="17"/>
       <c r="AD78" s="17"/>
       <c r="AE78" s="17"/>
@@ -8566,7 +8567,7 @@
       <c r="AI78" s="17"/>
       <c r="AJ78" s="17"/>
       <c r="AK78" s="17"/>
-      <c r="AL78" s="17"/>
+      <c r="AL78" s="78"/>
       <c r="AM78" s="17"/>
       <c r="AN78" s="17"/>
       <c r="AO78" s="17"/>
@@ -8576,7 +8577,7 @@
       <c r="AS78" s="17"/>
       <c r="AT78" s="17"/>
       <c r="AU78" s="17"/>
-      <c r="AV78" s="17"/>
+      <c r="AV78" s="78"/>
       <c r="AW78" s="17"/>
       <c r="AX78" s="17"/>
       <c r="AY78" s="46"/>
@@ -8833,55 +8834,55 @@
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="163" t="s">
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="163" t="s">
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="163" t="s">
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="167" t="s">
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="163" t="s">
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="163" t="s">
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="164"/>
-      <c r="AG2" s="165"/>
-      <c r="AH2" s="166" t="s">
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="166"/>
+      <c r="AH2" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="164"/>
-      <c r="AJ2" s="143"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="141"/>
     </row>
     <row r="3" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
@@ -8893,115 +8894,115 @@
       <c r="C3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="141" t="s">
+      <c r="D3" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="142" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="143" t="s">
+      <c r="G3" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="141" t="s">
+      <c r="H3" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="142" t="s">
+      <c r="I3" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="142" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="143" t="s">
+      <c r="K3" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="141" t="s">
+      <c r="L3" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="142" t="s">
+      <c r="M3" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="142" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="143" t="s">
+      <c r="O3" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="141" t="s">
+      <c r="P3" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="142" t="s">
+      <c r="Q3" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="142" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="143" t="s">
+      <c r="S3" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="141" t="s">
+      <c r="T3" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="142" t="s">
+      <c r="U3" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="140" t="s">
         <v>60</v>
-      </c>
-      <c r="V3" s="142" t="s">
-        <v>61</v>
       </c>
       <c r="W3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="141" t="s">
+      <c r="X3" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="142" t="s">
+      <c r="Y3" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z3" s="140" t="s">
         <v>60</v>
-      </c>
-      <c r="Z3" s="142" t="s">
-        <v>61</v>
       </c>
       <c r="AA3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="143" t="s">
+      <c r="AB3" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="141" t="s">
+      <c r="AC3" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="AD3" s="142" t="s">
+      <c r="AD3" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE3" s="140" t="s">
         <v>60</v>
-      </c>
-      <c r="AE3" s="142" t="s">
-        <v>61</v>
       </c>
       <c r="AF3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="143" t="s">
+      <c r="AG3" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="AH3" s="144" t="s">
+      <c r="AH3" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="AI3" s="145" t="s">
+      <c r="AI3" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="AJ3" s="143" t="s">
+      <c r="AJ3" s="141" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="144" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="145">
+        <v>30</v>
+      </c>
+      <c r="C4" s="146" t="s">
         <v>62</v>
-      </c>
-      <c r="B4" s="147">
-        <v>30</v>
-      </c>
-      <c r="C4" s="148" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="33">
         <v>-4163.9316406250027</v>
@@ -9060,52 +9061,52 @@
       <c r="V4" s="45">
         <v>-2.6317536177979619</v>
       </c>
-      <c r="W4" s="149">
+      <c r="W4" s="147">
         <v>0</v>
       </c>
-      <c r="X4" s="150">
+      <c r="X4" s="148">
         <v>36.044112354805037</v>
       </c>
-      <c r="Y4" s="151">
+      <c r="Y4" s="149">
         <v>36.8180025035984</v>
       </c>
       <c r="Z4" s="45">
         <v>24.540261869404699</v>
       </c>
-      <c r="AA4" s="152">
+      <c r="AA4" s="150">
         <v>30</v>
       </c>
       <c r="AB4" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC4" s="153">
+        <v>63</v>
+      </c>
+      <c r="AC4" s="151">
         <v>39.627157453809318</v>
       </c>
-      <c r="AD4" s="153">
+      <c r="AD4" s="151">
         <v>29.33446543058999</v>
       </c>
       <c r="AE4" s="45">
         <v>27.17201548720266</v>
       </c>
-      <c r="AF4" s="152">
+      <c r="AF4" s="150">
         <v>30</v>
       </c>
-      <c r="AG4" s="154" t="s">
+      <c r="AG4" s="152" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH4" s="153"/>
+      <c r="AI4" s="154"/>
+      <c r="AJ4" s="155"/>
+    </row>
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="AH4" s="155"/>
-      <c r="AI4" s="156"/>
-      <c r="AJ4" s="157"/>
-    </row>
-    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="146" t="s">
+      <c r="B5" s="145">
+        <v>30</v>
+      </c>
+      <c r="C5" s="146" t="s">
         <v>66</v>
-      </c>
-      <c r="B5" s="147">
-        <v>30</v>
-      </c>
-      <c r="C5" s="148" t="s">
-        <v>67</v>
       </c>
       <c r="D5" s="33">
         <v>185819.05425347219</v>
@@ -9164,52 +9165,52 @@
       <c r="V5" s="45">
         <v>1.961437108288393</v>
       </c>
-      <c r="W5" s="149">
+      <c r="W5" s="147">
         <v>10</v>
       </c>
-      <c r="X5" s="150">
+      <c r="X5" s="148">
         <v>88.70414350063669</v>
       </c>
-      <c r="Y5" s="151">
+      <c r="Y5" s="149">
         <v>23.432198777020801</v>
       </c>
       <c r="Z5" s="45">
         <v>46.834377847562507</v>
       </c>
-      <c r="AA5" s="152">
+      <c r="AA5" s="150">
         <v>40</v>
       </c>
       <c r="AB5" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC5" s="153">
+        <v>67</v>
+      </c>
+      <c r="AC5" s="151">
         <v>24.69408178878998</v>
       </c>
-      <c r="AD5" s="153">
+      <c r="AD5" s="151">
         <v>17.4569679817109</v>
       </c>
       <c r="AE5" s="45">
         <v>44.872940739274121</v>
       </c>
-      <c r="AF5" s="152">
+      <c r="AF5" s="150">
         <v>30</v>
       </c>
-      <c r="AG5" s="154" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH5" s="155"/>
-      <c r="AI5" s="156"/>
-      <c r="AJ5" s="157"/>
+      <c r="AG5" s="152" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH5" s="153"/>
+      <c r="AI5" s="154"/>
+      <c r="AJ5" s="155"/>
     </row>
     <row r="6" spans="1:36" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="144" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="145">
+        <v>21</v>
+      </c>
+      <c r="C6" s="146" t="s">
         <v>69</v>
-      </c>
-      <c r="B6" s="147">
-        <v>21</v>
-      </c>
-      <c r="C6" s="148" t="s">
-        <v>70</v>
       </c>
       <c r="D6" s="33">
         <v>-54113.787676411303</v>
@@ -9268,52 +9269,52 @@
       <c r="V6" s="45">
         <v>-17.914326240232231</v>
       </c>
-      <c r="W6" s="149">
+      <c r="W6" s="147">
         <v>15</v>
       </c>
-      <c r="X6" s="150">
+      <c r="X6" s="148">
         <v>13.8900248343435</v>
       </c>
-      <c r="Y6" s="151">
+      <c r="Y6" s="149">
         <v>17.729257740351461</v>
       </c>
       <c r="Z6" s="45">
         <v>15.48505020832131</v>
       </c>
-      <c r="AA6" s="152">
+      <c r="AA6" s="150">
         <v>45</v>
       </c>
       <c r="AB6" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC6" s="153">
+        <v>70</v>
+      </c>
+      <c r="AC6" s="151">
         <v>24.950177077283779</v>
       </c>
-      <c r="AD6" s="153">
+      <c r="AD6" s="151">
         <v>29.942331303474241</v>
       </c>
       <c r="AE6" s="45">
         <v>33.399376448553546</v>
       </c>
-      <c r="AF6" s="152">
+      <c r="AF6" s="150">
         <v>30</v>
       </c>
-      <c r="AG6" s="154" t="s">
+      <c r="AG6" s="152" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH6" s="153"/>
+      <c r="AI6" s="154"/>
+      <c r="AJ6" s="155"/>
+    </row>
+    <row r="7" spans="1:36" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="AH6" s="155"/>
-      <c r="AI6" s="156"/>
-      <c r="AJ6" s="157"/>
-    </row>
-    <row r="7" spans="1:36" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="146" t="s">
+      <c r="B7" s="145">
+        <v>30</v>
+      </c>
+      <c r="C7" s="146" t="s">
         <v>73</v>
-      </c>
-      <c r="B7" s="147">
-        <v>30</v>
-      </c>
-      <c r="C7" s="148" t="s">
-        <v>74</v>
       </c>
       <c r="D7" s="33">
         <v>-4702.887776692708</v>
@@ -9372,52 +9373,52 @@
       <c r="V7" s="45">
         <v>-19.479584431925311</v>
       </c>
-      <c r="W7" s="149">
+      <c r="W7" s="147">
         <v>8</v>
       </c>
-      <c r="X7" s="150">
+      <c r="X7" s="148">
         <v>32.512028116311903</v>
       </c>
-      <c r="Y7" s="151">
+      <c r="Y7" s="149">
         <v>16.784554005836121</v>
       </c>
       <c r="Z7" s="45">
         <v>41.478986911219152</v>
       </c>
-      <c r="AA7" s="152">
+      <c r="AA7" s="150">
         <v>30</v>
       </c>
       <c r="AB7" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC7" s="153">
+        <v>63</v>
+      </c>
+      <c r="AC7" s="151">
         <v>36.714363391189877</v>
       </c>
-      <c r="AD7" s="153">
+      <c r="AD7" s="151">
         <v>24.513094467661919</v>
       </c>
       <c r="AE7" s="45">
         <v>60.958571343144463</v>
       </c>
-      <c r="AF7" s="152">
+      <c r="AF7" s="150">
         <v>22</v>
       </c>
-      <c r="AG7" s="154" t="s">
+      <c r="AG7" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH7" s="153"/>
+      <c r="AI7" s="154"/>
+      <c r="AJ7" s="155"/>
+    </row>
+    <row r="8" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="AH7" s="155"/>
-      <c r="AI7" s="156"/>
-      <c r="AJ7" s="157"/>
-    </row>
-    <row r="8" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="146" t="s">
+      <c r="B8" s="145">
+        <v>15</v>
+      </c>
+      <c r="C8" s="146" t="s">
         <v>76</v>
-      </c>
-      <c r="B8" s="147">
-        <v>15</v>
-      </c>
-      <c r="C8" s="148" t="s">
-        <v>77</v>
       </c>
       <c r="D8" s="33">
         <v>73741.470237978036</v>
@@ -9476,50 +9477,50 @@
       <c r="V8" s="45">
         <v>22.466261141351911</v>
       </c>
-      <c r="W8" s="149">
+      <c r="W8" s="147">
         <v>15</v>
       </c>
-      <c r="X8" s="150">
+      <c r="X8" s="148">
         <v>115.7970190586158</v>
       </c>
-      <c r="Y8" s="151">
+      <c r="Y8" s="149">
         <v>43.894041768635873</v>
       </c>
       <c r="Z8" s="45">
         <v>38.13122921264582</v>
       </c>
-      <c r="AA8" s="152">
+      <c r="AA8" s="150">
         <v>30</v>
       </c>
       <c r="AB8" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC8" s="153">
+        <v>63</v>
+      </c>
+      <c r="AC8" s="151">
         <v>19.29096447624573</v>
       </c>
-      <c r="AD8" s="153">
+      <c r="AD8" s="151">
         <v>17.808058974849349</v>
       </c>
       <c r="AE8" s="45">
         <v>15.664968071293909</v>
       </c>
-      <c r="AF8" s="152">
+      <c r="AF8" s="150">
         <v>15</v>
       </c>
-      <c r="AG8" s="154"/>
-      <c r="AH8" s="155"/>
-      <c r="AI8" s="156"/>
-      <c r="AJ8" s="157"/>
+      <c r="AG8" s="152"/>
+      <c r="AH8" s="153"/>
+      <c r="AI8" s="154"/>
+      <c r="AJ8" s="155"/>
     </row>
     <row r="9" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="144" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="145">
+        <v>15</v>
+      </c>
+      <c r="C9" s="146" t="s">
         <v>78</v>
-      </c>
-      <c r="B9" s="147">
-        <v>15</v>
-      </c>
-      <c r="C9" s="148" t="s">
-        <v>79</v>
       </c>
       <c r="D9" s="33">
         <v>9736.8039314516063</v>
@@ -9578,52 +9579,52 @@
       <c r="V9" s="45">
         <v>4.4585283915785201</v>
       </c>
-      <c r="W9" s="149">
+      <c r="W9" s="147">
         <v>15</v>
       </c>
-      <c r="X9" s="150">
+      <c r="X9" s="148">
         <v>10.904620237177051</v>
       </c>
-      <c r="Y9" s="151">
+      <c r="Y9" s="149">
         <v>28.16895236663505</v>
       </c>
       <c r="Z9" s="45">
         <v>11.600219334741871</v>
       </c>
-      <c r="AA9" s="152">
+      <c r="AA9" s="150">
         <v>30</v>
       </c>
       <c r="AB9" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC9" s="153">
+        <v>63</v>
+      </c>
+      <c r="AC9" s="151">
         <v>9.9272898256297335</v>
       </c>
-      <c r="AD9" s="153">
+      <c r="AD9" s="151">
         <v>27.377229905390269</v>
       </c>
       <c r="AE9" s="45">
         <v>7.1416909431633506</v>
       </c>
-      <c r="AF9" s="152">
+      <c r="AF9" s="150">
         <v>15</v>
       </c>
-      <c r="AG9" s="154" t="s">
+      <c r="AG9" s="152" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH9" s="153"/>
+      <c r="AI9" s="154"/>
+      <c r="AJ9" s="155"/>
+    </row>
+    <row r="10" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="AH9" s="155"/>
-      <c r="AI9" s="156"/>
-      <c r="AJ9" s="157"/>
-    </row>
-    <row r="10" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="146" t="s">
+      <c r="B10" s="145">
+        <v>30</v>
+      </c>
+      <c r="C10" s="146" t="s">
         <v>81</v>
-      </c>
-      <c r="B10" s="147">
-        <v>30</v>
-      </c>
-      <c r="C10" s="148" t="s">
-        <v>82</v>
       </c>
       <c r="D10" s="33">
         <v>5361.1523437499955</v>
@@ -9682,52 +9683,52 @@
       <c r="V10" s="45">
         <v>12.969886328905201</v>
       </c>
-      <c r="W10" s="149">
+      <c r="W10" s="147">
         <v>0</v>
       </c>
-      <c r="X10" s="150">
+      <c r="X10" s="148">
         <v>19.428581463498201</v>
       </c>
-      <c r="Y10" s="151">
+      <c r="Y10" s="149">
         <v>40.255834716932597</v>
       </c>
       <c r="Z10" s="45">
         <v>31.242470869645778</v>
       </c>
-      <c r="AA10" s="152">
+      <c r="AA10" s="150">
         <v>30</v>
       </c>
       <c r="AB10" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC10" s="153">
+        <v>63</v>
+      </c>
+      <c r="AC10" s="151">
         <v>17.468168372272931</v>
       </c>
-      <c r="AD10" s="153">
+      <c r="AD10" s="151">
         <v>62.863063957845753</v>
       </c>
       <c r="AE10" s="45">
         <v>18.272584540740581</v>
       </c>
-      <c r="AF10" s="152">
+      <c r="AF10" s="150">
         <v>30</v>
       </c>
-      <c r="AG10" s="154" t="s">
+      <c r="AG10" s="152" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH10" s="153"/>
+      <c r="AI10" s="154"/>
+      <c r="AJ10" s="155"/>
+    </row>
+    <row r="11" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="AH10" s="155"/>
-      <c r="AI10" s="156"/>
-      <c r="AJ10" s="157"/>
-    </row>
-    <row r="11" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="146" t="s">
+      <c r="B11" s="145">
+        <v>21</v>
+      </c>
+      <c r="C11" s="146" t="s">
         <v>84</v>
-      </c>
-      <c r="B11" s="147">
-        <v>21</v>
-      </c>
-      <c r="C11" s="148" t="s">
-        <v>85</v>
       </c>
       <c r="D11" s="33">
         <v>-22679.576171875</v>
@@ -9786,50 +9787,50 @@
       <c r="V11" s="45">
         <v>-4.7055882474741821</v>
       </c>
-      <c r="W11" s="149">
+      <c r="W11" s="147">
         <v>9</v>
       </c>
-      <c r="X11" s="150">
+      <c r="X11" s="148">
         <v>24.340225232347979</v>
       </c>
-      <c r="Y11" s="151">
+      <c r="Y11" s="149">
         <v>21.459097093696599</v>
       </c>
       <c r="Z11" s="45">
         <v>25.74067192673715</v>
       </c>
-      <c r="AA11" s="152">
+      <c r="AA11" s="150">
         <v>30</v>
       </c>
       <c r="AB11" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC11" s="153">
+        <v>63</v>
+      </c>
+      <c r="AC11" s="151">
         <v>39.495656460222669</v>
       </c>
-      <c r="AD11" s="153">
+      <c r="AD11" s="151">
         <v>28.585374879708521</v>
       </c>
       <c r="AE11" s="45">
         <v>30.446260174211329</v>
       </c>
-      <c r="AF11" s="152">
+      <c r="AF11" s="150">
         <v>21</v>
       </c>
-      <c r="AG11" s="154"/>
-      <c r="AH11" s="155"/>
-      <c r="AI11" s="156"/>
-      <c r="AJ11" s="157"/>
+      <c r="AG11" s="152"/>
+      <c r="AH11" s="153"/>
+      <c r="AI11" s="154"/>
+      <c r="AJ11" s="155"/>
     </row>
     <row r="12" spans="1:36" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="144" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="145">
+        <v>30</v>
+      </c>
+      <c r="C12" s="146" t="s">
         <v>86</v>
-      </c>
-      <c r="B12" s="147">
-        <v>30</v>
-      </c>
-      <c r="C12" s="148" t="s">
-        <v>87</v>
       </c>
       <c r="D12" s="33">
         <v>73400.182459677424</v>
@@ -9888,52 +9889,52 @@
       <c r="V12" s="45">
         <v>33.848905308306684</v>
       </c>
-      <c r="W12" s="149">
+      <c r="W12" s="147">
         <v>0</v>
       </c>
-      <c r="X12" s="150">
+      <c r="X12" s="148">
         <v>48.142010186398501</v>
       </c>
-      <c r="Y12" s="151">
+      <c r="Y12" s="149">
         <v>47.197340675320113</v>
       </c>
       <c r="Z12" s="45">
         <v>48.768770317654663</v>
       </c>
-      <c r="AA12" s="152">
+      <c r="AA12" s="150">
         <v>30</v>
       </c>
       <c r="AB12" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC12" s="153">
+        <v>63</v>
+      </c>
+      <c r="AC12" s="151">
         <v>29.26664848890038</v>
       </c>
-      <c r="AD12" s="153">
+      <c r="AD12" s="151">
         <v>42.560593259678292</v>
       </c>
       <c r="AE12" s="45">
         <v>14.919865009347969</v>
       </c>
-      <c r="AF12" s="152">
+      <c r="AF12" s="150">
         <v>30</v>
       </c>
-      <c r="AG12" s="154" t="s">
+      <c r="AG12" s="152" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH12" s="153"/>
+      <c r="AI12" s="154"/>
+      <c r="AJ12" s="155"/>
+    </row>
+    <row r="13" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="144" t="s">
         <v>88</v>
       </c>
-      <c r="AH12" s="155"/>
-      <c r="AI12" s="156"/>
-      <c r="AJ12" s="157"/>
-    </row>
-    <row r="13" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="146" t="s">
+      <c r="B13" s="145">
+        <v>30</v>
+      </c>
+      <c r="C13" s="146" t="s">
         <v>89</v>
-      </c>
-      <c r="B13" s="147">
-        <v>30</v>
-      </c>
-      <c r="C13" s="148" t="s">
-        <v>90</v>
       </c>
       <c r="D13" s="33">
         <v>147098.02167338709</v>
@@ -9992,52 +9993,52 @@
       <c r="V13" s="45">
         <v>21.352951899206079</v>
       </c>
-      <c r="W13" s="149">
+      <c r="W13" s="147">
         <v>10</v>
       </c>
-      <c r="X13" s="150">
+      <c r="X13" s="148">
         <v>62.919351968589417</v>
       </c>
-      <c r="Y13" s="151">
+      <c r="Y13" s="149">
         <v>80.99959053673129</v>
       </c>
       <c r="Z13" s="45">
         <v>45.856901944260102</v>
       </c>
-      <c r="AA13" s="152">
+      <c r="AA13" s="150">
         <v>40</v>
       </c>
       <c r="AB13" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC13" s="153">
+        <v>90</v>
+      </c>
+      <c r="AC13" s="151">
         <v>36.313504864419023</v>
       </c>
-      <c r="AD13" s="153">
+      <c r="AD13" s="151">
         <v>39.591058495489442</v>
       </c>
       <c r="AE13" s="45">
         <v>24.50395004505403</v>
       </c>
-      <c r="AF13" s="152">
+      <c r="AF13" s="150">
         <v>30</v>
       </c>
-      <c r="AG13" s="154" t="s">
+      <c r="AG13" s="152" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH13" s="153"/>
+      <c r="AI13" s="154"/>
+      <c r="AJ13" s="155"/>
+    </row>
+    <row r="14" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="AH13" s="155"/>
-      <c r="AI13" s="156"/>
-      <c r="AJ13" s="157"/>
-    </row>
-    <row r="14" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="146" t="s">
+      <c r="B14" s="145">
+        <v>15</v>
+      </c>
+      <c r="C14" s="146" t="s">
         <v>93</v>
-      </c>
-      <c r="B14" s="147">
-        <v>15</v>
-      </c>
-      <c r="C14" s="148" t="s">
-        <v>94</v>
       </c>
       <c r="D14" s="33">
         <v>414282.01031297247</v>
@@ -10096,52 +10097,52 @@
       <c r="V14" s="45">
         <v>81.048626638971172</v>
       </c>
-      <c r="W14" s="149">
+      <c r="W14" s="147">
         <v>12</v>
       </c>
-      <c r="X14" s="150">
+      <c r="X14" s="148">
         <v>476.90094445831761</v>
       </c>
-      <c r="Y14" s="151">
+      <c r="Y14" s="149">
         <v>146.94542747000031</v>
       </c>
       <c r="Z14" s="45">
         <v>83.349492189844767</v>
       </c>
-      <c r="AA14" s="152">
+      <c r="AA14" s="150">
         <v>42</v>
       </c>
       <c r="AB14" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC14" s="153">
+        <v>94</v>
+      </c>
+      <c r="AC14" s="151">
         <v>4.6467572008568654</v>
       </c>
-      <c r="AD14" s="153">
+      <c r="AD14" s="151">
         <v>1.469303037392264</v>
       </c>
       <c r="AE14" s="45">
         <v>2.3008655508735969</v>
       </c>
-      <c r="AF14" s="152">
+      <c r="AF14" s="150">
         <v>30</v>
       </c>
-      <c r="AG14" s="154" t="s">
+      <c r="AG14" s="152" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH14" s="153"/>
+      <c r="AI14" s="154"/>
+      <c r="AJ14" s="155"/>
+    </row>
+    <row r="15" spans="1:36" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="AH14" s="155"/>
-      <c r="AI14" s="156"/>
-      <c r="AJ14" s="157"/>
-    </row>
-    <row r="15" spans="1:36" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="146" t="s">
+      <c r="B15" s="145">
+        <v>15</v>
+      </c>
+      <c r="C15" s="146" t="s">
         <v>97</v>
-      </c>
-      <c r="B15" s="147">
-        <v>15</v>
-      </c>
-      <c r="C15" s="148" t="s">
-        <v>98</v>
       </c>
       <c r="D15" s="33">
         <v>588929.2683056246</v>
@@ -10200,50 +10201,50 @@
       <c r="V15" s="45">
         <v>17.91308536364744</v>
       </c>
-      <c r="W15" s="149">
+      <c r="W15" s="147">
         <v>5</v>
       </c>
-      <c r="X15" s="150">
+      <c r="X15" s="148">
         <v>61.254096705258704</v>
       </c>
-      <c r="Y15" s="151">
+      <c r="Y15" s="149">
         <v>38.505800067925662</v>
       </c>
       <c r="Z15" s="45">
         <v>18.445228312052119</v>
       </c>
-      <c r="AA15" s="152">
+      <c r="AA15" s="150">
         <v>35</v>
       </c>
       <c r="AB15" s="77"/>
-      <c r="AC15" s="153">
+      <c r="AC15" s="151">
         <v>5.9368475047435587E-2</v>
       </c>
-      <c r="AD15" s="153">
+      <c r="AD15" s="151">
         <v>0.1172175030575875</v>
       </c>
       <c r="AE15" s="45">
         <v>0.53214294840468757</v>
       </c>
-      <c r="AF15" s="152">
+      <c r="AF15" s="150">
         <v>30</v>
       </c>
-      <c r="AG15" s="154" t="s">
+      <c r="AG15" s="152" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH15" s="153"/>
+      <c r="AI15" s="154"/>
+      <c r="AJ15" s="155"/>
+    </row>
+    <row r="16" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="144" t="s">
         <v>99</v>
       </c>
-      <c r="AH15" s="155"/>
-      <c r="AI15" s="156"/>
-      <c r="AJ15" s="157"/>
-    </row>
-    <row r="16" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="146" t="s">
+      <c r="B16" s="145">
+        <v>30</v>
+      </c>
+      <c r="C16" s="146" t="s">
         <v>100</v>
-      </c>
-      <c r="B16" s="147">
-        <v>30</v>
-      </c>
-      <c r="C16" s="148" t="s">
-        <v>101</v>
       </c>
       <c r="D16" s="33">
         <v>135735.80052923391</v>
@@ -10302,50 +10303,50 @@
       <c r="V16" s="45">
         <v>-19.87308068745558</v>
       </c>
-      <c r="W16" s="149">
+      <c r="W16" s="147">
         <v>-9</v>
       </c>
-      <c r="X16" s="150">
+      <c r="X16" s="148">
         <v>28.08840886049261</v>
       </c>
-      <c r="Y16" s="151">
+      <c r="Y16" s="149">
         <v>21.65209747065656</v>
       </c>
       <c r="Z16" s="45">
         <v>11.41917848207629</v>
       </c>
-      <c r="AA16" s="152">
+      <c r="AA16" s="150">
         <v>21</v>
       </c>
       <c r="AB16" s="77"/>
-      <c r="AC16" s="153">
+      <c r="AC16" s="151">
         <v>1.3518164754548121</v>
       </c>
-      <c r="AD16" s="153">
+      <c r="AD16" s="151">
         <v>19.843983353263901</v>
       </c>
       <c r="AE16" s="45">
         <v>31.292259169531871</v>
       </c>
-      <c r="AF16" s="152">
+      <c r="AF16" s="150">
         <v>30</v>
       </c>
-      <c r="AG16" s="154" t="s">
+      <c r="AG16" s="152" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH16" s="153"/>
+      <c r="AI16" s="154"/>
+      <c r="AJ16" s="155"/>
+    </row>
+    <row r="17" spans="1:36" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="AH16" s="155"/>
-      <c r="AI16" s="156"/>
-      <c r="AJ16" s="157"/>
-    </row>
-    <row r="17" spans="1:36" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="146" t="s">
+      <c r="B17" s="145">
+        <v>30</v>
+      </c>
+      <c r="C17" s="146" t="s">
         <v>103</v>
-      </c>
-      <c r="B17" s="147">
-        <v>30</v>
-      </c>
-      <c r="C17" s="148" t="s">
-        <v>104</v>
       </c>
       <c r="D17" s="33">
         <v>67007.427734374971</v>
@@ -10404,50 +10405,50 @@
       <c r="V17" s="45">
         <v>-10.142124264531009</v>
       </c>
-      <c r="W17" s="149">
+      <c r="W17" s="147">
         <v>12</v>
       </c>
-      <c r="X17" s="150">
+      <c r="X17" s="148">
         <v>37.843257047154921</v>
       </c>
-      <c r="Y17" s="151">
+      <c r="Y17" s="149">
         <v>65.717469800114529</v>
       </c>
       <c r="Z17" s="45">
         <v>18.909512105045881</v>
       </c>
-      <c r="AA17" s="152">
+      <c r="AA17" s="150">
         <v>42</v>
       </c>
       <c r="AB17" s="77"/>
-      <c r="AC17" s="153">
+      <c r="AC17" s="151">
         <v>27.402076102109621</v>
       </c>
-      <c r="AD17" s="153">
+      <c r="AD17" s="151">
         <v>20.93700175985547</v>
       </c>
       <c r="AE17" s="45">
         <v>29.05163636957689</v>
       </c>
-      <c r="AF17" s="152">
+      <c r="AF17" s="150">
         <v>30</v>
       </c>
-      <c r="AG17" s="154" t="s">
+      <c r="AG17" s="152" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH17" s="153"/>
+      <c r="AI17" s="154"/>
+      <c r="AJ17" s="155"/>
+    </row>
+    <row r="18" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="AH17" s="155"/>
-      <c r="AI17" s="156"/>
-      <c r="AJ17" s="157"/>
-    </row>
-    <row r="18" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="146" t="s">
+      <c r="B18" s="145">
+        <v>30</v>
+      </c>
+      <c r="C18" s="146" t="s">
         <v>106</v>
-      </c>
-      <c r="B18" s="147">
-        <v>30</v>
-      </c>
-      <c r="C18" s="148" t="s">
-        <v>107</v>
       </c>
       <c r="D18" s="33">
         <v>56149.708165322583</v>
@@ -10506,48 +10507,48 @@
       <c r="V18" s="45">
         <v>10.20768075272515</v>
       </c>
-      <c r="W18" s="149">
+      <c r="W18" s="147">
         <v>0</v>
       </c>
-      <c r="X18" s="150">
+      <c r="X18" s="148">
         <v>61.766402970071063</v>
       </c>
-      <c r="Y18" s="151">
+      <c r="Y18" s="149">
         <v>24.07626844198326</v>
       </c>
       <c r="Z18" s="45">
         <v>35.628737302904291</v>
       </c>
-      <c r="AA18" s="152">
+      <c r="AA18" s="150">
         <v>30</v>
       </c>
       <c r="AB18" s="77"/>
-      <c r="AC18" s="153">
+      <c r="AC18" s="151">
         <v>41.822437785595</v>
       </c>
-      <c r="AD18" s="153">
+      <c r="AD18" s="151">
         <v>35.267048335670637</v>
       </c>
       <c r="AE18" s="45">
         <v>25.421056550179141</v>
       </c>
-      <c r="AF18" s="152">
+      <c r="AF18" s="150">
         <v>30</v>
       </c>
-      <c r="AG18" s="154"/>
-      <c r="AH18" s="155"/>
-      <c r="AI18" s="156"/>
-      <c r="AJ18" s="157"/>
+      <c r="AG18" s="152"/>
+      <c r="AH18" s="153"/>
+      <c r="AI18" s="154"/>
+      <c r="AJ18" s="155"/>
     </row>
     <row r="19" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="146" t="s">
+      <c r="A19" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="145">
+        <v>0</v>
+      </c>
+      <c r="C19" s="146" t="s">
         <v>108</v>
-      </c>
-      <c r="B19" s="147">
-        <v>0</v>
-      </c>
-      <c r="C19" s="148" t="s">
-        <v>109</v>
       </c>
       <c r="D19" s="33">
         <v>171960.91232201361</v>
@@ -10606,52 +10607,52 @@
       <c r="V19" s="45">
         <v>54.458027101821408</v>
       </c>
-      <c r="W19" s="149">
+      <c r="W19" s="147">
         <v>0</v>
       </c>
-      <c r="X19" s="150">
+      <c r="X19" s="148">
         <v>7.7864111679165546</v>
       </c>
-      <c r="Y19" s="151">
+      <c r="Y19" s="149">
         <v>7.6883517900038481</v>
       </c>
       <c r="Z19" s="45">
         <v>54.458027101821408</v>
       </c>
-      <c r="AA19" s="152">
+      <c r="AA19" s="150">
         <v>30</v>
       </c>
       <c r="AB19" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC19" s="153">
+        <v>109</v>
+      </c>
+      <c r="AC19" s="151">
         <v>0</v>
       </c>
-      <c r="AD19" s="153">
+      <c r="AD19" s="151">
         <v>0</v>
       </c>
       <c r="AE19" s="45">
         <v>0</v>
       </c>
-      <c r="AF19" s="152">
+      <c r="AF19" s="150">
         <v>30</v>
       </c>
-      <c r="AG19" s="154" t="s">
+      <c r="AG19" s="152" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH19" s="153"/>
+      <c r="AI19" s="154"/>
+      <c r="AJ19" s="155"/>
+    </row>
+    <row r="20" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="144" t="s">
         <v>111</v>
       </c>
-      <c r="AH19" s="155"/>
-      <c r="AI19" s="156"/>
-      <c r="AJ19" s="157"/>
-    </row>
-    <row r="20" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="146" t="s">
+      <c r="B20" s="145">
+        <v>21</v>
+      </c>
+      <c r="C20" s="146" t="s">
         <v>112</v>
-      </c>
-      <c r="B20" s="147">
-        <v>21</v>
-      </c>
-      <c r="C20" s="148" t="s">
-        <v>113</v>
       </c>
       <c r="D20" s="33">
         <v>128620.1368447581</v>
@@ -10710,52 +10711,52 @@
       <c r="V20" s="45">
         <v>81.009245586513856</v>
       </c>
-      <c r="W20" s="149">
+      <c r="W20" s="147">
         <v>12</v>
       </c>
-      <c r="X20" s="150">
+      <c r="X20" s="148">
         <v>149.20963250155199</v>
       </c>
-      <c r="Y20" s="151">
+      <c r="Y20" s="149">
         <v>100.7990746981738</v>
       </c>
       <c r="Z20" s="45">
         <v>101.1722438360358</v>
       </c>
-      <c r="AA20" s="152">
+      <c r="AA20" s="150">
         <v>42</v>
       </c>
       <c r="AB20" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC20" s="153">
+        <v>113</v>
+      </c>
+      <c r="AC20" s="151">
         <v>29.699389110795249</v>
       </c>
-      <c r="AD20" s="153">
+      <c r="AD20" s="151">
         <v>9.225294176457167</v>
       </c>
       <c r="AE20" s="45">
         <v>20.16299824952193</v>
       </c>
-      <c r="AF20" s="152">
+      <c r="AF20" s="150">
         <v>30</v>
       </c>
-      <c r="AG20" s="154" t="s">
+      <c r="AG20" s="152" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH20" s="153"/>
+      <c r="AI20" s="154"/>
+      <c r="AJ20" s="155"/>
+    </row>
+    <row r="21" spans="1:36" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="AH20" s="155"/>
-      <c r="AI20" s="156"/>
-      <c r="AJ20" s="157"/>
-    </row>
-    <row r="21" spans="1:36" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="146" t="s">
+      <c r="B21" s="145">
+        <v>0</v>
+      </c>
+      <c r="C21" s="146" t="s">
         <v>116</v>
-      </c>
-      <c r="B21" s="147">
-        <v>0</v>
-      </c>
-      <c r="C21" s="148" t="s">
-        <v>117</v>
       </c>
       <c r="D21" s="33">
         <v>62838.097656249993</v>
@@ -10814,52 +10815,52 @@
       <c r="V21" s="45">
         <v>121.6032127857396</v>
       </c>
-      <c r="W21" s="149">
+      <c r="W21" s="147">
         <v>12</v>
       </c>
-      <c r="X21" s="150">
+      <c r="X21" s="148">
         <v>112.2249912961399</v>
       </c>
-      <c r="Y21" s="151">
+      <c r="Y21" s="149">
         <v>277.3239040914159</v>
       </c>
       <c r="Z21" s="45">
         <v>121.6032127857396</v>
       </c>
-      <c r="AA21" s="152">
+      <c r="AA21" s="150">
         <v>42</v>
       </c>
       <c r="AB21" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC21" s="153">
+        <v>117</v>
+      </c>
+      <c r="AC21" s="151">
         <v>0</v>
       </c>
-      <c r="AD21" s="153">
+      <c r="AD21" s="151">
         <v>0</v>
       </c>
       <c r="AE21" s="45">
         <v>0</v>
       </c>
-      <c r="AF21" s="152">
+      <c r="AF21" s="150">
         <v>30</v>
       </c>
-      <c r="AG21" s="154" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH21" s="155"/>
-      <c r="AI21" s="156"/>
-      <c r="AJ21" s="157"/>
+      <c r="AG21" s="152" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH21" s="153"/>
+      <c r="AI21" s="154"/>
+      <c r="AJ21" s="155"/>
     </row>
     <row r="22" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="146" t="s">
+      <c r="A22" s="144" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="145">
+        <v>7</v>
+      </c>
+      <c r="C22" s="146" t="s">
         <v>119</v>
-      </c>
-      <c r="B22" s="147">
-        <v>7</v>
-      </c>
-      <c r="C22" s="148" t="s">
-        <v>120</v>
       </c>
       <c r="D22" s="33">
         <v>63234.746207101001</v>
@@ -10918,52 +10919,52 @@
       <c r="V22" s="45">
         <v>537.11467110902197</v>
       </c>
-      <c r="W22" s="149">
+      <c r="W22" s="147">
         <v>12</v>
       </c>
-      <c r="X22" s="150">
+      <c r="X22" s="148">
         <v>309.77568348118308</v>
       </c>
-      <c r="Y22" s="151">
+      <c r="Y22" s="149">
         <v>37.296770008289947</v>
       </c>
       <c r="Z22" s="45">
         <v>546.9649559909866</v>
       </c>
-      <c r="AA22" s="152">
+      <c r="AA22" s="150">
         <v>42</v>
       </c>
       <c r="AB22" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC22" s="153">
+        <v>120</v>
+      </c>
+      <c r="AC22" s="151">
         <v>34.940660839259152</v>
       </c>
-      <c r="AD22" s="153">
+      <c r="AD22" s="151">
         <v>0</v>
       </c>
       <c r="AE22" s="45">
         <v>9.8502848819645816</v>
       </c>
-      <c r="AF22" s="152">
+      <c r="AF22" s="150">
         <v>30</v>
       </c>
-      <c r="AG22" s="154" t="s">
+      <c r="AG22" s="152" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH22" s="153"/>
+      <c r="AI22" s="154"/>
+      <c r="AJ22" s="155"/>
+    </row>
+    <row r="23" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="AH22" s="155"/>
-      <c r="AI22" s="156"/>
-      <c r="AJ22" s="157"/>
-    </row>
-    <row r="23" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="146" t="s">
+      <c r="B23" s="145">
+        <v>30</v>
+      </c>
+      <c r="C23" s="146" t="s">
         <v>123</v>
-      </c>
-      <c r="B23" s="147">
-        <v>30</v>
-      </c>
-      <c r="C23" s="148" t="s">
-        <v>124</v>
       </c>
       <c r="D23" s="33">
         <v>88264.466418850832</v>
@@ -11022,52 +11023,52 @@
       <c r="V23" s="45">
         <v>39.59499583487699</v>
       </c>
-      <c r="W23" s="149">
+      <c r="W23" s="147">
         <v>5</v>
       </c>
-      <c r="X23" s="150">
+      <c r="X23" s="148">
         <v>73.983620769546235</v>
       </c>
-      <c r="Y23" s="151">
+      <c r="Y23" s="149">
         <v>64.701616879149682</v>
       </c>
       <c r="Z23" s="45">
         <v>62.625644039291977</v>
       </c>
-      <c r="AA23" s="152">
+      <c r="AA23" s="150">
         <v>35</v>
       </c>
       <c r="AB23" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC23" s="153">
+        <v>124</v>
+      </c>
+      <c r="AC23" s="151">
         <v>22.49050538288385</v>
       </c>
-      <c r="AD23" s="153">
+      <c r="AD23" s="151">
         <v>15.56205068656466</v>
       </c>
       <c r="AE23" s="45">
         <v>23.030648204414991</v>
       </c>
-      <c r="AF23" s="152">
+      <c r="AF23" s="150">
         <v>30</v>
       </c>
-      <c r="AG23" s="154" t="s">
+      <c r="AG23" s="152" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH23" s="153"/>
+      <c r="AI23" s="154"/>
+      <c r="AJ23" s="155"/>
+    </row>
+    <row r="24" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="AH23" s="155"/>
-      <c r="AI23" s="156"/>
-      <c r="AJ23" s="157"/>
-    </row>
-    <row r="24" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="146" t="s">
+      <c r="B24" s="145">
+        <v>30</v>
+      </c>
+      <c r="C24" s="146" t="s">
         <v>127</v>
-      </c>
-      <c r="B24" s="147">
-        <v>30</v>
-      </c>
-      <c r="C24" s="148" t="s">
-        <v>128</v>
       </c>
       <c r="D24" s="33">
         <v>-21455.753024193578</v>
@@ -11126,47 +11127,47 @@
       <c r="V24" s="45">
         <v>29.99378917749868</v>
       </c>
-      <c r="W24" s="149">
+      <c r="W24" s="147">
         <v>5</v>
       </c>
-      <c r="X24" s="150">
+      <c r="X24" s="148">
         <v>42.078307493372677</v>
       </c>
-      <c r="Y24" s="151">
+      <c r="Y24" s="149">
         <v>40.830376541020627</v>
       </c>
       <c r="Z24" s="45">
         <v>70.871552217523103</v>
       </c>
-      <c r="AA24" s="152">
+      <c r="AA24" s="150">
         <v>35</v>
       </c>
-      <c r="AB24" s="154" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC24" s="153">
+      <c r="AB24" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC24" s="151">
         <v>43.287419725923129</v>
       </c>
-      <c r="AD24" s="153">
+      <c r="AD24" s="151">
         <v>25.26056720760695</v>
       </c>
       <c r="AE24" s="45">
         <v>40.877763040024433</v>
       </c>
-      <c r="AF24" s="152">
+      <c r="AF24" s="150">
         <v>30</v>
       </c>
-      <c r="AG24" s="154"/>
-      <c r="AH24" s="155"/>
-      <c r="AI24" s="156"/>
-      <c r="AJ24" s="157"/>
+      <c r="AG24" s="152"/>
+      <c r="AH24" s="153"/>
+      <c r="AI24" s="154"/>
+      <c r="AJ24" s="155"/>
     </row>
     <row r="25" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="158" t="s">
+      <c r="A25" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="158"/>
-      <c r="C25" s="148"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="146"/>
       <c r="D25" s="35">
         <v>2165063.3231064212</v>
       </c>
@@ -11262,8 +11263,8 @@
       <c r="AJ25" s="37"/>
     </row>
     <row r="26" spans="1:36" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="159"/>
-      <c r="B26" s="159"/>
+      <c r="A26" s="157"/>
+      <c r="B26" s="157"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
@@ -11276,26 +11277,26 @@
       <c r="M26" s="45"/>
       <c r="N26" s="45"/>
       <c r="O26" s="45"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="160"/>
-      <c r="R26" s="160"/>
-      <c r="S26" s="160"/>
-      <c r="T26" s="160"/>
-      <c r="U26" s="160"/>
-      <c r="V26" s="160"/>
-      <c r="W26" s="161"/>
-      <c r="X26" s="160"/>
-      <c r="Y26" s="160"/>
-      <c r="Z26" s="160"/>
-      <c r="AA26" s="161"/>
-      <c r="AB26" s="160"/>
-      <c r="AC26" s="160"/>
-      <c r="AD26" s="160"/>
-      <c r="AE26" s="160"/>
-      <c r="AF26" s="161"/>
-      <c r="AG26" s="160"/>
-      <c r="AH26" s="162"/>
-      <c r="AI26" s="162"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="158"/>
+      <c r="T26" s="158"/>
+      <c r="U26" s="158"/>
+      <c r="V26" s="158"/>
+      <c r="W26" s="159"/>
+      <c r="X26" s="158"/>
+      <c r="Y26" s="158"/>
+      <c r="Z26" s="158"/>
+      <c r="AA26" s="159"/>
+      <c r="AB26" s="158"/>
+      <c r="AC26" s="158"/>
+      <c r="AD26" s="158"/>
+      <c r="AE26" s="158"/>
+      <c r="AF26" s="159"/>
+      <c r="AG26" s="158"/>
+      <c r="AH26" s="160"/>
+      <c r="AI26" s="160"/>
       <c r="AJ26" s="45"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.35">
@@ -11334,16 +11335,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FC251"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:FC2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="50.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
     <col min="3" max="6" width="20.26953125" customWidth="1"/>
     <col min="7" max="15" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
@@ -11417,10 +11418,10 @@
       <c r="D2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="111" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="5">
@@ -12036,10 +12037,10 @@
       </c>
     </row>
     <row r="3" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="98"/>
+      <c r="A3" s="96"/>
       <c r="B3"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="114"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="112"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -12134,10 +12135,10 @@
       <c r="CT3"/>
     </row>
     <row r="4" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="98"/>
+      <c r="A4" s="96"/>
       <c r="B4"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="114"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="112"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -12232,10 +12233,10 @@
       <c r="CT4"/>
     </row>
     <row r="5" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="98"/>
+      <c r="A5" s="96"/>
       <c r="B5"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="114"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="112"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -12330,10 +12331,10 @@
       <c r="CT5"/>
     </row>
     <row r="6" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="98"/>
+      <c r="A6" s="96"/>
       <c r="B6"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="114"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="112"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -12428,10 +12429,10 @@
       <c r="CT6"/>
     </row>
     <row r="7" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="98"/>
+      <c r="A7" s="96"/>
       <c r="B7"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="114"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="112"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -12526,10 +12527,10 @@
       <c r="CT7"/>
     </row>
     <row r="8" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="98"/>
+      <c r="A8" s="96"/>
       <c r="B8"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="114"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="112"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -12624,10 +12625,10 @@
       <c r="CT8"/>
     </row>
     <row r="9" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="98"/>
+      <c r="A9" s="96"/>
       <c r="B9"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="114"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="112"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -12722,10 +12723,10 @@
       <c r="CT9"/>
     </row>
     <row r="10" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="98"/>
+      <c r="A10" s="96"/>
       <c r="B10"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="114"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="112"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -12820,10 +12821,10 @@
       <c r="CT10"/>
     </row>
     <row r="11" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="98"/>
+      <c r="A11" s="96"/>
       <c r="B11"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="114"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="112"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -12918,10 +12919,10 @@
       <c r="CT11"/>
     </row>
     <row r="12" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="98"/>
+      <c r="A12" s="96"/>
       <c r="B12"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="114"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="112"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -13016,10 +13017,10 @@
       <c r="CT12"/>
     </row>
     <row r="13" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="98"/>
+      <c r="A13" s="96"/>
       <c r="B13"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="114"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="112"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -13114,10 +13115,10 @@
       <c r="CT13"/>
     </row>
     <row r="14" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="98"/>
+      <c r="A14" s="96"/>
       <c r="B14"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="114"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="112"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -13212,10 +13213,10 @@
       <c r="CT14"/>
     </row>
     <row r="15" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="98"/>
+      <c r="A15" s="96"/>
       <c r="B15"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="114"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="112"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -13312,61 +13313,61 @@
     <row r="16" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="111"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="109"/>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="111"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="111"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="111"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="109"/>
     </row>
     <row r="20" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="111"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="109"/>
     </row>
     <row r="21" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="109"/>
     </row>
     <row r="23" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="111"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="109"/>
     </row>
     <row r="24" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="111"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="109"/>
     </row>
     <row r="25" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25"/>
@@ -14614,7 +14615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:FC251"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -14623,7 +14624,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="43.81640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6328125" customWidth="1"/>
     <col min="3" max="6" width="20.26953125" customWidth="1"/>
     <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12.26953125" bestFit="1" customWidth="1"/>
@@ -14713,7 +14714,7 @@
       <c r="E2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="111" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="5">
@@ -15332,86 +15333,86 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="114"/>
+      <c r="F3" s="112"/>
     </row>
     <row r="4" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="114"/>
+      <c r="F4" s="112"/>
     </row>
     <row r="5" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="114"/>
+      <c r="F5" s="112"/>
     </row>
     <row r="6" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="114"/>
+      <c r="F6" s="112"/>
     </row>
     <row r="7" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="114"/>
+      <c r="F7" s="112"/>
     </row>
     <row r="8" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="114"/>
+      <c r="F8" s="112"/>
     </row>
     <row r="9" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="114"/>
+      <c r="F9" s="112"/>
     </row>
     <row r="10" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="114"/>
+      <c r="F10" s="112"/>
     </row>
     <row r="11" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="114"/>
+      <c r="F11" s="112"/>
     </row>
     <row r="12" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="114"/>
+      <c r="F12" s="112"/>
     </row>
     <row r="13" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="114"/>
+      <c r="F13" s="112"/>
     </row>
     <row r="14" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="114"/>
+      <c r="F14" s="112"/>
     </row>
     <row r="15" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="114"/>
+      <c r="F15" s="112"/>
     </row>
     <row r="16" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="111"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="109"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -15508,8 +15509,8 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="111"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="109"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -15606,8 +15607,8 @@
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="111"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="109"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -38451,7 +38452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:FC251"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -38460,7 +38461,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="32.81640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6328125" customWidth="1"/>
     <col min="3" max="6" width="20.26953125" customWidth="1"/>
     <col min="7" max="15" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
@@ -38516,8 +38517,8 @@
       <c r="C1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="110" t="s">
+      <c r="F1" s="110"/>
+      <c r="G1" s="108" t="s">
         <v>38</v>
       </c>
     </row>
@@ -38537,7 +38538,7 @@
       <c r="E2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="111" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="5">
@@ -39155,7 +39156,7 @@
     <row r="3" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
-      <c r="F3" s="114"/>
+      <c r="F3" s="112"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -39252,7 +39253,7 @@
     <row r="4" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4"/>
-      <c r="F4" s="114"/>
+      <c r="F4" s="112"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -39349,7 +39350,7 @@
     <row r="5" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="F5" s="114"/>
+      <c r="F5" s="112"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -39446,7 +39447,7 @@
     <row r="6" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="F6" s="114"/>
+      <c r="F6" s="112"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -39543,7 +39544,7 @@
     <row r="7" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="F7" s="114"/>
+      <c r="F7" s="112"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -39640,7 +39641,7 @@
     <row r="8" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="F8" s="114"/>
+      <c r="F8" s="112"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -39737,7 +39738,7 @@
     <row r="9" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9"/>
-      <c r="F9" s="114"/>
+      <c r="F9" s="112"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -39834,7 +39835,7 @@
     <row r="10" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10"/>
-      <c r="F10" s="114"/>
+      <c r="F10" s="112"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -39931,7 +39932,7 @@
     <row r="11" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11"/>
-      <c r="F11" s="114"/>
+      <c r="F11" s="112"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -40004,7 +40005,7 @@
       <c r="BX11"/>
       <c r="BY11"/>
       <c r="BZ11"/>
-      <c r="CA11" s="100"/>
+      <c r="CA11" s="98"/>
       <c r="CB11"/>
       <c r="CC11"/>
       <c r="CD11"/>
@@ -40028,7 +40029,7 @@
     <row r="12" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="F12" s="114"/>
+      <c r="F12" s="112"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -40125,7 +40126,7 @@
     <row r="13" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="F13" s="114"/>
+      <c r="F13" s="112"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -40222,7 +40223,7 @@
     <row r="14" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14"/>
-      <c r="F14" s="114"/>
+      <c r="F14" s="112"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -40319,7 +40320,7 @@
     <row r="15" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15"/>
-      <c r="F15" s="114"/>
+      <c r="F15" s="112"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -40416,14 +40417,14 @@
     <row r="16" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="111"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="109"/>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="111"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18"/>
@@ -41605,7 +41606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:FC251"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -41615,7 +41616,7 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.453125" customWidth="1"/>
-    <col min="2" max="2" width="42.36328125" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
     <col min="3" max="6" width="20.26953125" customWidth="1"/>
     <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12.26953125" bestFit="1" customWidth="1"/>
@@ -41765,7 +41766,7 @@
       <c r="E2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="111" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="5">
@@ -42384,86 +42385,86 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="114"/>
+      <c r="F3" s="112"/>
     </row>
     <row r="4" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="114"/>
+      <c r="F4" s="112"/>
     </row>
     <row r="5" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="114"/>
+      <c r="F5" s="112"/>
     </row>
     <row r="6" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="114"/>
+      <c r="F6" s="112"/>
     </row>
     <row r="7" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="114"/>
+      <c r="F7" s="112"/>
     </row>
     <row r="8" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="114"/>
+      <c r="F8" s="112"/>
     </row>
     <row r="9" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="114"/>
+      <c r="F9" s="112"/>
     </row>
     <row r="10" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="114"/>
+      <c r="F10" s="112"/>
     </row>
     <row r="11" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="114"/>
+      <c r="F11" s="112"/>
     </row>
     <row r="12" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="114"/>
+      <c r="F12" s="112"/>
     </row>
     <row r="13" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="114"/>
+      <c r="F13" s="112"/>
     </row>
     <row r="14" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="114"/>
+      <c r="F14" s="112"/>
     </row>
     <row r="15" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="114"/>
+      <c r="F15" s="112"/>
     </row>
     <row r="16" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="111"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="109"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -42560,8 +42561,8 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="111"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="109"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>

--- a/VN/wc_template_VN_v3.xlsx
+++ b/VN/wc_template_VN_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\VN\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477A680E-6F47-49EE-8333-9E4445B9593B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76968793-6CC3-4BAA-ACEC-69BE3BE9BF17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="17070" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="10" r:id="rId1"/>
@@ -1266,6 +1266,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1275,12 +1281,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1577,7 +1577,7 @@
   <dimension ref="A1:BD78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
@@ -1958,7 +1958,7 @@
         <v>#N/A</v>
       </c>
       <c r="P4" s="82" t="e">
-        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q4" s="105"/>
@@ -2018,7 +2018,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN4" s="106" t="str">
-        <f>IFERROR(AR4/M4*30,"n.a.")</f>
+        <f t="shared" ref="AN4:AN25" si="3">IFERROR(AR4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AO4" s="82" t="e">
@@ -2054,11 +2054,11 @@
         <v>n.a.</v>
       </c>
       <c r="AW4" s="85" t="str">
-        <f t="shared" ref="AW4:AW14" si="3">IFERROR(-AS4+AV4, "n.a.")</f>
+        <f t="shared" ref="AW4:AW14" si="4">IFERROR(-AS4+AV4, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX4" s="106" t="str">
-        <f>IFERROR(BB4/M4*30,"n.a.")</f>
+        <f t="shared" ref="AX4:AX25" si="5">IFERROR(BB4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AY4" s="82" t="e">
@@ -2113,7 +2113,7 @@
         <v>#N/A</v>
       </c>
       <c r="P5" s="82" t="e">
-        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q5" s="105"/>
@@ -2129,7 +2129,7 @@
       <c r="AA5" s="105"/>
       <c r="AB5" s="105"/>
       <c r="AC5" s="83" t="str">
-        <f t="shared" ref="AC5:AC24" si="4">IFERROR(AI5-AS5, "")</f>
+        <f t="shared" ref="AC5:AC24" si="6">IFERROR(AI5-AS5, "")</f>
         <v/>
       </c>
       <c r="AD5" s="90" t="str">
@@ -2149,7 +2149,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH5" s="135" t="str">
-        <f t="shared" ref="AH5:AH25" si="5">IFERROR(IF(AN5="n.a.", -AX5, IF(AX5="n.a.", AN5, AN5-AX5)),"n.a.")</f>
+        <f t="shared" ref="AH5:AH25" si="7">IFERROR(IF(AN5="n.a.", -AX5, IF(AX5="n.a.", AN5, AN5-AX5)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AI5" s="162" t="str">
@@ -2157,15 +2157,15 @@
         <v/>
       </c>
       <c r="AJ5" s="84" t="str">
-        <f t="shared" ref="AJ5:AJ25" si="6">IFERROR(AO5/J5*30,"n.a.")</f>
+        <f t="shared" ref="AJ5:AJ25" si="8">IFERROR(AO5/J5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AK5" s="87" t="str">
-        <f t="shared" ref="AK5:AK25" si="7">IFERROR(AP5/K5*30,"n.a.")</f>
+        <f t="shared" ref="AK5:AK25" si="9">IFERROR(AP5/K5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AL5" s="84" t="str">
-        <f t="shared" ref="AL5:AL25" si="8">IFERROR(AQ5/L5*30,"n.a.")</f>
+        <f t="shared" ref="AL5:AL25" si="10">IFERROR(AQ5/L5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AM5" s="91" t="str">
@@ -2173,7 +2173,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN5" s="106" t="str">
-        <f>IFERROR(AR5/M5*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO5" s="94" t="e">
@@ -2197,23 +2197,23 @@
         <v/>
       </c>
       <c r="AT5" s="84" t="str">
-        <f t="shared" ref="AT5:AT24" si="9">IFERROR(AY5/J5*30,"n.a.")</f>
+        <f t="shared" ref="AT5:AT24" si="11">IFERROR(AY5/J5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AU5" s="84" t="str">
-        <f t="shared" ref="AU5:AU24" si="10">IFERROR(AZ5/K5*30,"n.a.")</f>
+        <f t="shared" ref="AU5:AU24" si="12">IFERROR(AZ5/K5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AV5" s="80" t="str">
-        <f t="shared" ref="AV5:AV24" si="11">IFERROR(BA5/L5*30,"n.a.")</f>
+        <f t="shared" ref="AV5:AV24" si="13">IFERROR(BA5/L5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AW5" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX5" s="106" t="str">
-        <f>IFERROR(BB5/M5*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY5" s="94" t="e">
@@ -2268,7 +2268,7 @@
         <v>#N/A</v>
       </c>
       <c r="P6" s="82" t="e">
-        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q6" s="105"/>
@@ -2284,7 +2284,7 @@
       <c r="AA6" s="105"/>
       <c r="AB6" s="105"/>
       <c r="AC6" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD6" s="90" t="str">
@@ -2304,7 +2304,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH6" s="135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI6" s="162" t="str">
@@ -2312,15 +2312,15 @@
         <v/>
       </c>
       <c r="AJ6" s="84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK6" s="87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL6" s="84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM6" s="91" t="str">
@@ -2328,7 +2328,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN6" s="106" t="str">
-        <f>IFERROR(AR6/M6*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO6" s="94" t="e">
@@ -2352,23 +2352,23 @@
         <v/>
       </c>
       <c r="AT6" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU6" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV6" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU6" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV6" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW6" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX6" s="106" t="str">
-        <f>IFERROR(BB6/M6*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY6" s="94" t="e">
@@ -2423,7 +2423,7 @@
         <v>#N/A</v>
       </c>
       <c r="P7" s="82" t="e">
-        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q7" s="105"/>
@@ -2439,7 +2439,7 @@
       <c r="AA7" s="105"/>
       <c r="AB7" s="105"/>
       <c r="AC7" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD7" s="90" t="str">
@@ -2459,7 +2459,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH7" s="135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI7" s="162" t="str">
@@ -2467,15 +2467,15 @@
         <v/>
       </c>
       <c r="AJ7" s="84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK7" s="87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL7" s="84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM7" s="91" t="str">
@@ -2483,7 +2483,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN7" s="106" t="str">
-        <f>IFERROR(AR7/M7*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO7" s="94" t="e">
@@ -2507,23 +2507,23 @@
         <v/>
       </c>
       <c r="AT7" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU7" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV7" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU7" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV7" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW7" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX7" s="106" t="str">
-        <f>IFERROR(BB7/M7*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY7" s="94" t="e">
@@ -2578,7 +2578,7 @@
         <v>#N/A</v>
       </c>
       <c r="P8" s="82" t="e">
-        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q8" s="105"/>
@@ -2594,7 +2594,7 @@
       <c r="AA8" s="105"/>
       <c r="AB8" s="105"/>
       <c r="AC8" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD8" s="90" t="str">
@@ -2614,7 +2614,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH8" s="135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI8" s="162" t="str">
@@ -2622,15 +2622,15 @@
         <v/>
       </c>
       <c r="AJ8" s="84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK8" s="87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL8" s="84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM8" s="91" t="str">
@@ -2638,7 +2638,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN8" s="106" t="str">
-        <f>IFERROR(AR8/M8*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO8" s="94" t="e">
@@ -2662,23 +2662,23 @@
         <v/>
       </c>
       <c r="AT8" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU8" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV8" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU8" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV8" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW8" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX8" s="106" t="str">
-        <f>IFERROR(BB8/M8*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY8" s="94" t="e">
@@ -2733,7 +2733,7 @@
         <v>#N/A</v>
       </c>
       <c r="P9" s="82" t="e">
-        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q9" s="105"/>
@@ -2749,7 +2749,7 @@
       <c r="AA9" s="105"/>
       <c r="AB9" s="105"/>
       <c r="AC9" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD9" s="90" t="str">
@@ -2769,7 +2769,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH9" s="135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI9" s="162" t="str">
@@ -2777,15 +2777,15 @@
         <v/>
       </c>
       <c r="AJ9" s="84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK9" s="87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL9" s="84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM9" s="91" t="str">
@@ -2793,7 +2793,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN9" s="106" t="str">
-        <f>IFERROR(AR9/M9*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO9" s="94" t="e">
@@ -2817,23 +2817,23 @@
         <v/>
       </c>
       <c r="AT9" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU9" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV9" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU9" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV9" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW9" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX9" s="106" t="str">
-        <f>IFERROR(BB9/M9*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY9" s="94" t="e">
@@ -2888,7 +2888,7 @@
         <v>#N/A</v>
       </c>
       <c r="P10" s="82" t="e">
-        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q10" s="105"/>
@@ -2904,7 +2904,7 @@
       <c r="AA10" s="105"/>
       <c r="AB10" s="105"/>
       <c r="AC10" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD10" s="90" t="str">
@@ -2924,7 +2924,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH10" s="135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI10" s="162" t="str">
@@ -2932,15 +2932,15 @@
         <v/>
       </c>
       <c r="AJ10" s="84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK10" s="87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL10" s="84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM10" s="91" t="str">
@@ -2948,7 +2948,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN10" s="106" t="str">
-        <f>IFERROR(AR10/M10*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO10" s="94" t="e">
@@ -2972,23 +2972,23 @@
         <v/>
       </c>
       <c r="AT10" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU10" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV10" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU10" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV10" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW10" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX10" s="106" t="str">
-        <f>IFERROR(BB10/M10*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY10" s="94" t="e">
@@ -3043,7 +3043,7 @@
         <v>#N/A</v>
       </c>
       <c r="P11" s="82" t="e">
-        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q11" s="105"/>
@@ -3059,7 +3059,7 @@
       <c r="AA11" s="105"/>
       <c r="AB11" s="105"/>
       <c r="AC11" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD11" s="90" t="str">
@@ -3079,7 +3079,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH11" s="135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI11" s="162" t="str">
@@ -3087,15 +3087,15 @@
         <v/>
       </c>
       <c r="AJ11" s="84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK11" s="87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL11" s="84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM11" s="91" t="str">
@@ -3103,7 +3103,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN11" s="106" t="str">
-        <f>IFERROR(AR11/M11*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO11" s="94" t="e">
@@ -3127,23 +3127,23 @@
         <v/>
       </c>
       <c r="AT11" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU11" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV11" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU11" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV11" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW11" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX11" s="106" t="str">
-        <f>IFERROR(BB11/M11*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY11" s="94" t="e">
@@ -3198,7 +3198,7 @@
         <v>#N/A</v>
       </c>
       <c r="P12" s="82" t="e">
-        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q12" s="105"/>
@@ -3214,7 +3214,7 @@
       <c r="AA12" s="105"/>
       <c r="AB12" s="105"/>
       <c r="AC12" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD12" s="90" t="str">
@@ -3234,7 +3234,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH12" s="135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI12" s="162" t="str">
@@ -3242,15 +3242,15 @@
         <v/>
       </c>
       <c r="AJ12" s="84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK12" s="87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL12" s="84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM12" s="91" t="str">
@@ -3258,7 +3258,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN12" s="106" t="str">
-        <f>IFERROR(AR12/M12*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO12" s="94" t="e">
@@ -3282,23 +3282,23 @@
         <v/>
       </c>
       <c r="AT12" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU12" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV12" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU12" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV12" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW12" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX12" s="106" t="str">
-        <f>IFERROR(BB12/M12*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY12" s="94" t="e">
@@ -3353,7 +3353,7 @@
         <v>#N/A</v>
       </c>
       <c r="P13" s="82" t="e">
-        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q13" s="105"/>
@@ -3369,7 +3369,7 @@
       <c r="AA13" s="105"/>
       <c r="AB13" s="105"/>
       <c r="AC13" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD13" s="90" t="str">
@@ -3389,7 +3389,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH13" s="135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI13" s="162" t="str">
@@ -3397,15 +3397,15 @@
         <v/>
       </c>
       <c r="AJ13" s="84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK13" s="87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL13" s="84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM13" s="91" t="str">
@@ -3413,7 +3413,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN13" s="106" t="str">
-        <f>IFERROR(AR13/M13*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO13" s="94" t="e">
@@ -3437,23 +3437,23 @@
         <v/>
       </c>
       <c r="AT13" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU13" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV13" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU13" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV13" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW13" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX13" s="106" t="str">
-        <f>IFERROR(BB13/M13*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY13" s="94" t="e">
@@ -3508,7 +3508,7 @@
         <v>#N/A</v>
       </c>
       <c r="P14" s="82" t="e">
-        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q14" s="105"/>
@@ -3524,7 +3524,7 @@
       <c r="AA14" s="105"/>
       <c r="AB14" s="105"/>
       <c r="AC14" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD14" s="90" t="str">
@@ -3544,7 +3544,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH14" s="135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI14" s="162" t="str">
@@ -3552,15 +3552,15 @@
         <v/>
       </c>
       <c r="AJ14" s="84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK14" s="87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL14" s="84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM14" s="91" t="str">
@@ -3568,7 +3568,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN14" s="106" t="str">
-        <f>IFERROR(AR14/M14*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO14" s="94" t="e">
@@ -3592,23 +3592,23 @@
         <v/>
       </c>
       <c r="AT14" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU14" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV14" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU14" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV14" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW14" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX14" s="106" t="str">
-        <f>IFERROR(BB14/M14*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY14" s="94" t="e">
@@ -3663,7 +3663,7 @@
         <v>#N/A</v>
       </c>
       <c r="P15" s="82" t="e">
-        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q15" s="105"/>
@@ -3679,27 +3679,27 @@
       <c r="AA15" s="105"/>
       <c r="AB15" s="105"/>
       <c r="AC15" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD15" s="90" t="str">
-        <f t="shared" ref="AD15:AD23" si="12">IFERROR(IF(AJ15="n.a.", -AT15, IF(AT15="n.a.", AJ15, AJ15-AT15)),"n.a.")</f>
+        <f t="shared" ref="AD15:AD23" si="14">IFERROR(IF(AJ15="n.a.", -AT15, IF(AT15="n.a.", AJ15, AJ15-AT15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AE15" s="90" t="str">
-        <f t="shared" ref="AE15:AE23" si="13">IFERROR(IF(AK15="n.a.", -AU15, IF(AU15="n.a.", AK15, AK15-AU15)),"n.a.")</f>
+        <f t="shared" ref="AE15:AE23" si="15">IFERROR(IF(AK15="n.a.", -AU15, IF(AU15="n.a.", AK15, AK15-AU15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AF15" s="107" t="str">
-        <f t="shared" ref="AF15:AF23" si="14">IFERROR(IF(AL15="n.a.", -AV15, IF(AV15="n.a.", AL15, AL15-AV15)),"n.a.")</f>
+        <f t="shared" ref="AF15:AF23" si="16">IFERROR(IF(AL15="n.a.", -AV15, IF(AV15="n.a.", AL15, AL15-AV15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AG15" s="92" t="str">
-        <f t="shared" ref="AG15:AG23" si="15">IFERROR(AC15-AF15, "n.a.")</f>
+        <f t="shared" ref="AG15:AG23" si="17">IFERROR(AC15-AF15, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AH15" s="135" t="str">
-        <f t="shared" ref="AH15:AH23" si="16">IFERROR(IF(AN15="n.a.", -AX15, IF(AX15="n.a.", AN15, AN15-AX15)),"n.a.")</f>
+        <f t="shared" ref="AH15:AH23" si="18">IFERROR(IF(AN15="n.a.", -AX15, IF(AX15="n.a.", AN15, AN15-AX15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AI15" s="162" t="str">
@@ -3707,23 +3707,23 @@
         <v/>
       </c>
       <c r="AJ15" s="84" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK15" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL15" s="84" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK15" s="87" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL15" s="84" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM15" s="91" t="str">
-        <f t="shared" ref="AM15:AM23" si="17">IFERROR(-AL15+AI15,"n.a.")</f>
+        <f t="shared" ref="AM15:AM23" si="19">IFERROR(-AL15+AI15,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AN15" s="106" t="str">
-        <f>IFERROR(AR15/M15*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO15" s="94" t="e">
@@ -3747,23 +3747,23 @@
         <v/>
       </c>
       <c r="AT15" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU15" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV15" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU15" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV15" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW15" s="91" t="str">
-        <f t="shared" ref="AW15:AW23" si="18">IFERROR(-AS15+AV15, "n.a.")</f>
+        <f t="shared" ref="AW15:AW23" si="20">IFERROR(-AS15+AV15, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX15" s="106" t="str">
-        <f>IFERROR(BB15/M15*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY15" s="94" t="e">
@@ -3818,7 +3818,7 @@
         <v>#N/A</v>
       </c>
       <c r="P16" s="82" t="e">
-        <f>VLOOKUP($B16,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B16,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q16" s="105"/>
@@ -3834,27 +3834,27 @@
       <c r="AA16" s="105"/>
       <c r="AB16" s="105"/>
       <c r="AC16" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD16" s="90" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE16" s="90" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF16" s="107" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG16" s="92" t="str">
+      <c r="AE16" s="90" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF16" s="107" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG16" s="92" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH16" s="135" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI16" s="162" t="str">
@@ -3862,23 +3862,23 @@
         <v/>
       </c>
       <c r="AJ16" s="84" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK16" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL16" s="84" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK16" s="87" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL16" s="84" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM16" s="91" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN16" s="106" t="str">
-        <f>IFERROR(AR16/M16*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO16" s="94" t="e">
@@ -3902,23 +3902,23 @@
         <v/>
       </c>
       <c r="AT16" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU16" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV16" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU16" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV16" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW16" s="91" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX16" s="106" t="str">
-        <f>IFERROR(BB16/M16*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY16" s="94" t="e">
@@ -3973,7 +3973,7 @@
         <v>#N/A</v>
       </c>
       <c r="P17" s="82" t="e">
-        <f>VLOOKUP($B17,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B17,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q17" s="105"/>
@@ -3989,27 +3989,27 @@
       <c r="AA17" s="105"/>
       <c r="AB17" s="105"/>
       <c r="AC17" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD17" s="90" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE17" s="90" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF17" s="107" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG17" s="92" t="str">
+      <c r="AE17" s="90" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF17" s="107" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG17" s="92" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH17" s="135" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI17" s="162" t="str">
@@ -4017,23 +4017,23 @@
         <v/>
       </c>
       <c r="AJ17" s="84" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK17" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL17" s="84" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK17" s="87" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL17" s="84" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM17" s="91" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN17" s="106" t="str">
-        <f>IFERROR(AR17/M17*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO17" s="94" t="e">
@@ -4057,23 +4057,23 @@
         <v/>
       </c>
       <c r="AT17" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU17" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV17" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU17" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV17" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW17" s="91" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX17" s="106" t="str">
-        <f>IFERROR(BB17/M17*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY17" s="94" t="e">
@@ -4128,7 +4128,7 @@
         <v>#N/A</v>
       </c>
       <c r="P18" s="82" t="e">
-        <f>VLOOKUP($B18,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B18,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q18" s="105"/>
@@ -4144,27 +4144,27 @@
       <c r="AA18" s="105"/>
       <c r="AB18" s="105"/>
       <c r="AC18" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD18" s="90" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE18" s="90" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF18" s="107" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG18" s="92" t="str">
+      <c r="AE18" s="90" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF18" s="107" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG18" s="92" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH18" s="135" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI18" s="162" t="str">
@@ -4172,23 +4172,23 @@
         <v/>
       </c>
       <c r="AJ18" s="84" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK18" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL18" s="84" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK18" s="87" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL18" s="84" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM18" s="91" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN18" s="106" t="str">
-        <f>IFERROR(AR18/M18*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO18" s="94" t="e">
@@ -4212,23 +4212,23 @@
         <v/>
       </c>
       <c r="AT18" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU18" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV18" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU18" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV18" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW18" s="91" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX18" s="106" t="str">
-        <f>IFERROR(BB18/M18*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY18" s="94" t="e">
@@ -4283,7 +4283,7 @@
         <v>#N/A</v>
       </c>
       <c r="P19" s="82" t="e">
-        <f>VLOOKUP($B19,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B19,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q19" s="105"/>
@@ -4299,27 +4299,27 @@
       <c r="AA19" s="105"/>
       <c r="AB19" s="105"/>
       <c r="AC19" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD19" s="90" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE19" s="90" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF19" s="107" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG19" s="92" t="str">
+      <c r="AE19" s="90" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF19" s="107" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG19" s="92" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH19" s="135" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI19" s="162" t="str">
@@ -4327,23 +4327,23 @@
         <v/>
       </c>
       <c r="AJ19" s="84" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK19" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL19" s="84" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK19" s="87" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL19" s="84" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM19" s="91" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN19" s="106" t="str">
-        <f>IFERROR(AR19/M19*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO19" s="94" t="e">
@@ -4367,23 +4367,23 @@
         <v/>
       </c>
       <c r="AT19" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU19" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV19" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU19" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV19" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW19" s="91" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX19" s="106" t="str">
-        <f>IFERROR(BB19/M19*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY19" s="94" t="e">
@@ -4438,7 +4438,7 @@
         <v>#N/A</v>
       </c>
       <c r="P20" s="82" t="e">
-        <f>VLOOKUP($B20,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B20,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q20" s="105"/>
@@ -4454,27 +4454,27 @@
       <c r="AA20" s="105"/>
       <c r="AB20" s="105"/>
       <c r="AC20" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD20" s="90" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE20" s="90" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF20" s="107" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG20" s="92" t="str">
+      <c r="AE20" s="90" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF20" s="107" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG20" s="92" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH20" s="135" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI20" s="162" t="str">
@@ -4482,23 +4482,23 @@
         <v/>
       </c>
       <c r="AJ20" s="84" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK20" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL20" s="84" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK20" s="87" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL20" s="84" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM20" s="91" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN20" s="106" t="str">
-        <f>IFERROR(AR20/M20*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO20" s="94" t="e">
@@ -4522,23 +4522,23 @@
         <v/>
       </c>
       <c r="AT20" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU20" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV20" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU20" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV20" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW20" s="91" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX20" s="106" t="str">
-        <f>IFERROR(BB20/M20*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY20" s="94" t="e">
@@ -4593,7 +4593,7 @@
         <v>#N/A</v>
       </c>
       <c r="P21" s="82" t="e">
-        <f>VLOOKUP($B21,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B21,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q21" s="105"/>
@@ -4609,27 +4609,27 @@
       <c r="AA21" s="105"/>
       <c r="AB21" s="105"/>
       <c r="AC21" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD21" s="90" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE21" s="90" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF21" s="107" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG21" s="92" t="str">
+      <c r="AE21" s="90" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF21" s="107" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG21" s="92" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH21" s="135" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI21" s="162" t="str">
@@ -4637,23 +4637,23 @@
         <v/>
       </c>
       <c r="AJ21" s="84" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK21" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL21" s="84" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK21" s="87" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL21" s="84" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM21" s="91" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN21" s="106" t="str">
-        <f>IFERROR(AR21/M21*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO21" s="94" t="e">
@@ -4677,23 +4677,23 @@
         <v/>
       </c>
       <c r="AT21" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU21" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV21" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU21" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV21" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW21" s="91" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX21" s="106" t="str">
-        <f>IFERROR(BB21/M21*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY21" s="94" t="e">
@@ -4748,7 +4748,7 @@
         <v>#N/A</v>
       </c>
       <c r="P22" s="82" t="e">
-        <f>VLOOKUP($B22,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B22,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q22" s="105"/>
@@ -4764,27 +4764,27 @@
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
       <c r="AC22" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD22" s="90" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE22" s="90" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF22" s="107" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG22" s="92" t="str">
+      <c r="AE22" s="90" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF22" s="107" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG22" s="92" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH22" s="135" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI22" s="162" t="str">
@@ -4792,23 +4792,23 @@
         <v/>
       </c>
       <c r="AJ22" s="84" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK22" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL22" s="84" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK22" s="87" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL22" s="84" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM22" s="91" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN22" s="106" t="str">
-        <f>IFERROR(AR22/M22*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO22" s="94" t="e">
@@ -4832,23 +4832,23 @@
         <v/>
       </c>
       <c r="AT22" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU22" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV22" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU22" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV22" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW22" s="91" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX22" s="106" t="str">
-        <f>IFERROR(BB22/M22*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY22" s="94" t="e">
@@ -4903,7 +4903,7 @@
         <v>#N/A</v>
       </c>
       <c r="P23" s="82" t="e">
-        <f>VLOOKUP($B23,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B23,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q23" s="105"/>
@@ -4919,27 +4919,27 @@
       <c r="AA23" s="105"/>
       <c r="AB23" s="105"/>
       <c r="AC23" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD23" s="90" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE23" s="90" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF23" s="107" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG23" s="92" t="str">
+      <c r="AE23" s="90" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF23" s="107" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG23" s="92" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH23" s="135" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI23" s="162" t="str">
@@ -4947,23 +4947,23 @@
         <v/>
       </c>
       <c r="AJ23" s="84" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK23" s="87" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL23" s="84" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK23" s="87" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL23" s="84" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM23" s="91" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN23" s="106" t="str">
-        <f>IFERROR(AR23/M23*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO23" s="94" t="e">
@@ -4987,23 +4987,23 @@
         <v/>
       </c>
       <c r="AT23" s="84" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU23" s="84" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV23" s="80" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU23" s="84" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV23" s="80" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW23" s="91" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX23" s="106" t="str">
-        <f>IFERROR(BB23/M23*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY23" s="94" t="e">
@@ -5058,7 +5058,7 @@
         <v>#N/A</v>
       </c>
       <c r="P24" s="94" t="e">
-        <f>VLOOKUP($B24,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B24,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q24" s="127"/>
@@ -5074,7 +5074,7 @@
       <c r="AA24" s="127"/>
       <c r="AB24" s="127"/>
       <c r="AC24" s="89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD24" s="90" t="str">
@@ -5094,7 +5094,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH24" s="136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI24" s="162" t="str">
@@ -5102,15 +5102,15 @@
         <v/>
       </c>
       <c r="AJ24" s="90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK24" s="93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL24" s="90" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM24" s="91" t="str">
@@ -5118,7 +5118,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN24" s="107" t="str">
-        <f>IFERROR(AR24/M24*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO24" s="94" t="e">
@@ -5142,23 +5142,23 @@
         <v/>
       </c>
       <c r="AT24" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU24" s="90" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV24" s="77" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU24" s="90" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV24" s="77" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW24" s="91" t="str">
-        <f t="shared" ref="AW24" si="19">IFERROR(-AS24+AV24, "n.a.")</f>
+        <f t="shared" ref="AW24" si="21">IFERROR(-AS24+AV24, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX24" s="107" t="str">
-        <f>IFERROR(BB24/M24*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY24" s="94" t="e">
@@ -5200,31 +5200,31 @@
       <c r="H25" s="120"/>
       <c r="I25" s="119"/>
       <c r="J25" s="121" t="e">
-        <f t="shared" ref="J25:P25" si="20">SUM(J4:J24)</f>
+        <f t="shared" ref="J25:P25" si="22">SUM(J4:J24)</f>
         <v>#N/A</v>
       </c>
       <c r="K25" s="121" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L25" s="121" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="M25" s="121" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="N25" s="121" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="O25" s="121" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="P25" s="121" t="e">
-        <f t="shared" si="20"/>
+      <c r="P25" s="82" t="e">
+        <f>VLOOKUP($B25,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q25" s="121"/>
@@ -5254,25 +5254,25 @@
       </c>
       <c r="AG25" s="120"/>
       <c r="AH25" s="161" t="str">
-        <f t="shared" si="5"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AI25" s="124"/>
-      <c r="AJ25" s="169" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK25" s="170" t="str">
         <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
-      <c r="AL25" s="169" t="str">
+      <c r="AI25" s="124"/>
+      <c r="AJ25" s="164" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK25" s="165" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL25" s="164" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM25" s="120"/>
       <c r="AN25" s="137" t="str">
-        <f>IFERROR(AR25/M25*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO25" s="121" t="e">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="AW25" s="120"/>
       <c r="AX25" s="120" t="str">
-        <f>IFERROR(BB25/M25*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY25" s="121" t="e">
@@ -8544,54 +8544,54 @@
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="164" t="s">
+      <c r="D2" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="164" t="s">
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="164" t="s">
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="164" t="s">
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="168" t="s">
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="164" t="s">
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="166"/>
-      <c r="AC2" s="164" t="s">
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="167"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="165"/>
-      <c r="AE2" s="165"/>
-      <c r="AF2" s="165"/>
-      <c r="AG2" s="166"/>
-      <c r="AH2" s="167" t="s">
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="168"/>
+      <c r="AH2" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="165"/>
+      <c r="AI2" s="167"/>
       <c r="AJ2" s="141"/>
     </row>
     <row r="3" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">

--- a/VN/wc_template_VN_v3.xlsx
+++ b/VN/wc_template_VN_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\VN\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76968793-6CC3-4BAA-ACEC-69BE3BE9BF17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABC846F-CF7A-4F18-B432-3BA6D6369A38}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="130">
   <si>
     <t>Supplier Name</t>
   </si>
@@ -452,6 +452,9 @@
   <si>
     <t>Monthly Inbounds (US$)</t>
   </si>
+  <si>
+    <t>L90D</t>
+  </si>
 </sst>
 </file>
 
@@ -825,7 +828,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1283,6 +1286,9 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1934,15 +1940,15 @@
       <c r="H4" s="95"/>
       <c r="I4" s="95"/>
       <c r="J4" s="82" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K4" s="82" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L4" s="82" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M4" s="82" t="e">
@@ -2089,15 +2095,15 @@
       <c r="H5" s="95"/>
       <c r="I5" s="95"/>
       <c r="J5" s="82" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K5" s="82" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L5" s="82" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M5" s="82" t="e">
@@ -2244,15 +2250,15 @@
       <c r="H6" s="95"/>
       <c r="I6" s="95"/>
       <c r="J6" s="82" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K6" s="82" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L6" s="82" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M6" s="82" t="e">
@@ -2399,15 +2405,15 @@
       <c r="H7" s="95"/>
       <c r="I7" s="95"/>
       <c r="J7" s="82" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K7" s="82" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L7" s="82" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M7" s="82" t="e">
@@ -2554,15 +2560,15 @@
       <c r="H8" s="95"/>
       <c r="I8" s="95"/>
       <c r="J8" s="82" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K8" s="82" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L8" s="82" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M8" s="82" t="e">
@@ -2709,15 +2715,15 @@
       <c r="H9" s="95"/>
       <c r="I9" s="95"/>
       <c r="J9" s="82" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K9" s="82" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L9" s="82" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M9" s="82" t="e">
@@ -2864,15 +2870,15 @@
       <c r="H10" s="95"/>
       <c r="I10" s="95"/>
       <c r="J10" s="82" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K10" s="82" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L10" s="82" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M10" s="82" t="e">
@@ -3019,15 +3025,15 @@
       <c r="H11" s="95"/>
       <c r="I11" s="95"/>
       <c r="J11" s="82" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K11" s="82" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L11" s="82" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M11" s="82" t="e">
@@ -3174,15 +3180,15 @@
       <c r="H12" s="95"/>
       <c r="I12" s="95"/>
       <c r="J12" s="82" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K12" s="82" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L12" s="82" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M12" s="82" t="e">
@@ -3329,15 +3335,15 @@
       <c r="H13" s="95"/>
       <c r="I13" s="95"/>
       <c r="J13" s="82" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K13" s="82" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L13" s="82" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M13" s="82" t="e">
@@ -3484,15 +3490,15 @@
       <c r="H14" s="95"/>
       <c r="I14" s="95"/>
       <c r="J14" s="82" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K14" s="82" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L14" s="82" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M14" s="82" t="e">
@@ -3639,15 +3645,15 @@
       <c r="H15" s="95"/>
       <c r="I15" s="95"/>
       <c r="J15" s="82" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K15" s="82" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L15" s="82" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M15" s="82" t="e">
@@ -3794,15 +3800,15 @@
       <c r="H16" s="95"/>
       <c r="I16" s="95"/>
       <c r="J16" s="82" t="e">
-        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K16" s="82" t="e">
-        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L16" s="82" t="e">
-        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M16" s="82" t="e">
@@ -3949,15 +3955,15 @@
       <c r="H17" s="95"/>
       <c r="I17" s="95"/>
       <c r="J17" s="82" t="e">
-        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K17" s="82" t="e">
-        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L17" s="82" t="e">
-        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M17" s="82" t="e">
@@ -4104,15 +4110,15 @@
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="J18" s="82" t="e">
-        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K18" s="82" t="e">
-        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L18" s="82" t="e">
-        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M18" s="82" t="e">
@@ -4259,15 +4265,15 @@
       <c r="H19" s="95"/>
       <c r="I19" s="95"/>
       <c r="J19" s="82" t="e">
-        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K19" s="82" t="e">
-        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L19" s="82" t="e">
-        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M19" s="82" t="e">
@@ -4414,15 +4420,15 @@
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="J20" s="82" t="e">
-        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K20" s="82" t="e">
-        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L20" s="82" t="e">
-        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M20" s="82" t="e">
@@ -4569,15 +4575,15 @@
       <c r="H21" s="95"/>
       <c r="I21" s="95"/>
       <c r="J21" s="82" t="e">
-        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K21" s="82" t="e">
-        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L21" s="82" t="e">
-        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M21" s="82" t="e">
@@ -4724,15 +4730,15 @@
       <c r="H22" s="95"/>
       <c r="I22" s="95"/>
       <c r="J22" s="82" t="e">
-        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K22" s="82" t="e">
-        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L22" s="82" t="e">
-        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M22" s="82" t="e">
@@ -4879,15 +4885,15 @@
       <c r="H23" s="95"/>
       <c r="I23" s="95"/>
       <c r="J23" s="82" t="e">
-        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K23" s="82" t="e">
-        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L23" s="82" t="e">
-        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M23" s="82" t="e">
@@ -5034,15 +5040,15 @@
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="94" t="e">
-        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K24" s="94" t="e">
-        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L24" s="94" t="e">
-        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M24" s="94" t="e">
@@ -5200,7 +5206,7 @@
       <c r="H25" s="120"/>
       <c r="I25" s="119"/>
       <c r="J25" s="121" t="e">
-        <f t="shared" ref="J25:P25" si="22">SUM(J4:J24)</f>
+        <f t="shared" ref="J25:O25" si="22">SUM(J4:J24)</f>
         <v>#N/A</v>
       </c>
       <c r="K25" s="121" t="e">
@@ -5223,7 +5229,7 @@
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="P25" s="82" t="e">
+      <c r="P25" s="171" t="e">
         <f>VLOOKUP($B25,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -11129,7 +11135,7 @@
         <v>54</v>
       </c>
       <c r="E2" s="108" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="F2" s="111" t="s">
         <v>56</v>
